--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E726F38A-A7AF-6B4B-8552-7066F2D8F846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97958E9B-D0C4-DD4F-8E8F-9CD0898A0C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27100" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
-    <sheet name="Exec. Time of Test Phase (ms)" sheetId="2" r:id="rId2"/>
-    <sheet name="Memory (MB)" sheetId="3" r:id="rId3"/>
-    <sheet name="Memory - Input Ratio" sheetId="6" r:id="rId4"/>
-    <sheet name="Datasets Attributes, Notes" sheetId="4" r:id="rId5"/>
-    <sheet name="Charts" sheetId="5" r:id="rId6"/>
+    <sheet name="Execution Time per Query (μs)" sheetId="7" r:id="rId2"/>
+    <sheet name="Exec. Time of Test Phase (ms)" sheetId="2" r:id="rId3"/>
+    <sheet name="Memory (MB)" sheetId="3" r:id="rId4"/>
+    <sheet name="Memory - Input Ratio" sheetId="6" r:id="rId5"/>
+    <sheet name="Datasets Attributes, Notes" sheetId="4" r:id="rId6"/>
+    <sheet name="Charts" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>DG</t>
   </si>
@@ -101,9 +102,6 @@
     <t>Binary Size for training data (MB)</t>
   </si>
   <si>
-    <t>CPT/+ Input binary size</t>
-  </si>
-  <si>
     <t>input data splitLength**</t>
   </si>
   <si>
@@ -126,6 +124,60 @@
   </si>
   <si>
     <t>* The minimum accuracy if not finely tuned</t>
+  </si>
+  <si>
+    <t>SPiCe0</t>
+  </si>
+  <si>
+    <t>SPiCe1</t>
+  </si>
+  <si>
+    <t>SPiCe2</t>
+  </si>
+  <si>
+    <t>SPiCe3</t>
+  </si>
+  <si>
+    <t>SPiCe4</t>
+  </si>
+  <si>
+    <t>SPiCe5</t>
+  </si>
+  <si>
+    <t>SPiCe6</t>
+  </si>
+  <si>
+    <t>SPiCe7</t>
+  </si>
+  <si>
+    <t>SPiCe8</t>
+  </si>
+  <si>
+    <t>SPiCe9</t>
+  </si>
+  <si>
+    <t>SPiCe10</t>
+  </si>
+  <si>
+    <t>SPiCe11</t>
+  </si>
+  <si>
+    <t>SPiCe12</t>
+  </si>
+  <si>
+    <t>SPiCe13</t>
+  </si>
+  <si>
+    <t>SPiCe14</t>
+  </si>
+  <si>
+    <t>SPiCe15</t>
+  </si>
+  <si>
+    <t>CPT/+ Input binary size (MB)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -189,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2762,22 +2815,22 @@
                   <c:v>3.551861619471306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7294547004448706</c:v>
+                  <c:v>3.2063393910245401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5518616194713054E-2</c:v>
+                  <c:v>6.7874262927926018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.516156530541572</c:v>
+                  <c:v>6.4442533111249123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39070477814184357</c:v>
+                  <c:v>4.4107335200209714E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147.40225720805918</c:v>
+                  <c:v>3.9573700653562054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.740225720805917</c:v>
+                  <c:v>3.147372891639364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2851,22 +2904,22 @@
                   <c:v>99.452125345196549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>156.81469049965816</c:v>
+                  <c:v>134.81893725117473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.208973778381605</c:v>
+                  <c:v>187.67233699571545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>211.33576635854268</c:v>
+                  <c:v>82.4587251638564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1552.1635277089606</c:v>
+                  <c:v>175.22641347719679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2768.1433531349621</c:v>
+                  <c:v>74.317502661092973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>448.95530870117307</c:v>
+                  <c:v>95.862152651377258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,22 +2993,22 @@
                   <c:v>7.8851327952262977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80982444923945762</c:v>
+                  <c:v>2.6979055733049346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1311169716827831</c:v>
+                  <c:v>6.2218074350598851</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.228988518607316</c:v>
+                  <c:v>41.2293625819282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3442286688510614</c:v>
+                  <c:v>3.6664222385174323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2132.8218652601295</c:v>
+                  <c:v>62.900078247999019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.983190814885855</c:v>
+                  <c:v>10.068704098554846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,22 +3082,22 @@
                   <c:v>13.639148618769813</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.409600681957432</c:v>
+                  <c:v>54.668086616968409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6228988518607319</c:v>
+                  <c:v>10.577072639601806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.556780947814275</c:v>
+                  <c:v>47.29250413809411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4753456405338445</c:v>
+                  <c:v>6.999533364442371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2261.9675537441062</c:v>
+                  <c:v>66.708776031600877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.425663976131489</c:v>
+                  <c:v>13.696398957592988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3118,22 +3171,22 @@
                   <c:v>2.4863031336299142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9070477814184361</c:v>
+                  <c:v>3.3590222191685664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.551861619471306</c:v>
+                  <c:v>6.7874262927926026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6174201053126973</c:v>
+                  <c:v>1.8016192052607281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6638962146034793</c:v>
+                  <c:v>0.30073183091052075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.958443219052185</c:v>
+                  <c:v>1.0727810418134291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.833177939387483</c:v>
+                  <c:v>2.3131294745783277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,22 +3260,22 @@
                   <c:v>1.1898736425228875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1311169716827831</c:v>
+                  <c:v>1.8321939377283087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5518616194713054E-2</c:v>
+                  <c:v>6.7874262927926018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6174201053126973</c:v>
+                  <c:v>1.8016192052607281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14207446477885222</c:v>
+                  <c:v>1.6039030981894443E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>461.74201053126973</c:v>
+                  <c:v>12.396580927621848</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6829785911540887</c:v>
+                  <c:v>1.2134449702705983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3298,22 +3351,22 @@
                   <c:v>19.002459664171486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.950131862862627</c:v>
+                  <c:v>41.224363598886953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6365024818633067</c:v>
+                  <c:v>14.592966529504094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.652192830567323</c:v>
+                  <c:v>22.10448178762201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.835637603558965</c:v>
+                  <c:v>3.3681965061978327</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>667.74998446060545</c:v>
+                  <c:v>17.927363187637749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115.79068879476455</c:v>
+                  <c:v>24.723941269263438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,22 +3442,22 @@
                   <c:v>4.0846408623920016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3933509150483498</c:v>
+                  <c:v>5.4965818131849264</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3087100526563487</c:v>
+                  <c:v>4.4118270903151915</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2348402106253946</c:v>
+                  <c:v>3.6032384105214561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.685438255325572</c:v>
+                  <c:v>2.7867816331041588</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.02306934121847</c:v>
+                  <c:v>2.8464456976116317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.759308097356527</c:v>
+                  <c:v>3.7920155320956193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5248,9 +5301,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>787043</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80492</xdr:rowOff>
+      <xdr:colOff>53663</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143098</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3970986" cy="3709092"/>
     <xdr:sp macro="" textlink="">
@@ -5266,7 +5319,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2897747" y="6072746"/>
+          <a:off x="2164367" y="8192394"/>
           <a:ext cx="3970986" cy="3709092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5332,8 +5385,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>71550</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:colOff>661832</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>187817</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6251620" cy="2503506"/>
@@ -5350,7 +5403,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11233240" y="4534437"/>
+          <a:off x="11823522" y="8237113"/>
           <a:ext cx="6251620" cy="2503506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5429,10 +5482,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>169930</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>17888</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>545564</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80494</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4447179" cy="1125693"/>
     <xdr:sp macro="" textlink="">
@@ -5448,7 +5501,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8040353" y="8272888"/>
+          <a:off x="6770353" y="9775424"/>
           <a:ext cx="4447179" cy="1125693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5939,10 +5992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F97A20-C648-D746-9C76-A8398157CF72}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5950,7 +6003,7 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5961,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -5982,7 +6035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -6017,7 +6070,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -6052,7 +6105,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -6087,7 +6140,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -6122,7 +6175,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -6157,7 +6210,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -6192,7 +6245,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -6227,9 +6280,569 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="C10" s="3">
+        <v>61.86</v>
+      </c>
+      <c r="D10" s="3">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="G10" s="4">
+        <v>64</v>
+      </c>
+      <c r="H10" s="4">
+        <v>63.66</v>
+      </c>
+      <c r="I10" s="4">
+        <v>62.28</v>
+      </c>
+      <c r="J10" s="3">
+        <v>63.52</v>
+      </c>
+      <c r="K10" s="4">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>26.88</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8.16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>26.64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>26.88</v>
+      </c>
+      <c r="I11" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>25.58</v>
+      </c>
+      <c r="K11" s="4">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26.88</v>
+      </c>
+      <c r="D12" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>36.4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>30.82</v>
+      </c>
+      <c r="J12" s="3">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="K12" s="4">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>26.28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>21.12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>26.44</v>
+      </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="F13" s="3">
+        <v>26.52</v>
+      </c>
+      <c r="G13" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>28</v>
+      </c>
+      <c r="I13" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>27.74</v>
+      </c>
+      <c r="K13" s="4">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3">
+        <v>76.966999999999999</v>
+      </c>
+      <c r="C14" s="3">
+        <v>59.064999999999998</v>
+      </c>
+      <c r="D14" s="3">
+        <v>57.107999999999997</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3">
+        <v>63.247</v>
+      </c>
+      <c r="G14" s="4">
+        <v>72.3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>63.658999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>73.671000000000006</v>
+      </c>
+      <c r="J14" s="3">
+        <v>69.055999999999997</v>
+      </c>
+      <c r="K14" s="4">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3">
+        <v>99.94</v>
+      </c>
+      <c r="G15" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>58.66</v>
+      </c>
+      <c r="I15" s="4">
+        <v>85.56</v>
+      </c>
+      <c r="J15" s="3">
+        <v>78.819999999999993</v>
+      </c>
+      <c r="K15" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="3">
+        <v>29.983000000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>34.106000000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>28.225999999999999</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3">
+        <v>29.373000000000001</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="H16" s="4">
+        <v>28.908999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>41.985999999999997</v>
+      </c>
+      <c r="J16" s="3">
+        <v>36.594000000000001</v>
+      </c>
+      <c r="K16" s="4">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>54.92</v>
+      </c>
+      <c r="C17" s="3">
+        <v>22.68</v>
+      </c>
+      <c r="D17" s="3">
+        <v>56.14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3">
+        <v>56.56</v>
+      </c>
+      <c r="G17" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>25.28</v>
+      </c>
+      <c r="J17" s="3">
+        <v>44.04</v>
+      </c>
+      <c r="K17" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>96.64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="H18" s="4">
+        <v>27.22</v>
+      </c>
+      <c r="I18" s="4">
+        <v>46.96</v>
+      </c>
+      <c r="J18" s="3">
+        <v>41.92</v>
+      </c>
+      <c r="K18" s="4">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>49.097000000000001</v>
+      </c>
+      <c r="C19" s="3">
+        <v>61.011000000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>49.146000000000001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>53.344999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="H19" s="4">
+        <v>51.293999999999997</v>
+      </c>
+      <c r="I19" s="4">
+        <v>64.209000000000003</v>
+      </c>
+      <c r="J19" s="3">
+        <v>52.295000000000002</v>
+      </c>
+      <c r="K19" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>12.98</v>
+      </c>
+      <c r="C20" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>95.94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3">
+        <v>95.92</v>
+      </c>
+      <c r="G20" s="4">
+        <v>92</v>
+      </c>
+      <c r="H20" s="4">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="I20" s="4">
+        <v>86.54</v>
+      </c>
+      <c r="J20" s="3">
+        <v>82.2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3">
+        <v>48.3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>90.72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3">
+        <v>81.739999999999995</v>
+      </c>
+      <c r="G21" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>22.68</v>
+      </c>
+      <c r="I21" s="4">
+        <v>28.68</v>
+      </c>
+      <c r="J21" s="3">
+        <v>23.76</v>
+      </c>
+      <c r="K21" s="4">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>11.34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12.08</v>
+      </c>
+      <c r="G22" s="4">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4">
+        <v>12.58</v>
+      </c>
+      <c r="I22" s="4">
+        <v>11.32</v>
+      </c>
+      <c r="J22" s="3">
+        <v>11.94</v>
+      </c>
+      <c r="K22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41.92</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21.52</v>
+      </c>
+      <c r="D23" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3">
+        <v>37.44</v>
+      </c>
+      <c r="G23" s="4">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4">
+        <v>38.340000000000003</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44.58</v>
+      </c>
+      <c r="J23" s="3">
+        <v>41.06</v>
+      </c>
+      <c r="K23" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3">
+        <v>59.52</v>
+      </c>
+      <c r="C24" s="3">
+        <v>73.62</v>
+      </c>
+      <c r="D24" s="3">
+        <v>55.06</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="3">
+        <v>55.38</v>
+      </c>
+      <c r="G24" s="4">
+        <v>58.12</v>
+      </c>
+      <c r="H24" s="4">
+        <v>59.78</v>
+      </c>
+      <c r="I24" s="4">
+        <v>75</v>
+      </c>
+      <c r="J24" s="3">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="K24" s="4">
+        <v>54.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3">
+        <v>27.78</v>
+      </c>
+      <c r="C25" s="3">
+        <v>33.78</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3">
+        <v>25.82</v>
+      </c>
+      <c r="G25" s="4">
+        <v>39.5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>26.68</v>
+      </c>
+      <c r="I25" s="4">
+        <v>40.340000000000003</v>
+      </c>
+      <c r="J25" s="3">
+        <v>35.74</v>
+      </c>
+      <c r="K25" s="4">
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>
@@ -6239,11 +6852,346 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D61A1C-C42B-6442-B132-77D4B94522A1}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>3.2853025936599418</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>2.4495677233429394</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>393.37175792507207</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>278.38616714697406</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>1729.1066282420747</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>1.0086455331412103</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>3.4870317002881843</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>9.0489913544668603</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J2/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>1068884.7262247838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>9.6153846153846168</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>1.3461538461538463</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>623.46153846153857</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>792.5</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>8076.9230769230762</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>5.384615384615385</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>8.0769230769230766</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>41.15384615384616</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J3/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>6730.7692307692305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>1.4005602240896358</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>139.21568627450981</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>67.61904761904762</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>330.53221288515408</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>1.792717086834734</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>8.5994397759103638</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J4/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>308.12324929971993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>6.6761363636363642</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>1.1931818181818181</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>197.21590909090912</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>20.085227272727273</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>965.90909090909099</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>3.0397727272727275</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>2.6136363636363638</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>50.909090909090914</v>
+      </c>
+      <c r="J5" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J5/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>1.4005602240896358</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>43.977591036414559</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>20.588235294117649</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>243.69747899159663</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>0.39215686274509809</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>0.58823529411764697</v>
+      </c>
+      <c r="I6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>11.596638655462185</v>
+      </c>
+      <c r="J6" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J6/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>2156.8627450980389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>7.7784691972619786</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>1.316116988176727</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>1863.72121966397</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>1834.7853142501556</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>30214.68574984443</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>7.4424393279402619</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>3.0864965774735533</v>
+      </c>
+      <c r="I7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>135.03422526446795</v>
+      </c>
+      <c r="J7" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J7/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>619985.37647790916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!B8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>1.6056338028169013</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!C8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>1.6056338028169013</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!D8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>183.6901408450704</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!E8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>42.25352112676056</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!F8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>3352.1126760563379</v>
+      </c>
+      <c r="G8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!G8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>2.1971830985915495</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!H8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>2.8169014084507045</v>
+      </c>
+      <c r="I8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!I8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>20.309859154929576</v>
+      </c>
+      <c r="J8" s="8">
+        <f>'Exec. Time of Test Phase (ms)'!J8/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>51107.042253521133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA0485-4631-4D4D-BD6C-8B9119B36FE5}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6506,15 +7454,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9058626D-1839-5446-B7A4-B72B5F5525AF}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6751,18 +7700,482 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.44E-4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.1200960000000002</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.6183999999999997E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.1739</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.44E-4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.0067999999999999E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>8.3239999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>26.134599999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.467084</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4.0913000000000004</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.72475000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26.493300000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.94767</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.59789999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>26.983000000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>78.534999999999997</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>14.763</v>
+      </c>
+      <c r="D16">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.32</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.454</v>
+      </c>
+      <c r="I16">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>37.884</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3.21</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>19.535</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>15.207000000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.504</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.476</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.3929999999999998</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.792</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>20.518000000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3.831</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>26.413</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>26.048999999999999</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6802,35 +8215,35 @@
         <v>8</v>
       </c>
       <c r="B2" s="8">
-        <f>'Memory (MB)'!B2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!B2/'Datasets Attributes, Notes'!$H2</f>
         <v>3.551861619471306</v>
       </c>
       <c r="C2" s="8">
-        <f>'Memory (MB)'!C2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!C2/'Datasets Attributes, Notes'!$H2</f>
         <v>99.452125345196549</v>
       </c>
       <c r="D2" s="8">
-        <f>'Memory (MB)'!D2/'Datasets Attributes, Notes'!$I$2</f>
+        <f>'Memory (MB)'!D2/'Datasets Attributes, Notes'!$I2</f>
         <v>7.8851327952262977</v>
       </c>
       <c r="E2" s="8">
-        <f>'Memory (MB)'!E2/'Datasets Attributes, Notes'!$I$2</f>
+        <f>'Memory (MB)'!E2/'Datasets Attributes, Notes'!$I2</f>
         <v>13.639148618769813</v>
       </c>
       <c r="F2" s="8">
-        <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H2</f>
         <v>2.4863031336299142</v>
       </c>
       <c r="G2" s="8">
-        <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H2</f>
         <v>1.1898736425228875</v>
       </c>
       <c r="H2" s="8">
-        <f>'Memory (MB)'!H2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!H2/'Datasets Attributes, Notes'!$H2</f>
         <v>19.002459664171486</v>
       </c>
       <c r="I2" s="8">
-        <f>'Memory (MB)'!I2/'Datasets Attributes, Notes'!$H$2</f>
+        <f>'Memory (MB)'!I2/'Datasets Attributes, Notes'!$H2</f>
         <v>4.0846408623920016</v>
       </c>
     </row>
@@ -6839,36 +8252,36 @@
         <v>9</v>
       </c>
       <c r="B3" s="8">
-        <f>'Memory (MB)'!B3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>3.7294547004448706</v>
+        <f>'Memory (MB)'!B3/'Datasets Attributes, Notes'!$H3</f>
+        <v>3.2063393910245401</v>
       </c>
       <c r="C3" s="8">
-        <f>'Memory (MB)'!C3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>156.81469049965816</v>
+        <f>'Memory (MB)'!C3/'Datasets Attributes, Notes'!$H3</f>
+        <v>134.81893725117473</v>
       </c>
       <c r="D3" s="8">
-        <f>'Memory (MB)'!D3/'Datasets Attributes, Notes'!$I$2</f>
-        <v>0.80982444923945762</v>
+        <f>'Memory (MB)'!D3/'Datasets Attributes, Notes'!$I3</f>
+        <v>2.6979055733049346</v>
       </c>
       <c r="E3" s="8">
-        <f>'Memory (MB)'!E3/'Datasets Attributes, Notes'!$I$2</f>
-        <v>16.409600681957432</v>
+        <f>'Memory (MB)'!E3/'Datasets Attributes, Notes'!$I3</f>
+        <v>54.668086616968409</v>
       </c>
       <c r="F3" s="8">
-        <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>3.9070477814184361</v>
+        <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H3</f>
+        <v>3.3590222191685664</v>
       </c>
       <c r="G3" s="8">
-        <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>2.1311169716827831</v>
+        <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H3</f>
+        <v>1.8321939377283087</v>
       </c>
       <c r="H3" s="8">
-        <f>'Memory (MB)'!H3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>47.950131862862627</v>
+        <f>'Memory (MB)'!H3/'Datasets Attributes, Notes'!$H3</f>
+        <v>41.224363598886953</v>
       </c>
       <c r="I3" s="8">
-        <f>'Memory (MB)'!I3/'Datasets Attributes, Notes'!$H$2</f>
-        <v>6.3933509150483498</v>
+        <f>'Memory (MB)'!I3/'Datasets Attributes, Notes'!$H3</f>
+        <v>5.4965818131849264</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6876,36 +8289,36 @@
         <v>10</v>
       </c>
       <c r="B4" s="8">
-        <f>'Memory (MB)'!B4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>3.5518616194713054E-2</v>
+        <f>'Memory (MB)'!B4/'Datasets Attributes, Notes'!$H4</f>
+        <v>6.7874262927926018E-2</v>
       </c>
       <c r="C4" s="8">
-        <f>'Memory (MB)'!C4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>98.208973778381605</v>
+        <f>'Memory (MB)'!C4/'Datasets Attributes, Notes'!$H4</f>
+        <v>187.67233699571545</v>
       </c>
       <c r="D4" s="8">
-        <f>'Memory (MB)'!D4/'Datasets Attributes, Notes'!$I$2</f>
-        <v>2.1311169716827831</v>
+        <f>'Memory (MB)'!D4/'Datasets Attributes, Notes'!$I4</f>
+        <v>6.2218074350598851</v>
       </c>
       <c r="E4" s="8">
-        <f>'Memory (MB)'!E4/'Datasets Attributes, Notes'!$I$2</f>
-        <v>3.6228988518607319</v>
+        <f>'Memory (MB)'!E4/'Datasets Attributes, Notes'!$I4</f>
+        <v>10.577072639601806</v>
       </c>
       <c r="F4" s="8">
-        <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>3.551861619471306</v>
+        <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H4</f>
+        <v>6.7874262927926026</v>
       </c>
       <c r="G4" s="8">
-        <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>3.5518616194713054E-2</v>
+        <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H4</f>
+        <v>6.7874262927926018E-2</v>
       </c>
       <c r="H4" s="8">
-        <f>'Memory (MB)'!H4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>7.6365024818633067</v>
+        <f>'Memory (MB)'!H4/'Datasets Attributes, Notes'!$H4</f>
+        <v>14.592966529504094</v>
       </c>
       <c r="I4" s="8">
-        <f>'Memory (MB)'!I4/'Datasets Attributes, Notes'!$H$2</f>
-        <v>2.3087100526563487</v>
+        <f>'Memory (MB)'!I4/'Datasets Attributes, Notes'!$H4</f>
+        <v>4.4118270903151915</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -6913,36 +8326,36 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <f>'Memory (MB)'!B5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>16.516156530541572</v>
+        <f>'Memory (MB)'!B5/'Datasets Attributes, Notes'!$H5</f>
+        <v>6.4442533111249123</v>
       </c>
       <c r="C5" s="8">
-        <f>'Memory (MB)'!C5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>211.33576635854268</v>
+        <f>'Memory (MB)'!C5/'Datasets Attributes, Notes'!$H5</f>
+        <v>82.4587251638564</v>
       </c>
       <c r="D5" s="8">
-        <f>'Memory (MB)'!D5/'Datasets Attributes, Notes'!$I$2</f>
-        <v>36.228988518607316</v>
+        <f>'Memory (MB)'!D5/'Datasets Attributes, Notes'!$I5</f>
+        <v>41.2293625819282</v>
       </c>
       <c r="E5" s="8">
-        <f>'Memory (MB)'!E5/'Datasets Attributes, Notes'!$I$2</f>
-        <v>41.556780947814275</v>
+        <f>'Memory (MB)'!E5/'Datasets Attributes, Notes'!$I5</f>
+        <v>47.29250413809411</v>
       </c>
       <c r="F5" s="8">
-        <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>4.6174201053126973</v>
+        <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H5</f>
+        <v>1.8016192052607281</v>
       </c>
       <c r="G5" s="8">
-        <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>4.6174201053126973</v>
+        <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H5</f>
+        <v>1.8016192052607281</v>
       </c>
       <c r="H5" s="8">
-        <f>'Memory (MB)'!H5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>56.652192830567323</v>
+        <f>'Memory (MB)'!H5/'Datasets Attributes, Notes'!$H5</f>
+        <v>22.10448178762201</v>
       </c>
       <c r="I5" s="8">
-        <f>'Memory (MB)'!I5/'Datasets Attributes, Notes'!$H$2</f>
-        <v>9.2348402106253946</v>
+        <f>'Memory (MB)'!I5/'Datasets Attributes, Notes'!$H5</f>
+        <v>3.6032384105214561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -6950,36 +8363,36 @@
         <v>12</v>
       </c>
       <c r="B6" s="8">
-        <f>'Memory (MB)'!B6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>0.39070477814184357</v>
+        <f>'Memory (MB)'!B6/'Datasets Attributes, Notes'!$H6</f>
+        <v>4.4107335200209714E-2</v>
       </c>
       <c r="C6" s="8">
-        <f>'Memory (MB)'!C6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>1552.1635277089606</v>
+        <f>'Memory (MB)'!C6/'Datasets Attributes, Notes'!$H6</f>
+        <v>175.22641347719679</v>
       </c>
       <c r="D6" s="8">
-        <f>'Memory (MB)'!D6/'Datasets Attributes, Notes'!$I$2</f>
-        <v>2.3442286688510614</v>
+        <f>'Memory (MB)'!D6/'Datasets Attributes, Notes'!$I6</f>
+        <v>3.6664222385174323</v>
       </c>
       <c r="E6" s="8">
-        <f>'Memory (MB)'!E6/'Datasets Attributes, Notes'!$I$2</f>
-        <v>4.4753456405338445</v>
+        <f>'Memory (MB)'!E6/'Datasets Attributes, Notes'!$I6</f>
+        <v>6.999533364442371</v>
       </c>
       <c r="F6" s="8">
-        <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>2.6638962146034793</v>
+        <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H6</f>
+        <v>0.30073183091052075</v>
       </c>
       <c r="G6" s="8">
-        <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>0.14207446477885222</v>
+        <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H6</f>
+        <v>1.6039030981894443E-2</v>
       </c>
       <c r="H6" s="8">
-        <f>'Memory (MB)'!H6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>29.835637603558965</v>
+        <f>'Memory (MB)'!H6/'Datasets Attributes, Notes'!$H6</f>
+        <v>3.3681965061978327</v>
       </c>
       <c r="I6" s="8">
-        <f>'Memory (MB)'!I6/'Datasets Attributes, Notes'!$H$2</f>
-        <v>24.685438255325572</v>
+        <f>'Memory (MB)'!I6/'Datasets Attributes, Notes'!$H6</f>
+        <v>2.7867816331041588</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -6987,36 +8400,36 @@
         <v>13</v>
       </c>
       <c r="B7" s="8">
-        <f>'Memory (MB)'!B7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>147.40225720805918</v>
+        <f>'Memory (MB)'!B7/'Datasets Attributes, Notes'!$H7</f>
+        <v>3.9573700653562054</v>
       </c>
       <c r="C7" s="8">
-        <f>'Memory (MB)'!C7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>2768.1433531349621</v>
+        <f>'Memory (MB)'!C7/'Datasets Attributes, Notes'!$H7</f>
+        <v>74.317502661092973</v>
       </c>
       <c r="D7" s="8">
-        <f>'Memory (MB)'!D7/'Datasets Attributes, Notes'!$I$2</f>
-        <v>2132.8218652601295</v>
+        <f>'Memory (MB)'!D7/'Datasets Attributes, Notes'!$I7</f>
+        <v>62.900078247999019</v>
       </c>
       <c r="E7" s="8">
-        <f>'Memory (MB)'!E7/'Datasets Attributes, Notes'!$I$2</f>
-        <v>2261.9675537441062</v>
+        <f>'Memory (MB)'!E7/'Datasets Attributes, Notes'!$I7</f>
+        <v>66.708776031600877</v>
       </c>
       <c r="F7" s="8">
-        <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>39.958443219052185</v>
+        <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H7</f>
+        <v>1.0727810418134291</v>
       </c>
       <c r="G7" s="8">
-        <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>461.74201053126973</v>
+        <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H7</f>
+        <v>12.396580927621848</v>
       </c>
       <c r="H7" s="8">
-        <f>'Memory (MB)'!H7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>667.74998446060545</v>
+        <f>'Memory (MB)'!H7/'Datasets Attributes, Notes'!$H7</f>
+        <v>17.927363187637749</v>
       </c>
       <c r="I7" s="8">
-        <f>'Memory (MB)'!I7/'Datasets Attributes, Notes'!$H$2</f>
-        <v>106.02306934121847</v>
+        <f>'Memory (MB)'!I7/'Datasets Attributes, Notes'!$H7</f>
+        <v>2.8464456976116317</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -7024,49 +8437,642 @@
         <v>14</v>
       </c>
       <c r="B8" s="8">
-        <f>'Memory (MB)'!B8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>14.740225720805917</v>
+        <f>'Memory (MB)'!B8/'Datasets Attributes, Notes'!$H8</f>
+        <v>3.147372891639364</v>
       </c>
       <c r="C8" s="8">
-        <f>'Memory (MB)'!C8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>448.95530870117307</v>
+        <f>'Memory (MB)'!C8/'Datasets Attributes, Notes'!$H8</f>
+        <v>95.862152651377258</v>
       </c>
       <c r="D8" s="8">
-        <f>'Memory (MB)'!D8/'Datasets Attributes, Notes'!$I$2</f>
-        <v>28.983190814885855</v>
+        <f>'Memory (MB)'!D8/'Datasets Attributes, Notes'!$I8</f>
+        <v>10.068704098554846</v>
       </c>
       <c r="E8" s="8">
-        <f>'Memory (MB)'!E8/'Datasets Attributes, Notes'!$I$2</f>
-        <v>39.425663976131489</v>
+        <f>'Memory (MB)'!E8/'Datasets Attributes, Notes'!$I8</f>
+        <v>13.696398957592988</v>
       </c>
       <c r="F8" s="8">
-        <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>10.833177939387483</v>
+        <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H8</f>
+        <v>2.3131294745783277</v>
       </c>
       <c r="G8" s="8">
-        <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>5.6829785911540887</v>
+        <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H8</f>
+        <v>1.2134449702705983</v>
       </c>
       <c r="H8" s="8">
-        <f>'Memory (MB)'!H8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>115.79068879476455</v>
+        <f>'Memory (MB)'!H8/'Datasets Attributes, Notes'!$H8</f>
+        <v>24.723941269263438</v>
       </c>
       <c r="I8" s="8">
-        <f>'Memory (MB)'!I8/'Datasets Attributes, Notes'!$H$2</f>
-        <v>17.759308097356527</v>
+        <f>'Memory (MB)'!I8/'Datasets Attributes, Notes'!$H8</f>
+        <v>3.7920155320956193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <f>'Memory (MB)'!B10/'Datasets Attributes, Notes'!$H10</f>
+        <v>1.0338143441740255E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <f>'Memory (MB)'!C10/'Datasets Attributes, Notes'!$H10</f>
+        <v>439.37798836958871</v>
+      </c>
+      <c r="D10" s="8">
+        <f>'Memory (MB)'!D10/'Datasets Attributes, Notes'!$I10</f>
+        <v>6.1873788498815427</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'Memory (MB)'!E10/'Datasets Attributes, Notes'!$I10</f>
+        <v>12.484744059157155</v>
+      </c>
+      <c r="F10" s="8">
+        <f>'Memory (MB)'!F10/'Datasets Attributes, Notes'!$H10</f>
+        <v>15.406705434704575</v>
+      </c>
+      <c r="G10" s="8">
+        <f>'Memory (MB)'!G10/'Datasets Attributes, Notes'!$H10</f>
+        <v>1.0338143441740255E-2</v>
+      </c>
+      <c r="H10" s="8">
+        <f>'Memory (MB)'!H10/'Datasets Attributes, Notes'!$H10</f>
+        <v>2.8765884126642258</v>
+      </c>
+      <c r="I10" s="8">
+        <f>'Memory (MB)'!I10/'Datasets Attributes, Notes'!$H10</f>
+        <v>5.976021250628186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <f>'Memory (MB)'!B11/'Datasets Attributes, Notes'!$H11</f>
+        <v>2.6255602391721283E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <f>'Memory (MB)'!C11/'Datasets Attributes, Notes'!$H11</f>
+        <v>214.43114570833717</v>
+      </c>
+      <c r="D11" s="8">
+        <f>'Memory (MB)'!D11/'Datasets Attributes, Notes'!$I11</f>
+        <v>1.6760323458578896</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'Memory (MB)'!E11/'Datasets Attributes, Notes'!$I11</f>
+        <v>7.3163354414269772</v>
+      </c>
+      <c r="F11" s="8">
+        <f>'Memory (MB)'!F11/'Datasets Attributes, Notes'!$H11</f>
+        <v>5.2511204783442569</v>
+      </c>
+      <c r="G11" s="8">
+        <f>'Memory (MB)'!G11/'Datasets Attributes, Notes'!$H11</f>
+        <v>2.6911992451514315E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <f>'Memory (MB)'!H11/'Datasets Attributes, Notes'!$H11</f>
+        <v>33.568608145390399</v>
+      </c>
+      <c r="I11" s="8">
+        <f>'Memory (MB)'!I11/'Datasets Attributes, Notes'!$H11</f>
+        <v>5.9464836979374995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8">
+        <f>'Memory (MB)'!B12/'Datasets Attributes, Notes'!$H12</f>
+        <v>8.6151195347835465E-3</v>
+      </c>
+      <c r="C12" s="8">
+        <f>'Memory (MB)'!C12/'Datasets Attributes, Notes'!$H12</f>
+        <v>271.71779329866774</v>
+      </c>
+      <c r="D12" s="8">
+        <f>'Memory (MB)'!D12/'Datasets Attributes, Notes'!$I12</f>
+        <v>2.1537798836958864</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'Memory (MB)'!E12/'Datasets Attributes, Notes'!$I12</f>
+        <v>8.156951814070057</v>
+      </c>
+      <c r="F12" s="8">
+        <f>'Memory (MB)'!F12/'Datasets Attributes, Notes'!$H12</f>
+        <v>6.6664615447729823</v>
+      </c>
+      <c r="G12" s="8">
+        <f>'Memory (MB)'!G12/'Datasets Attributes, Notes'!$H12</f>
+        <v>8.6151195347835465E-3</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'Memory (MB)'!H12/'Datasets Attributes, Notes'!$H12</f>
+        <v>19.975487933704606</v>
+      </c>
+      <c r="I12" s="8">
+        <f>'Memory (MB)'!I12/'Datasets Attributes, Notes'!$H12</f>
+        <v>6.1321190117227165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <f>'Memory (MB)'!B13/'Datasets Attributes, Notes'!$H13</f>
+        <v>1.0017580854399471E-2</v>
+      </c>
+      <c r="C13" s="8">
+        <f>'Memory (MB)'!C13/'Datasets Attributes, Notes'!$H13</f>
+        <v>270.30438419426093</v>
+      </c>
+      <c r="D13" s="8">
+        <f>'Memory (MB)'!D13/'Datasets Attributes, Notes'!$I13</f>
+        <v>2.1537798836958864</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'Memory (MB)'!E13/'Datasets Attributes, Notes'!$I13</f>
+        <v>8.2039433751688762</v>
+      </c>
+      <c r="F13" s="8">
+        <f>'Memory (MB)'!F13/'Datasets Attributes, Notes'!$H13</f>
+        <v>6.5114275553596563</v>
+      </c>
+      <c r="G13" s="8">
+        <f>'Memory (MB)'!G13/'Datasets Attributes, Notes'!$H13</f>
+        <v>1.0017580854399471E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <f>'Memory (MB)'!H13/'Datasets Attributes, Notes'!$H13</f>
+        <v>20.345706715285328</v>
+      </c>
+      <c r="I13" s="8">
+        <f>'Memory (MB)'!I13/'Datasets Attributes, Notes'!$H13</f>
+        <v>6.1407770637468762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8">
+        <f>'Memory (MB)'!B14/'Datasets Attributes, Notes'!$H14</f>
+        <v>0.25784271594327463</v>
+      </c>
+      <c r="C14" s="8">
+        <f>'Memory (MB)'!C14/'Datasets Attributes, Notes'!$H14</f>
+        <v>157.79974215728407</v>
+      </c>
+      <c r="D14" s="8">
+        <f>'Memory (MB)'!D14/'Datasets Attributes, Notes'!$I14</f>
+        <v>1.8752197523147245</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'Memory (MB)'!E14/'Datasets Attributes, Notes'!$I14</f>
+        <v>4.0317224674766576</v>
+      </c>
+      <c r="F14" s="8">
+        <f>'Memory (MB)'!F14/'Datasets Attributes, Notes'!$H14</f>
+        <v>6.4460678985818651</v>
+      </c>
+      <c r="G14" s="8">
+        <f>'Memory (MB)'!G14/'Datasets Attributes, Notes'!$H14</f>
+        <v>0.17189514396218308</v>
+      </c>
+      <c r="H14" s="8">
+        <f>'Memory (MB)'!H14/'Datasets Attributes, Notes'!$H14</f>
+        <v>11.259131929522992</v>
+      </c>
+      <c r="I14" s="8">
+        <f>'Memory (MB)'!I14/'Datasets Attributes, Notes'!$H14</f>
+        <v>4.2114310270734858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8">
+        <f>'Memory (MB)'!B15/'Datasets Attributes, Notes'!$H15</f>
+        <v>2.6545186241629968E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <f>'Memory (MB)'!C15/'Datasets Attributes, Notes'!$H15</f>
+        <v>189.52056377149179</v>
+      </c>
+      <c r="D15" s="8">
+        <f>'Memory (MB)'!D15/'Datasets Attributes, Notes'!$I15</f>
+        <v>3.8050111278627328</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'Memory (MB)'!E15/'Datasets Attributes, Notes'!$I15</f>
+        <v>11.738100366142582</v>
+      </c>
+      <c r="F15" s="8">
+        <f>'Memory (MB)'!F15/'Datasets Attributes, Notes'!$H15</f>
+        <v>4.1024378737064495</v>
+      </c>
+      <c r="G15" s="8">
+        <f>'Memory (MB)'!G15/'Datasets Attributes, Notes'!$H15</f>
+        <v>1.447919249543453E-2</v>
+      </c>
+      <c r="H15" s="8">
+        <f>'Memory (MB)'!H15/'Datasets Attributes, Notes'!$H15</f>
+        <v>4.4016745186120971</v>
+      </c>
+      <c r="I15" s="8">
+        <f>'Memory (MB)'!I15/'Datasets Attributes, Notes'!$H15</f>
+        <v>3.3422802676961374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="8">
+        <f>'Memory (MB)'!B16/'Datasets Attributes, Notes'!$H16</f>
+        <v>5.6641178136505245E-2</v>
+      </c>
+      <c r="C16" s="8">
+        <f>'Memory (MB)'!C16/'Datasets Attributes, Notes'!$H16</f>
+        <v>167.23874256584537</v>
+      </c>
+      <c r="D16" s="8">
+        <f>'Memory (MB)'!D16/'Datasets Attributes, Notes'!$I16</f>
+        <v>1.3748358693133544</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'Memory (MB)'!E16/'Datasets Attributes, Notes'!$I16</f>
+        <v>4.9432300919131844</v>
+      </c>
+      <c r="F16" s="8">
+        <f>'Memory (MB)'!F16/'Datasets Attributes, Notes'!$H16</f>
+        <v>4.4180118946474094</v>
+      </c>
+      <c r="G16" s="8">
+        <f>'Memory (MB)'!G16/'Datasets Attributes, Notes'!$H16</f>
+        <v>4.5312942509204195E-2</v>
+      </c>
+      <c r="H16" s="8">
+        <f>'Memory (MB)'!H16/'Datasets Attributes, Notes'!$H16</f>
+        <v>16.471254602095726</v>
+      </c>
+      <c r="I16" s="8">
+        <f>'Memory (MB)'!I16/'Datasets Attributes, Notes'!$H16</f>
+        <v>3.8516001132823567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8">
+        <f>'Memory (MB)'!B17/'Datasets Attributes, Notes'!$H17</f>
+        <v>1.7522277019898735E-2</v>
+      </c>
+      <c r="C17" s="8">
+        <f>'Memory (MB)'!C17/'Datasets Attributes, Notes'!$H17</f>
+        <v>221.27131420728122</v>
+      </c>
+      <c r="D17" s="8">
+        <f>'Memory (MB)'!D17/'Datasets Attributes, Notes'!$I17</f>
+        <v>1.6916961995574959</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'Memory (MB)'!E17/'Datasets Attributes, Notes'!$I17</f>
+        <v>5.4040295263642228</v>
+      </c>
+      <c r="F17" s="8">
+        <f>'Memory (MB)'!F17/'Datasets Attributes, Notes'!$H17</f>
+        <v>5.2566831059696204</v>
+      </c>
+      <c r="G17" s="8">
+        <f>'Memory (MB)'!G17/'Datasets Attributes, Notes'!$H17</f>
+        <v>1.7522277019898735E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <f>'Memory (MB)'!H17/'Datasets Attributes, Notes'!$H17</f>
+        <v>18.748836411291645</v>
+      </c>
+      <c r="I17" s="8">
+        <f>'Memory (MB)'!I17/'Datasets Attributes, Notes'!$H17</f>
+        <v>5.1690717208701269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8">
+        <f>'Memory (MB)'!B18/'Datasets Attributes, Notes'!$H18</f>
+        <v>0.10189926331464408</v>
+      </c>
+      <c r="C18" s="8">
+        <f>'Memory (MB)'!C18/'Datasets Attributes, Notes'!$H18</f>
+        <v>180.96382807741566</v>
+      </c>
+      <c r="D18" s="8">
+        <f>'Memory (MB)'!D18/'Datasets Attributes, Notes'!$I18</f>
+        <v>1.6185982156259995</v>
+      </c>
+      <c r="E18" s="8">
+        <f>'Memory (MB)'!E18/'Datasets Attributes, Notes'!$I18</f>
+        <v>5.482348794862256</v>
+      </c>
+      <c r="F18" s="8">
+        <f>'Memory (MB)'!F18/'Datasets Attributes, Notes'!$H18</f>
+        <v>4.6317846961201861</v>
+      </c>
+      <c r="G18" s="8">
+        <f>'Memory (MB)'!G18/'Datasets Attributes, Notes'!$H18</f>
+        <v>7.4108555137922971E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <f>'Memory (MB)'!H18/'Datasets Attributes, Notes'!$H18</f>
+        <v>14.265896864050172</v>
+      </c>
+      <c r="I18" s="8">
+        <f>'Memory (MB)'!I18/'Datasets Attributes, Notes'!$H18</f>
+        <v>4.0944976713702443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <f>'Memory (MB)'!B19/'Datasets Attributes, Notes'!$H19</f>
+        <v>1.4358532557972576E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f>'Memory (MB)'!C19/'Datasets Attributes, Notes'!$H19</f>
+        <v>218.35020460908896</v>
+      </c>
+      <c r="D19" s="8">
+        <f>'Memory (MB)'!D19/'Datasets Attributes, Notes'!$I19</f>
+        <v>1.4880661014626122</v>
+      </c>
+      <c r="E19" s="8">
+        <f>'Memory (MB)'!E19/'Datasets Attributes, Notes'!$I19</f>
+        <v>4.4446184872633294</v>
+      </c>
+      <c r="F19" s="8">
+        <f>'Memory (MB)'!F19/'Datasets Attributes, Notes'!$H19</f>
+        <v>5.8869983487687554</v>
+      </c>
+      <c r="G19" s="8">
+        <f>'Memory (MB)'!G19/'Datasets Attributes, Notes'!$H19</f>
+        <v>1.4358532557972576E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <f>'Memory (MB)'!H19/'Datasets Attributes, Notes'!$H19</f>
+        <v>7.2367004092181784</v>
+      </c>
+      <c r="I19" s="8">
+        <f>'Memory (MB)'!I19/'Datasets Attributes, Notes'!$H19</f>
+        <v>3.4029722162395002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8">
+        <f>'Memory (MB)'!B20/'Datasets Attributes, Notes'!$H20</f>
+        <v>2.9537552690686444E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <f>'Memory (MB)'!C20/'Datasets Attributes, Notes'!$H20</f>
+        <v>217.35700439986465</v>
+      </c>
+      <c r="D20" s="8">
+        <f>'Memory (MB)'!D20/'Datasets Attributes, Notes'!$I20</f>
+        <v>1.5037299551622187</v>
+      </c>
+      <c r="E20" s="8">
+        <f>'Memory (MB)'!E20/'Datasets Attributes, Notes'!$I20</f>
+        <v>3.9629549860004305</v>
+      </c>
+      <c r="F20" s="8">
+        <f>'Memory (MB)'!F20/'Datasets Attributes, Notes'!$H20</f>
+        <v>5.51367650226147</v>
+      </c>
+      <c r="G20" s="8">
+        <f>'Memory (MB)'!G20/'Datasets Attributes, Notes'!$H20</f>
+        <v>2.9537552690686444E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <f>'Memory (MB)'!H20/'Datasets Attributes, Notes'!$H20</f>
+        <v>14.53247592381773</v>
+      </c>
+      <c r="I20" s="8">
+        <f>'Memory (MB)'!I20/'Datasets Attributes, Notes'!$H20</f>
+        <v>4.4404787544998623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8">
+        <f>'Memory (MB)'!B21/'Datasets Attributes, Notes'!$H21</f>
+        <v>4.7143848565343296</v>
+      </c>
+      <c r="C21" s="8">
+        <f>'Memory (MB)'!C21/'Datasets Attributes, Notes'!$H21</f>
+        <v>76.495082202598894</v>
+      </c>
+      <c r="D21" s="8">
+        <f>'Memory (MB)'!D21/'Datasets Attributes, Notes'!$I21</f>
+        <v>17.206308181970471</v>
+      </c>
+      <c r="E21" s="8">
+        <f>'Memory (MB)'!E21/'Datasets Attributes, Notes'!$I21</f>
+        <v>21.442075286572379</v>
+      </c>
+      <c r="F21" s="8">
+        <f>'Memory (MB)'!F21/'Datasets Attributes, Notes'!$H21</f>
+        <v>2.6323976356283056</v>
+      </c>
+      <c r="G21" s="8">
+        <f>'Memory (MB)'!G21/'Datasets Attributes, Notes'!$H21</f>
+        <v>1.4717495871921891</v>
+      </c>
+      <c r="H21" s="8">
+        <f>'Memory (MB)'!H21/'Datasets Attributes, Notes'!$H21</f>
+        <v>18.247301792423482</v>
+      </c>
+      <c r="I21" s="8">
+        <f>'Memory (MB)'!I21/'Datasets Attributes, Notes'!$H21</f>
+        <v>3.2067389379472089</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <f>'Memory (MB)'!B22/'Datasets Attributes, Notes'!$H22</f>
+        <v>4.1770276532283858E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <f>'Memory (MB)'!C22/'Datasets Attributes, Notes'!$H22</f>
+        <v>214.26063347235004</v>
+      </c>
+      <c r="D22" s="8">
+        <f>'Memory (MB)'!D22/'Datasets Attributes, Notes'!$I22</f>
+        <v>1.6916961995574959</v>
+      </c>
+      <c r="E22" s="8">
+        <f>'Memory (MB)'!E22/'Datasets Attributes, Notes'!$I22</f>
+        <v>7.2680281166173906</v>
+      </c>
+      <c r="F22" s="8">
+        <f>'Memory (MB)'!F22/'Datasets Attributes, Notes'!$H22</f>
+        <v>5.4301359491969015</v>
+      </c>
+      <c r="G22" s="8">
+        <f>'Memory (MB)'!G22/'Datasets Attributes, Notes'!$H22</f>
+        <v>4.1770276532283858E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <f>'Memory (MB)'!H22/'Datasets Attributes, Notes'!$H22</f>
+        <v>39.765303258734228</v>
+      </c>
+      <c r="I22" s="8">
+        <f>'Memory (MB)'!I22/'Datasets Attributes, Notes'!$H22</f>
+        <v>6.4117374477055717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <f>'Memory (MB)'!B23/'Datasets Attributes, Notes'!$H23</f>
+        <v>1.3879914806040157</v>
+      </c>
+      <c r="C23" s="8">
+        <f>'Memory (MB)'!C23/'Datasets Attributes, Notes'!$H23</f>
+        <v>91.679230382654893</v>
+      </c>
+      <c r="D23" s="8">
+        <f>'Memory (MB)'!D23/'Datasets Attributes, Notes'!$I23</f>
+        <v>7.8971929068849169</v>
+      </c>
+      <c r="E23" s="8">
+        <f>'Memory (MB)'!E23/'Datasets Attributes, Notes'!$I23</f>
+        <v>12.94661018977194</v>
+      </c>
+      <c r="F23" s="8">
+        <f>'Memory (MB)'!F23/'Datasets Attributes, Notes'!$H23</f>
+        <v>3.5896331394931438</v>
+      </c>
+      <c r="G23" s="8">
+        <f>'Memory (MB)'!G23/'Datasets Attributes, Notes'!$H23</f>
+        <v>0.64613396510876586</v>
+      </c>
+      <c r="H23" s="8">
+        <f>'Memory (MB)'!H23/'Datasets Attributes, Notes'!$H23</f>
+        <v>14.119223682006366</v>
+      </c>
+      <c r="I23" s="8">
+        <f>'Memory (MB)'!I23/'Datasets Attributes, Notes'!$H23</f>
+        <v>3.4939095891066598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8">
+        <f>'Memory (MB)'!B24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.9229254484477403E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <f>'Memory (MB)'!C24/'Datasets Attributes, Notes'!$H24</f>
+        <v>216.71538311641694</v>
+      </c>
+      <c r="D24" s="8">
+        <f>'Memory (MB)'!D24/'Datasets Attributes, Notes'!$I24</f>
+        <v>1.5977130773598573</v>
+      </c>
+      <c r="E24" s="8">
+        <f>'Memory (MB)'!E24/'Datasets Attributes, Notes'!$I24</f>
+        <v>4.2918959136921666</v>
+      </c>
+      <c r="F24" s="8">
+        <f>'Memory (MB)'!F24/'Datasets Attributes, Notes'!$H24</f>
+        <v>5.3331692358183851</v>
+      </c>
+      <c r="G24" s="8">
+        <f>'Memory (MB)'!G24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.1024378737064507E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f>'Memory (MB)'!H24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.55370603981416</v>
+      </c>
+      <c r="I24" s="8">
+        <f>'Memory (MB)'!I24/'Datasets Attributes, Notes'!$H24</f>
+        <v>2.9045260145841665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <f>'Memory (MB)'!B25/'Datasets Attributes, Notes'!$H25</f>
+        <v>6.723995734465206E-2</v>
+      </c>
+      <c r="C25" s="8">
+        <f>'Memory (MB)'!C25/'Datasets Attributes, Notes'!$H25</f>
+        <v>218.94170610885519</v>
+      </c>
+      <c r="D25" s="8">
+        <f>'Memory (MB)'!D25/'Datasets Attributes, Notes'!$I25</f>
+        <v>1.8639985902531668</v>
+      </c>
+      <c r="E25" s="8">
+        <f>'Memory (MB)'!E25/'Datasets Attributes, Notes'!$I25</f>
+        <v>6.9547510426252614</v>
+      </c>
+      <c r="F25" s="8">
+        <f>'Memory (MB)'!F25/'Datasets Attributes, Notes'!$H25</f>
+        <v>5.4128165662444907</v>
+      </c>
+      <c r="G25" s="8">
+        <f>'Memory (MB)'!G25/'Datasets Attributes, Notes'!$H25</f>
+        <v>5.8834962676570554E-2</v>
+      </c>
+      <c r="H25" s="8">
+        <f>'Memory (MB)'!H25/'Datasets Attributes, Notes'!$H25</f>
+        <v>20.457757022110393</v>
+      </c>
+      <c r="I25" s="8">
+        <f>'Memory (MB)'!I25/'Datasets Attributes, Notes'!$H25</f>
+        <v>5.1186417528616381</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7097,10 +9103,10 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7160,11 +9166,11 @@
         <v>7</v>
       </c>
       <c r="H3" s="8">
-        <f t="shared" ref="H3:H8" si="0">(_xlfn.CEILING.MATH(LOG(D3, 2))*C3)*(E3-F3)*0.000000125</f>
+        <f t="shared" ref="H3:H25" si="0">(_xlfn.CEILING.MATH(LOG(D3, 2))*C3)*(E3-F3)*0.000000125</f>
         <v>6.5495249999999991E-2</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I8" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2))*N3)*(E3-F3)*0.000000125</f>
+        <f t="shared" ref="I3:I25" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2))*N3)*(E3-F3)*0.000000125</f>
         <v>1.4084999999999999E-2</v>
       </c>
       <c r="N3" s="11">
@@ -7341,29 +9347,594 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="8"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <f>E10*C10</f>
+        <v>60000</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="F10">
+        <v>357</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3928999999999999E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3928999999999999E-2</v>
+      </c>
+      <c r="N10" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B25" si="2">E11*C11</f>
+        <v>210000</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+      <c r="F11">
+        <v>357</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12187874999999999</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <v>357</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>9.7502999999999992E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>5.1073E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>215000</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <v>357</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9824499999999997E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="1"/>
+        <v>5.1073E-2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>22</v>
+      </c>
+    </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <v>346</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3269999999999999E-2</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3992499999999994E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>22</v>
+      </c>
       <c r="P14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>595000</v>
+      </c>
+      <c r="C15">
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+      <c r="F15">
+        <v>357</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41438775</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>2.7857999999999997E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+      <c r="F16">
+        <v>292</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>8.8274999999999992E-2</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="1"/>
+        <v>6.4735000000000001E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>295000</v>
+      </c>
+      <c r="C17">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>5000</v>
+      </c>
+      <c r="F17">
+        <v>357</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17121062500000001</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N17" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>155000</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>5000</v>
+      </c>
+      <c r="F18">
+        <v>357</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10794975</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="1"/>
+        <v>7.6609499999999997E-2</v>
+      </c>
+      <c r="N18" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+      <c r="F19">
+        <v>357</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="0"/>
+        <v>6.9644999999999999E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>5.1073E-2</v>
+      </c>
+      <c r="N19" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>175000</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>5000</v>
+      </c>
+      <c r="F20">
+        <v>357</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10156562499999999</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N20" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>2546</v>
+      </c>
+      <c r="E21">
+        <v>5000</v>
+      </c>
+      <c r="F21">
+        <v>357</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3573999999999996E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>8.3573999999999996E-2</v>
+      </c>
+      <c r="N21" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>165000</v>
+      </c>
+      <c r="C22">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
+      </c>
+      <c r="F22">
+        <v>357</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5761874999999996E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N22" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>400</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
+      </c>
+      <c r="F23">
+        <v>357</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1786999999999998E-2</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1786999999999998E-2</v>
+      </c>
+      <c r="N23" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+      <c r="C24">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
+      </c>
+      <c r="F24">
+        <v>357</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12187874999999999</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>205000</v>
+      </c>
+      <c r="C25">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>5000</v>
+      </c>
+      <c r="F25">
+        <v>357</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.118976875</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3841250000000002E-2</v>
+      </c>
+      <c r="N25" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -7373,11 +9944,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C8283-F952-754A-A544-78499AC1539F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="V50" sqref="V50"/>
     </sheetView>
   </sheetViews>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97958E9B-D0C4-DD4F-8E8F-9CD0898A0C11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28221655-8406-7640-8DA9-10847F51E9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20180" activeTab="7" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
     <sheet name="Execution Time per Query (μs)" sheetId="7" r:id="rId2"/>
     <sheet name="Exec. Time of Test Phase (ms)" sheetId="2" r:id="rId3"/>
-    <sheet name="Memory (MB)" sheetId="3" r:id="rId4"/>
-    <sheet name="Memory - Input Ratio" sheetId="6" r:id="rId5"/>
-    <sheet name="Datasets Attributes, Notes" sheetId="4" r:id="rId6"/>
-    <sheet name="Charts" sheetId="5" r:id="rId7"/>
+    <sheet name="TBA" sheetId="8" r:id="rId4"/>
+    <sheet name="Memory (MB)" sheetId="3" r:id="rId5"/>
+    <sheet name="Memory - Input Ratio" sheetId="6" r:id="rId6"/>
+    <sheet name="Datasets Attributes, Notes" sheetId="4" r:id="rId7"/>
+    <sheet name="Charts" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
   <si>
     <t>DG</t>
   </si>
@@ -174,10 +175,13 @@
     <t>SPiCe15</t>
   </si>
   <si>
-    <t>CPT/+ Input binary size (MB)</t>
+    <t>-</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Exec time for variable Alphabet / Sequence Number / Length</t>
+  </si>
+  <si>
+    <t>St. Deviation</t>
   </si>
 </sst>
 </file>
@@ -241,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -259,6 +263,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -304,16 +310,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Accuracy</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" baseline="0"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -343,9 +348,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1306,9 +1311,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1356,9 +1361,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -1388,9 +1393,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -1420,9 +1425,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -1462,9 +1467,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1495,7 +1500,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1536,20 +1545,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution Time</a:t>
+              <a:t>Execution Time of per query</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of queries set</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1573,9 +1577,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -1594,7 +1598,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$B$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1615,7 +1619,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1644,30 +1648,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$B$2:$B$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>3.2853025936599418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>9.6153846153846168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.78431372549019618</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.35</c:v>
+                  <c:v>6.6761363636363642</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.78431372549019618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>7.7784691972619786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>1.6056338028169013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,7 +1687,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$C$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1704,7 +1708,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1733,30 +1737,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$C$2:$C$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.85</c:v>
+                  <c:v>2.4495677233429394</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>1.3461538461538463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1.4005602240896358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42</c:v>
+                  <c:v>1.1931818181818181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>1.4005602240896358</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2300000000000004</c:v>
+                  <c:v>1.316116988176727</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>1.6056338028169013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,7 +1776,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$D$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1793,7 +1797,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1822,30 +1826,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$D$2:$D$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>136.5</c:v>
+                  <c:v>393.37175792507207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.42</c:v>
+                  <c:v>623.46153846153857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.7</c:v>
+                  <c:v>139.21568627450981</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.42</c:v>
+                  <c:v>197.21590909090912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.7</c:v>
+                  <c:v>43.977591036414559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5990</c:v>
+                  <c:v>1863.72121966397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.209999999999994</c:v>
+                  <c:v>183.6901408450704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,7 +1865,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$E$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1882,7 +1886,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1911,30 +1915,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$E$2:$E$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>96.6</c:v>
+                  <c:v>278.38616714697406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.21</c:v>
+                  <c:v>792.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.14</c:v>
+                  <c:v>67.61904761904762</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.07</c:v>
+                  <c:v>20.085227272727273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.35</c:v>
+                  <c:v>20.588235294117649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5897</c:v>
+                  <c:v>1834.7853142501556</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>42.25352112676056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,7 +1954,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$F$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1971,7 +1975,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2000,30 +2004,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$F$2:$F$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>1729.1066282420747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>420</c:v>
+                  <c:v>8076.9230769230762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>330.53221288515408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>340</c:v>
+                  <c:v>965.90909090909099</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>97110</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>1190</c:v>
+                  <c:v>243.69747899159663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30214.68574984443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3352.1126760563379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,7 +2043,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$G$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2060,7 +2064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2089,30 +2093,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$G$2:$G$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$G$2:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.35</c:v>
+                  <c:v>1.0086455331412103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>5.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.07</c:v>
+                  <c:v>3.0397727272727275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.39215686274509809</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.92</c:v>
+                  <c:v>7.4424393279402619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78</c:v>
+                  <c:v>2.1971830985915495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,7 +2132,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$H$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2151,7 +2155,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2180,30 +2184,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$H$2:$H$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$H$2:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.21</c:v>
+                  <c:v>3.4870317002881843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>8.0769230769230766</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64</c:v>
+                  <c:v>1.792717086834734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92</c:v>
+                  <c:v>2.6136363636363638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21</c:v>
+                  <c:v>0.58823529411764697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.92</c:v>
+                  <c:v>3.0864965774735533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2.8169014084507045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,7 +2223,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$I$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2242,7 +2246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2271,30 +2275,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$I$2:$I$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.14</c:v>
+                  <c:v>9.0489913544668603</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.14</c:v>
+                  <c:v>41.15384615384616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.07</c:v>
+                  <c:v>8.5994397759103638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.920000000000002</c:v>
+                  <c:v>50.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>11.596638655462185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>434</c:v>
+                  <c:v>135.03422526446795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.21</c:v>
+                  <c:v>20.309859154929576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,7 +2314,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$J$1</c:f>
+              <c:f>'Execution Time per Query (μs)'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2333,7 +2337,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$A$2:$A$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2362,30 +2366,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Exec. Time of Test Phase (ms)'!$J$2:$J$8</c:f>
+              <c:f>'Execution Time per Query (μs)'!$J$2:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>370903</c:v>
+                  <c:v>1068884.7262247838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>350</c:v>
+                  <c:v>6730.7692307692305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>308.12324929971993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26400</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>770</c:v>
+                  <c:v>2156.8627450980389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1992633</c:v>
+                  <c:v>619985.37647790916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18143</c:v>
+                  <c:v>51107.042253521133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,9 +2448,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2495,20 +2499,23 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Log</a:t>
+                  <a:t>Log scale in </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> scale in ms</a:t>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2532,9 +2539,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2564,9 +2571,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2606,9 +2613,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2646,7 +2653,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2687,9 +2698,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2701,18 +2712,17 @@
               <a:t>&amp;</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" baseline="0"/>
+              <a:rPr lang="el-GR"/>
               <a:t>Ι</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>nput size ratio</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2736,9 +2746,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2812,25 +2822,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.551861619471306</c:v>
+                  <c:v>4.3296017578183141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2063393910245401</c:v>
+                  <c:v>2.9430622562776572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7874262927926018E-2</c:v>
+                  <c:v>5.8312225522532214E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4442533111249123</c:v>
+                  <c:v>19.475420135071463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4107335200209714E-2</c:v>
+                  <c:v>0.60169088814361271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9573700653562054</c:v>
+                  <c:v>6.3532431919114805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.147372891639364</c:v>
+                  <c:v>9.8101789471195886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,25 +2911,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>99.452125345196549</c:v>
+                  <c:v>121.22884921891279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.81893725117473</c:v>
+                  <c:v>123.74876058538911</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>187.67233699571545</c:v>
+                  <c:v>161.23330356980156</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.4587251638564</c:v>
+                  <c:v>249.20161248102195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>175.22641347719679</c:v>
+                  <c:v>2390.3538010796256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.317502661092973</c:v>
+                  <c:v>119.31084534014968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.862152651377258</c:v>
+                  <c:v>298.79677564238943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2990,25 +3000,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.8851327952262977</c:v>
+                  <c:v>8.0097632519638804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6979055733049346</c:v>
+                  <c:v>0.53255412256452839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2218074350598851</c:v>
+                  <c:v>2.9156112761266106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.2293625819282</c:v>
+                  <c:v>35.600230354431709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6664222385174323</c:v>
+                  <c:v>3.0084544407180638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.900078247999019</c:v>
+                  <c:v>76.60633477668685</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.068704098554846</c:v>
+                  <c:v>16.074510082027281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,25 +3089,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.639148618769813</c:v>
+                  <c:v>13.854725625018606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54.668086616968409</c:v>
+                  <c:v>10.791228273018076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.577072639601806</c:v>
+                  <c:v>4.9565391694152385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.29250413809411</c:v>
+                  <c:v>40.83555834773049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.999533364442371</c:v>
+                  <c:v>5.7434130231890306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.708776031600877</c:v>
+                  <c:v>81.244967757769217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.696398957592988</c:v>
+                  <c:v>21.866061508640051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,25 +3178,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.4863031336299142</c:v>
+                  <c:v>3.0307212304728202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3590222191685664</c:v>
+                  <c:v>3.0832080780051645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7874262927926026</c:v>
+                  <c:v>5.8312225522532213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8016192052607281</c:v>
+                  <c:v>2.5129574367834144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30073183091052075</c:v>
+                  <c:v>4.1024378737064504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0727810418134291</c:v>
+                  <c:v>1.722264720698895</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3131294745783277</c:v>
+                  <c:v>2.3638985414746001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,25 +3267,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.1898736425228875</c:v>
+                  <c:v>1.4504165888691354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8321939377283087</c:v>
+                  <c:v>1.6817498607300898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7874262927926018E-2</c:v>
+                  <c:v>5.8312225522532214E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8016192052607281</c:v>
+                  <c:v>5.4447411130307319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6039030981894443E-2</c:v>
+                  <c:v>0.21879668659767737</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.396580927621848</c:v>
+                  <c:v>19.901725661409454</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2134449702705983</c:v>
+                  <c:v>3.78223766635936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,25 +3358,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19.002459664171486</c:v>
+                  <c:v>23.16336940432798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.224363598886953</c:v>
+                  <c:v>37.839371866427022</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.592966529504094</c:v>
+                  <c:v>12.537128487344425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.10448178762201</c:v>
+                  <c:v>66.802785194492444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3681965061978327</c:v>
+                  <c:v>45.947304185512245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.927363187637749</c:v>
+                  <c:v>28.78095711034598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.723941269263438</c:v>
+                  <c:v>77.063092452071956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,25 +3449,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.0846408623920016</c:v>
+                  <c:v>4.9790420214910611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4965818131849264</c:v>
+                  <c:v>5.0452495821902694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4118270903151915</c:v>
+                  <c:v>3.7902946589645938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6032384105214561</c:v>
+                  <c:v>10.889482226061464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7867816331041588</c:v>
+                  <c:v>38.015924296346441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8464456976116317</c:v>
+                  <c:v>4.5697423922544012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7920155320956193</c:v>
+                  <c:v>11.819492707373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,9 +3527,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3577,9 +3587,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3619,9 +3629,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3652,7 +3662,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5384,7 +5398,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>661832</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>187817</xdr:rowOff>
@@ -5580,16 +5594,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>680720</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5619,15 +5633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>261755</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>135317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>688497</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>59117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5692,6 +5706,592 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>479409</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>117784</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7410618" cy="3023905"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70F9D66-3858-7045-B542-EF45974A6CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="479409" y="8245784"/>
+          <a:ext cx="7410618" cy="3023905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Accuracy: (how subseq Performs)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>BMS:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> subSeq competes with DG while CPT+ performs higher if it is finely tuned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SIGN: subSeq underperforms to CPT and CPT+ even if CPT+ is not finely tuned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>MSNBC: subSeq is clear winner here</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>BIBLE_WORD: subSeq is competitive to AKOM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>BIBLE_CHAR: subseq is clear winner</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>KOSARAK: subseq competes to a finely tuned CPT+; however it can be a clear winner if CPT+ is not finely tuned</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>FIFA: again subSeq performs better than CPT+ if it is not tuned.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="2828467"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE570E90-9342-284C-99D7-B87D2E368E85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="8087360"/>
+          <a:ext cx="5943600" cy="2828467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Memory:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>In comparison to all other predictors, subSeq has the lowest standard deviation from the average memory - input ratio per dataset. Look at the memory-input ratio sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>At the moment we haven't proved that subSeq has a memory upper bound. However, its memory usage does not spike similar to other predictors memory</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>It is important to note that CPT and CPT+ have a splitLength parameter. This parameter defines the length of a training sequence to get stored</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>in the CPT/+ trie. Look at Dataset Attributes sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>For example if a dataset has an average sequence length, then CPT+ might keep the last 20 or so items from every sequence.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>That explains why in some datasets the ratio might remain low for CPT/+.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5632311" cy="1460400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D46D72-3E84-0942-9B40-B8B9A788E896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767840" y="883920"/>
+          <a:ext cx="5632311" cy="1460400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>CPT - CPT+: Lossless predictor as they presented in PAKDD and ADMA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> publications</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>MARK1: 1st order Markov</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>AKOM: All-k Markov</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>LZ78: based on compression LZ78 algorithm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>DG: dependency graphs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>TDAG: Directed acyclic graph</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>SPiCe baseline: spectral learning baseline, constracts a model through a Hankel Matrix</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5415280" cy="2633028"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95191F6C-F431-0343-BCA1-19B7EE9F6149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="12598400"/>
+          <a:ext cx="5415280" cy="2633028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Execution Time:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>subSeq does not show a consistent performance among the various datasets. It has one of the highest st. deviations from the average execution times of the different datasets.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>This is a potential sign that subSeq is affected by the alphabet size and query size.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>However it is important to do a test for various query lengths / alphabet size / dataset length / number of training sequences.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Early test (not yet presented), showed that for a fixed alphabet, query length, sequence length and a varying sequence number, subSeq catches up CPT and CPT+ while at the end, it becomes faster. However no further testing has been done for other dataset attributes.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5994,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F97A20-C648-D746-9C76-A8398157CF72}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A25"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6299,7 +6899,7 @@
         <v>67.760000000000005</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3">
         <v>67.760000000000005</v>
@@ -6334,7 +6934,7 @@
         <v>26.64</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>26.8</v>
@@ -6369,7 +6969,7 @@
         <v>36.5</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3">
         <v>36.5</v>
@@ -6404,7 +7004,7 @@
         <v>26.44</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3">
         <v>26.52</v>
@@ -6439,7 +7039,7 @@
         <v>57.107999999999997</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3">
         <v>63.247</v>
@@ -6474,7 +7074,7 @@
         <v>99.9</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3">
         <v>99.94</v>
@@ -6509,7 +7109,7 @@
         <v>28.225999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3">
         <v>29.373000000000001</v>
@@ -6544,7 +7144,7 @@
         <v>56.14</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="3">
         <v>56.56</v>
@@ -6579,7 +7179,7 @@
         <v>96.64</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="3">
         <v>96.9</v>
@@ -6614,7 +7214,7 @@
         <v>49.146000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="3">
         <v>53.344999999999999</v>
@@ -6649,7 +7249,7 @@
         <v>95.94</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="3">
         <v>95.92</v>
@@ -6684,7 +7284,7 @@
         <v>90.72</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="3">
         <v>81.739999999999995</v>
@@ -6719,7 +7319,7 @@
         <v>11.34</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="3">
         <v>12.08</v>
@@ -6754,7 +7354,7 @@
         <v>36.9</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3">
         <v>37.44</v>
@@ -6789,7 +7389,7 @@
         <v>55.06</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="3">
         <v>55.38</v>
@@ -6824,7 +7424,7 @@
         <v>24.7</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3">
         <v>25.82</v>
@@ -6853,10 +7453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D61A1C-C42B-6442-B132-77D4B94522A1}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7181,6 +7781,47 @@
         <v>51107.042253521133</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <f>STDEV(B2:B8)</f>
+        <v>3.6281778267268345</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:J11" si="0">STDEV(C2:C8)</f>
+        <v>0.42383683374854919</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>634.52898411372792</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>676.36590599325609</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>10842.233866398023</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.7537068164296357</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.3512921176947099</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>45.256040268102595</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>420279.86892522278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7191,7 +7832,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7459,8 +8100,1690 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5836F04-D43A-CC40-A189-64C18F06697B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9058626D-1839-5446-B7A4-B72B5F5525AF}">
   <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G2" s="8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>8.83</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5.53</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="C5" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>87.4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.68</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C7" s="8">
+        <v>155.87</v>
+      </c>
+      <c r="D7" s="8">
+        <v>100.08</v>
+      </c>
+      <c r="E7" s="8">
+        <v>106.14</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.25</v>
+      </c>
+      <c r="G7" s="8">
+        <v>26</v>
+      </c>
+      <c r="H7" s="8">
+        <v>37.6</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C8" s="8">
+        <v>25.28</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.85</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6.52</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1.44E-4</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.1200960000000002</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8.6183999999999997E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.1739</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.44E-4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4.0067999999999999E-2</v>
+      </c>
+      <c r="I10" s="8">
+        <v>8.3239999999999995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="C11" s="8">
+        <v>26.134599999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.107</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.467084</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4.0913000000000004</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.72475000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>26.493300000000001</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1.94767</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.59789999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C13" s="8">
+        <v>26.983000000000001</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I14" s="8">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C15" s="8">
+        <v>78.534999999999997</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.106</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>14.763</v>
+      </c>
+      <c r="D16">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.32</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1.454</v>
+      </c>
+      <c r="I16">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>37.884</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3.21</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>19.535</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.124</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="8">
+        <v>15.207000000000001</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.504</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>22.076000000000001</v>
+      </c>
+      <c r="D20" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1.476</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.3929999999999998</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.4379999999999999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.792</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="8">
+        <v>20.518000000000001</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3.831</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="8">
+        <v>26.413</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C25" s="8">
+        <v>26.048999999999999</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2.4340000000000002</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <f>'Memory (MB)'!B2/'Datasets Attributes, Notes'!$H2</f>
+        <v>4.3296017578183141</v>
+      </c>
+      <c r="C2" s="8">
+        <f>'Memory (MB)'!C2/'Datasets Attributes, Notes'!$H2</f>
+        <v>121.22884921891279</v>
+      </c>
+      <c r="D2" s="8">
+        <f>'Memory (MB)'!D2/'Datasets Attributes, Notes'!$H2</f>
+        <v>8.0097632519638804</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'Memory (MB)'!E2/'Datasets Attributes, Notes'!$H2</f>
+        <v>13.854725625018606</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H2</f>
+        <v>3.0307212304728202</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H2</f>
+        <v>1.4504165888691354</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'Memory (MB)'!H2/'Datasets Attributes, Notes'!$H2</f>
+        <v>23.16336940432798</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'Memory (MB)'!I2/'Datasets Attributes, Notes'!$H2</f>
+        <v>4.9790420214910611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="8">
+        <f>'Memory (MB)'!B3/'Datasets Attributes, Notes'!$H3</f>
+        <v>2.9430622562776572</v>
+      </c>
+      <c r="C3" s="8">
+        <f>'Memory (MB)'!C3/'Datasets Attributes, Notes'!$H3</f>
+        <v>123.74876058538911</v>
+      </c>
+      <c r="D3" s="8">
+        <f>'Memory (MB)'!D3/'Datasets Attributes, Notes'!$H3</f>
+        <v>0.53255412256452839</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'Memory (MB)'!E3/'Datasets Attributes, Notes'!$H3</f>
+        <v>10.791228273018076</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H3</f>
+        <v>3.0832080780051645</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H3</f>
+        <v>1.6817498607300898</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'Memory (MB)'!H3/'Datasets Attributes, Notes'!$H3</f>
+        <v>37.839371866427022</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'Memory (MB)'!I3/'Datasets Attributes, Notes'!$H3</f>
+        <v>5.0452495821902694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <f>'Memory (MB)'!B4/'Datasets Attributes, Notes'!$H4</f>
+        <v>5.8312225522532214E-2</v>
+      </c>
+      <c r="C4" s="8">
+        <f>'Memory (MB)'!C4/'Datasets Attributes, Notes'!$H4</f>
+        <v>161.23330356980156</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'Memory (MB)'!D4/'Datasets Attributes, Notes'!$H4</f>
+        <v>2.9156112761266106</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'Memory (MB)'!E4/'Datasets Attributes, Notes'!$H4</f>
+        <v>4.9565391694152385</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H4</f>
+        <v>5.8312225522532213</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H4</f>
+        <v>5.8312225522532214E-2</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'Memory (MB)'!H4/'Datasets Attributes, Notes'!$H4</f>
+        <v>12.537128487344425</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'Memory (MB)'!I4/'Datasets Attributes, Notes'!$H4</f>
+        <v>3.7902946589645938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
+        <f>'Memory (MB)'!B5/'Datasets Attributes, Notes'!$H5</f>
+        <v>19.475420135071463</v>
+      </c>
+      <c r="C5" s="8">
+        <f>'Memory (MB)'!C5/'Datasets Attributes, Notes'!$H5</f>
+        <v>249.20161248102195</v>
+      </c>
+      <c r="D5" s="8">
+        <f>'Memory (MB)'!D5/'Datasets Attributes, Notes'!$H5</f>
+        <v>35.600230354431709</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'Memory (MB)'!E5/'Datasets Attributes, Notes'!$H5</f>
+        <v>40.83555834773049</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H5</f>
+        <v>2.5129574367834144</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H5</f>
+        <v>5.4447411130307319</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'Memory (MB)'!H5/'Datasets Attributes, Notes'!$H5</f>
+        <v>66.802785194492444</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'Memory (MB)'!I5/'Datasets Attributes, Notes'!$H5</f>
+        <v>10.889482226061464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <f>'Memory (MB)'!B6/'Datasets Attributes, Notes'!$H6</f>
+        <v>0.60169088814361271</v>
+      </c>
+      <c r="C6" s="8">
+        <f>'Memory (MB)'!C6/'Datasets Attributes, Notes'!$H6</f>
+        <v>2390.3538010796256</v>
+      </c>
+      <c r="D6" s="8">
+        <f>'Memory (MB)'!D6/'Datasets Attributes, Notes'!$H6</f>
+        <v>3.0084544407180638</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'Memory (MB)'!E6/'Datasets Attributes, Notes'!$H6</f>
+        <v>5.7434130231890306</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H6</f>
+        <v>4.1024378737064504</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H6</f>
+        <v>0.21879668659767737</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'Memory (MB)'!H6/'Datasets Attributes, Notes'!$H6</f>
+        <v>45.947304185512245</v>
+      </c>
+      <c r="I6" s="8">
+        <f>'Memory (MB)'!I6/'Datasets Attributes, Notes'!$H6</f>
+        <v>38.015924296346441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <f>'Memory (MB)'!B7/'Datasets Attributes, Notes'!$H7</f>
+        <v>6.3532431919114805</v>
+      </c>
+      <c r="C7" s="8">
+        <f>'Memory (MB)'!C7/'Datasets Attributes, Notes'!$H7</f>
+        <v>119.31084534014968</v>
+      </c>
+      <c r="D7" s="8">
+        <f>'Memory (MB)'!D7/'Datasets Attributes, Notes'!$H7</f>
+        <v>76.60633477668685</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'Memory (MB)'!E7/'Datasets Attributes, Notes'!$H7</f>
+        <v>81.244967757769217</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H7</f>
+        <v>1.722264720698895</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H7</f>
+        <v>19.901725661409454</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'Memory (MB)'!H7/'Datasets Attributes, Notes'!$H7</f>
+        <v>28.78095711034598</v>
+      </c>
+      <c r="I7" s="8">
+        <f>'Memory (MB)'!I7/'Datasets Attributes, Notes'!$H7</f>
+        <v>4.5697423922544012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <f>'Memory (MB)'!B8/'Datasets Attributes, Notes'!$H8</f>
+        <v>9.8101789471195886</v>
+      </c>
+      <c r="C8" s="8">
+        <f>'Memory (MB)'!C8/'Datasets Attributes, Notes'!$H8</f>
+        <v>298.79677564238943</v>
+      </c>
+      <c r="D8" s="8">
+        <f>'Memory (MB)'!D8/'Datasets Attributes, Notes'!$H8</f>
+        <v>16.074510082027281</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'Memory (MB)'!E8/'Datasets Attributes, Notes'!$H8</f>
+        <v>21.866061508640051</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H8</f>
+        <v>2.3638985414746001</v>
+      </c>
+      <c r="G8" s="8">
+        <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H8</f>
+        <v>3.78223766635936</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'Memory (MB)'!H8/'Datasets Attributes, Notes'!$H8</f>
+        <v>77.063092452071956</v>
+      </c>
+      <c r="I8" s="8">
+        <f>'Memory (MB)'!I8/'Datasets Attributes, Notes'!$H8</f>
+        <v>11.819492707373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8">
+        <f>STDEV(B2:B8)</f>
+        <v>6.7386556490637082</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:I10" si="0">STDEV(C2:C8)</f>
+        <v>838.78417040960778</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>27.584148886830189</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>27.447262951186577</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3617465152194754</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>6.997222570797172</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>23.36170573733143</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>12.213022084984882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8">
+        <f>'Memory (MB)'!B10/'Datasets Attributes, Notes'!$H10</f>
+        <v>9.8040884410478119E-3</v>
+      </c>
+      <c r="C12" s="8">
+        <f>'Memory (MB)'!C10/'Datasets Attributes, Notes'!$H10</f>
+        <v>416.68029480349276</v>
+      </c>
+      <c r="D12" s="8">
+        <f>'Memory (MB)'!D10/'Datasets Attributes, Notes'!$H10</f>
+        <v>5.8677469319671154</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'Memory (MB)'!E10/'Datasets Attributes, Notes'!$H10</f>
+        <v>11.83979847151538</v>
+      </c>
+      <c r="F12" s="8">
+        <f>'Memory (MB)'!F10/'Datasets Attributes, Notes'!$H10</f>
+        <v>14.610815135061532</v>
+      </c>
+      <c r="G12" s="8">
+        <f>'Memory (MB)'!G10/'Datasets Attributes, Notes'!$H10</f>
+        <v>9.8040884410478119E-3</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'Memory (MB)'!H10/'Datasets Attributes, Notes'!$H10</f>
+        <v>2.7279876087215538</v>
+      </c>
+      <c r="I12" s="8">
+        <f>'Memory (MB)'!I10/'Datasets Attributes, Notes'!$H10</f>
+        <v>5.667307790505693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <f>'Memory (MB)'!B11/'Datasets Attributes, Notes'!$H11</f>
+        <v>2.5719725321370984E-2</v>
+      </c>
+      <c r="C13" s="8">
+        <f>'Memory (MB)'!C11/'Datasets Attributes, Notes'!$H11</f>
+        <v>210.0546041824694</v>
+      </c>
+      <c r="D13" s="8">
+        <f>'Memory (MB)'!D11/'Datasets Attributes, Notes'!$H11</f>
+        <v>0.8600033154333423</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'Memory (MB)'!E11/'Datasets Attributes, Notes'!$H11</f>
+        <v>3.754147556877264</v>
+      </c>
+      <c r="F13" s="8">
+        <f>'Memory (MB)'!F11/'Datasets Attributes, Notes'!$H11</f>
+        <v>5.1439450642741971</v>
+      </c>
+      <c r="G13" s="8">
+        <f>'Memory (MB)'!G11/'Datasets Attributes, Notes'!$H11</f>
+        <v>2.6362718454405257E-2</v>
+      </c>
+      <c r="H13" s="8">
+        <f>'Memory (MB)'!H11/'Datasets Attributes, Notes'!$H11</f>
+        <v>32.883472564789102</v>
+      </c>
+      <c r="I13" s="8">
+        <f>'Memory (MB)'!I11/'Datasets Attributes, Notes'!$H11</f>
+        <v>5.8251159145823816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8">
+        <f>'Memory (MB)'!B12/'Datasets Attributes, Notes'!$H12</f>
+        <v>8.3609127329733503E-3</v>
+      </c>
+      <c r="C14" s="8">
+        <f>'Memory (MB)'!C12/'Datasets Attributes, Notes'!$H12</f>
+        <v>263.70020155771766</v>
+      </c>
+      <c r="D14" s="8">
+        <f>'Memory (MB)'!D12/'Datasets Attributes, Notes'!$H12</f>
+        <v>1.0948814293179385</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'Memory (MB)'!E12/'Datasets Attributes, Notes'!$H12</f>
+        <v>4.1466145768532119</v>
+      </c>
+      <c r="F14" s="8">
+        <f>'Memory (MB)'!F12/'Datasets Attributes, Notes'!$H12</f>
+        <v>6.4697539005150917</v>
+      </c>
+      <c r="G14" s="8">
+        <f>'Memory (MB)'!G12/'Datasets Attributes, Notes'!$H12</f>
+        <v>8.3609127329733503E-3</v>
+      </c>
+      <c r="H14" s="8">
+        <f>'Memory (MB)'!H12/'Datasets Attributes, Notes'!$H12</f>
+        <v>19.386070122178815</v>
+      </c>
+      <c r="I14" s="8">
+        <f>'Memory (MB)'!I12/'Datasets Attributes, Notes'!$H12</f>
+        <v>5.9511782417199592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="8">
+        <f>'Memory (MB)'!B13/'Datasets Attributes, Notes'!$H13</f>
+        <v>9.8564895126951602E-3</v>
+      </c>
+      <c r="C15" s="8">
+        <f>'Memory (MB)'!C13/'Datasets Attributes, Notes'!$H13</f>
+        <v>265.95765652105348</v>
+      </c>
+      <c r="D15" s="8">
+        <f>'Memory (MB)'!D13/'Datasets Attributes, Notes'!$H13</f>
+        <v>1.0842138463964675</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'Memory (MB)'!E13/'Datasets Attributes, Notes'!$H13</f>
+        <v>4.1298691058192718</v>
+      </c>
+      <c r="F15" s="8">
+        <f>'Memory (MB)'!F13/'Datasets Attributes, Notes'!$H13</f>
+        <v>6.4067181832518543</v>
+      </c>
+      <c r="G15" s="8">
+        <f>'Memory (MB)'!G13/'Datasets Attributes, Notes'!$H13</f>
+        <v>9.8564895126951602E-3</v>
+      </c>
+      <c r="H15" s="8">
+        <f>'Memory (MB)'!H13/'Datasets Attributes, Notes'!$H13</f>
+        <v>20.01853020028387</v>
+      </c>
+      <c r="I15" s="8">
+        <f>'Memory (MB)'!I13/'Datasets Attributes, Notes'!$H13</f>
+        <v>6.0420280712821324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8">
+        <f>'Memory (MB)'!B14/'Datasets Attributes, Notes'!$H14</f>
+        <v>0.23223746280571889</v>
+      </c>
+      <c r="C16" s="8">
+        <f>'Memory (MB)'!C14/'Datasets Attributes, Notes'!$H14</f>
+        <v>142.12932723709994</v>
+      </c>
+      <c r="D16" s="8">
+        <f>'Memory (MB)'!D14/'Datasets Attributes, Notes'!$H14</f>
+        <v>4.6447492561143768</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'Memory (MB)'!E14/'Datasets Attributes, Notes'!$H14</f>
+        <v>9.9862109006459114</v>
+      </c>
+      <c r="F16" s="8">
+        <f>'Memory (MB)'!F14/'Datasets Attributes, Notes'!$H14</f>
+        <v>5.8059365701429719</v>
+      </c>
+      <c r="G16" s="8">
+        <f>'Memory (MB)'!G14/'Datasets Attributes, Notes'!$H14</f>
+        <v>0.15482497520381258</v>
+      </c>
+      <c r="H16" s="8">
+        <f>'Memory (MB)'!H14/'Datasets Attributes, Notes'!$H14</f>
+        <v>10.141035875849724</v>
+      </c>
+      <c r="I16" s="8">
+        <f>'Memory (MB)'!I14/'Datasets Attributes, Notes'!$H14</f>
+        <v>3.7932118924934084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="8">
+        <f>'Memory (MB)'!B15/'Datasets Attributes, Notes'!$H15</f>
+        <v>2.6140995021328675E-2</v>
+      </c>
+      <c r="C17" s="8">
+        <f>'Memory (MB)'!C15/'Datasets Attributes, Notes'!$H15</f>
+        <v>186.6348221818225</v>
+      </c>
+      <c r="D17" s="8">
+        <f>'Memory (MB)'!D15/'Datasets Attributes, Notes'!$H15</f>
+        <v>0.25190413384189453</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'Memory (MB)'!E15/'Datasets Attributes, Notes'!$H15</f>
+        <v>0.77710048836131618</v>
+      </c>
+      <c r="F17" s="8">
+        <f>'Memory (MB)'!F15/'Datasets Attributes, Notes'!$H15</f>
+        <v>4.0399719578417042</v>
+      </c>
+      <c r="G17" s="8">
+        <f>'Memory (MB)'!G15/'Datasets Attributes, Notes'!$H15</f>
+        <v>1.4258724557088369E-2</v>
+      </c>
+      <c r="H17" s="8">
+        <f>'Memory (MB)'!H15/'Datasets Attributes, Notes'!$H15</f>
+        <v>4.3346522653548645</v>
+      </c>
+      <c r="I17" s="8">
+        <f>'Memory (MB)'!I15/'Datasets Attributes, Notes'!$H15</f>
+        <v>3.2913889185945653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8">
+        <f>'Memory (MB)'!B16/'Datasets Attributes, Notes'!$H16</f>
+        <v>6.8759239522810892E-2</v>
+      </c>
+      <c r="C18" s="8">
+        <f>'Memory (MB)'!C16/'Datasets Attributes, Notes'!$H16</f>
+        <v>203.01853061505142</v>
+      </c>
+      <c r="D18" s="8">
+        <f>'Memory (MB)'!D16/'Datasets Attributes, Notes'!$H16</f>
+        <v>1.2239144635060337</v>
+      </c>
+      <c r="E18" s="8">
+        <f>'Memory (MB)'!E16/'Datasets Attributes, Notes'!$H16</f>
+        <v>4.4005913294598971</v>
+      </c>
+      <c r="F18" s="8">
+        <f>'Memory (MB)'!F16/'Datasets Attributes, Notes'!$H16</f>
+        <v>5.3632206827792492</v>
+      </c>
+      <c r="G18" s="8">
+        <f>'Memory (MB)'!G16/'Datasets Attributes, Notes'!$H16</f>
+        <v>5.5007391618248712E-2</v>
+      </c>
+      <c r="H18" s="8">
+        <f>'Memory (MB)'!H16/'Datasets Attributes, Notes'!$H16</f>
+        <v>19.995186853233406</v>
+      </c>
+      <c r="I18" s="8">
+        <f>'Memory (MB)'!I16/'Datasets Attributes, Notes'!$H16</f>
+        <v>4.6756282875511408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="8">
+        <f>'Memory (MB)'!B17/'Datasets Attributes, Notes'!$H17</f>
+        <v>1.7169654067240657E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f>'Memory (MB)'!C17/'Datasets Attributes, Notes'!$H17</f>
+        <v>216.81839156111502</v>
+      </c>
+      <c r="D19" s="8">
+        <f>'Memory (MB)'!D17/'Datasets Attributes, Notes'!$H17</f>
+        <v>0.61810754642066368</v>
+      </c>
+      <c r="E19" s="8">
+        <f>'Memory (MB)'!E17/'Datasets Attributes, Notes'!$H17</f>
+        <v>1.9745102177326754</v>
+      </c>
+      <c r="F19" s="8">
+        <f>'Memory (MB)'!F17/'Datasets Attributes, Notes'!$H17</f>
+        <v>5.1508962201721973</v>
+      </c>
+      <c r="G19" s="8">
+        <f>'Memory (MB)'!G17/'Datasets Attributes, Notes'!$H17</f>
+        <v>1.7169654067240657E-2</v>
+      </c>
+      <c r="H19" s="8">
+        <f>'Memory (MB)'!H17/'Datasets Attributes, Notes'!$H17</f>
+        <v>18.371529851947503</v>
+      </c>
+      <c r="I19" s="8">
+        <f>'Memory (MB)'!I17/'Datasets Attributes, Notes'!$H17</f>
+        <v>5.0650479498359937</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8">
+        <f>'Memory (MB)'!B18/'Datasets Attributes, Notes'!$H18</f>
+        <v>9.662917893747433E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <f>'Memory (MB)'!C18/'Datasets Attributes, Notes'!$H18</f>
+        <v>171.60463732214191</v>
+      </c>
+      <c r="D20" s="8">
+        <f>'Memory (MB)'!D18/'Datasets Attributes, Notes'!$H18</f>
+        <v>1.0892743807497107</v>
+      </c>
+      <c r="E20" s="8">
+        <f>'Memory (MB)'!E18/'Datasets Attributes, Notes'!$H18</f>
+        <v>3.6894777412490196</v>
+      </c>
+      <c r="F20" s="8">
+        <f>'Memory (MB)'!F18/'Datasets Attributes, Notes'!$H18</f>
+        <v>4.3922354062488331</v>
+      </c>
+      <c r="G20" s="8">
+        <f>'Memory (MB)'!G18/'Datasets Attributes, Notes'!$H18</f>
+        <v>7.0275766499981338E-2</v>
+      </c>
+      <c r="H20" s="8">
+        <f>'Memory (MB)'!H18/'Datasets Attributes, Notes'!$H18</f>
+        <v>13.528085051246407</v>
+      </c>
+      <c r="I20" s="8">
+        <f>'Memory (MB)'!I18/'Datasets Attributes, Notes'!$H18</f>
+        <v>3.8827360991239686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8">
+        <f>'Memory (MB)'!B19/'Datasets Attributes, Notes'!$H19</f>
+        <v>1.6742986781411937E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <f>'Memory (MB)'!C19/'Datasets Attributes, Notes'!$H19</f>
+        <v>254.61059998493135</v>
+      </c>
+      <c r="D21" s="8">
+        <f>'Memory (MB)'!D19/'Datasets Attributes, Notes'!$H19</f>
+        <v>1.2724669953873071</v>
+      </c>
+      <c r="E21" s="8">
+        <f>'Memory (MB)'!E19/'Datasets Attributes, Notes'!$H19</f>
+        <v>3.8006579993805101</v>
+      </c>
+      <c r="F21" s="8">
+        <f>'Memory (MB)'!F19/'Datasets Attributes, Notes'!$H19</f>
+        <v>6.8646245803788943</v>
+      </c>
+      <c r="G21" s="8">
+        <f>'Memory (MB)'!G19/'Datasets Attributes, Notes'!$H19</f>
+        <v>1.6742986781411937E-2</v>
+      </c>
+      <c r="H21" s="8">
+        <f>'Memory (MB)'!H19/'Datasets Attributes, Notes'!$H19</f>
+        <v>8.4384653378316159</v>
+      </c>
+      <c r="I21" s="8">
+        <f>'Memory (MB)'!I19/'Datasets Attributes, Notes'!$H19</f>
+        <v>3.9680878671946291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="8">
+        <f>'Memory (MB)'!B20/'Datasets Attributes, Notes'!$H20</f>
+        <v>2.8316412310560254E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <f>'Memory (MB)'!C20/'Datasets Attributes, Notes'!$H20</f>
+        <v>208.37103938930937</v>
+      </c>
+      <c r="D22" s="8">
+        <f>'Memory (MB)'!D20/'Datasets Attributes, Notes'!$H20</f>
+        <v>0.90612519393792812</v>
+      </c>
+      <c r="E22" s="8">
+        <f>'Memory (MB)'!E20/'Datasets Attributes, Notes'!$H20</f>
+        <v>2.3880174381905812</v>
+      </c>
+      <c r="F22" s="8">
+        <f>'Memory (MB)'!F20/'Datasets Attributes, Notes'!$H20</f>
+        <v>5.2857302979712477</v>
+      </c>
+      <c r="G22" s="8">
+        <f>'Memory (MB)'!G20/'Datasets Attributes, Notes'!$H20</f>
+        <v>2.8316412310560254E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <f>'Memory (MB)'!H20/'Datasets Attributes, Notes'!$H20</f>
+        <v>13.931674856795643</v>
+      </c>
+      <c r="I22" s="8">
+        <f>'Memory (MB)'!I20/'Datasets Attributes, Notes'!$H20</f>
+        <v>4.256900650687558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <f>'Memory (MB)'!B21/'Datasets Attributes, Notes'!$H21</f>
+        <v>4.3184707790784342</v>
+      </c>
+      <c r="C23" s="8">
+        <f>'Memory (MB)'!C21/'Datasets Attributes, Notes'!$H21</f>
+        <v>70.071024595554391</v>
+      </c>
+      <c r="D23" s="8">
+        <f>'Memory (MB)'!D21/'Datasets Attributes, Notes'!$H21</f>
+        <v>15.761322285062914</v>
+      </c>
+      <c r="E23" s="8">
+        <f>'Memory (MB)'!E21/'Datasets Attributes, Notes'!$H21</f>
+        <v>19.641369634793286</v>
+      </c>
+      <c r="F23" s="8">
+        <f>'Memory (MB)'!F21/'Datasets Attributes, Notes'!$H21</f>
+        <v>2.4113288614143542</v>
+      </c>
+      <c r="G23" s="8">
+        <f>'Memory (MB)'!G21/'Datasets Attributes, Notes'!$H21</f>
+        <v>1.348152045245298</v>
+      </c>
+      <c r="H23" s="8">
+        <f>'Memory (MB)'!H21/'Datasets Attributes, Notes'!$H21</f>
+        <v>16.714893243894952</v>
+      </c>
+      <c r="I23" s="8">
+        <f>'Memory (MB)'!I21/'Datasets Attributes, Notes'!$H21</f>
+        <v>2.9374369766320316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="8">
+        <f>'Memory (MB)'!B22/'Datasets Attributes, Notes'!$H22</f>
+        <v>4.0589820833993977E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <f>'Memory (MB)'!C22/'Datasets Attributes, Notes'!$H22</f>
+        <v>208.20548596797212</v>
+      </c>
+      <c r="D24" s="8">
+        <f>'Memory (MB)'!D22/'Datasets Attributes, Notes'!$H22</f>
+        <v>1.0959251625178374</v>
+      </c>
+      <c r="E24" s="8">
+        <f>'Memory (MB)'!E22/'Datasets Attributes, Notes'!$H22</f>
+        <v>4.7084192167433017</v>
+      </c>
+      <c r="F24" s="8">
+        <f>'Memory (MB)'!F22/'Datasets Attributes, Notes'!$H22</f>
+        <v>5.2766767084192177</v>
+      </c>
+      <c r="G24" s="8">
+        <f>'Memory (MB)'!G22/'Datasets Attributes, Notes'!$H22</f>
+        <v>4.0589820833993977E-2</v>
+      </c>
+      <c r="H24" s="8">
+        <f>'Memory (MB)'!H22/'Datasets Attributes, Notes'!$H22</f>
+        <v>38.641509433962263</v>
+      </c>
+      <c r="I24" s="8">
+        <f>'Memory (MB)'!I22/'Datasets Attributes, Notes'!$H22</f>
+        <v>6.2305374980180757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8">
+        <f>'Memory (MB)'!B23/'Datasets Attributes, Notes'!$H23</f>
+        <v>1.2033319847716264</v>
+      </c>
+      <c r="C25" s="8">
+        <f>'Memory (MB)'!C23/'Datasets Attributes, Notes'!$H23</f>
+        <v>79.482152304484487</v>
+      </c>
+      <c r="D25" s="8">
+        <f>'Memory (MB)'!D23/'Datasets Attributes, Notes'!$H23</f>
+        <v>6.8465440512868394</v>
+      </c>
+      <c r="E25" s="8">
+        <f>'Memory (MB)'!E23/'Datasets Attributes, Notes'!$H23</f>
+        <v>11.224182823473274</v>
+      </c>
+      <c r="F25" s="8">
+        <f>'Memory (MB)'!F23/'Datasets Attributes, Notes'!$H23</f>
+        <v>3.1120654778576542</v>
+      </c>
+      <c r="G25" s="8">
+        <f>'Memory (MB)'!G23/'Datasets Attributes, Notes'!$H23</f>
+        <v>0.56017178601437778</v>
+      </c>
+      <c r="H25" s="8">
+        <f>'Memory (MB)'!H23/'Datasets Attributes, Notes'!$H23</f>
+        <v>12.240790879573439</v>
+      </c>
+      <c r="I25" s="8">
+        <f>'Memory (MB)'!I23/'Datasets Attributes, Notes'!$H23</f>
+        <v>3.0290770651147834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="8">
+        <f>'Memory (MB)'!B24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.8007921307015665E-2</v>
+      </c>
+      <c r="C26" s="8">
+        <f>'Memory (MB)'!C24/'Datasets Attributes, Notes'!$H24</f>
+        <v>211.33887091370079</v>
+      </c>
+      <c r="D26" s="8">
+        <f>'Memory (MB)'!D24/'Datasets Attributes, Notes'!$H24</f>
+        <v>0.81613466221926623</v>
+      </c>
+      <c r="E26" s="8">
+        <f>'Memory (MB)'!E24/'Datasets Attributes, Notes'!$H24</f>
+        <v>2.1923617396870485</v>
+      </c>
+      <c r="F26" s="8">
+        <f>'Memory (MB)'!F24/'Datasets Attributes, Notes'!$H24</f>
+        <v>5.2008581415933639</v>
+      </c>
+      <c r="G26" s="8">
+        <f>'Memory (MB)'!G24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.0006601089179722E-2</v>
+      </c>
+      <c r="H26" s="8">
+        <f>'Memory (MB)'!H24/'Datasets Attributes, Notes'!$H24</f>
+        <v>4.4407327208989491</v>
+      </c>
+      <c r="I26" s="8">
+        <f>'Memory (MB)'!I24/'Datasets Attributes, Notes'!$H24</f>
+        <v>2.8324673571139241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8">
+        <f>'Memory (MB)'!B25/'Datasets Attributes, Notes'!$H25</f>
+        <v>6.4984845330991178E-2</v>
+      </c>
+      <c r="C27" s="8">
+        <f>'Memory (MB)'!C25/'Datasets Attributes, Notes'!$H25</f>
+        <v>211.59877950337363</v>
+      </c>
+      <c r="D27" s="8">
+        <f>'Memory (MB)'!D25/'Datasets Attributes, Notes'!$H25</f>
+        <v>0.96664957429849363</v>
+      </c>
+      <c r="E27" s="8">
+        <f>'Memory (MB)'!E25/'Datasets Attributes, Notes'!$H25</f>
+        <v>3.60665891587001</v>
+      </c>
+      <c r="F27" s="8">
+        <f>'Memory (MB)'!F25/'Datasets Attributes, Notes'!$H25</f>
+        <v>5.2312800491447895</v>
+      </c>
+      <c r="G27" s="8">
+        <f>'Memory (MB)'!G25/'Datasets Attributes, Notes'!$H25</f>
+        <v>5.6861739664617279E-2</v>
+      </c>
+      <c r="H27" s="8">
+        <f>'Memory (MB)'!H25/'Datasets Attributes, Notes'!$H25</f>
+        <v>19.771639191954065</v>
+      </c>
+      <c r="I27" s="8">
+        <f>'Memory (MB)'!I25/'Datasets Attributes, Notes'!$H25</f>
+        <v>4.9469713508217028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -7471,2430 +9794,737 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G2" s="8">
-        <v>6.7000000000000004E-2</v>
+      <c r="B2">
+        <v>41061</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/E2</f>
+        <v>9.0883134130146086</v>
+      </c>
+      <c r="D2">
+        <v>494</v>
+      </c>
+      <c r="E2">
+        <v>4518</v>
+      </c>
+      <c r="F2">
+        <v>347</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
       </c>
       <c r="H2" s="8">
-        <v>1.07</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f>(_xlfn.CEILING.MATH(LOG(D2, 2)))*(B2)*0.000000125</f>
+        <v>4.6193624999999995E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="C3" s="8">
-        <v>8.83</v>
-      </c>
-      <c r="D3" s="8">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.77</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.12</v>
+      <c r="B3">
+        <v>63426</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C25" si="0">B3/E3</f>
+        <v>93.548672566371678</v>
+      </c>
+      <c r="D3">
+        <v>266</v>
+      </c>
+      <c r="E3">
+        <v>678</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
       </c>
       <c r="H3" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H3:H25" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2)))*(B3)*0.000000125</f>
+        <v>7.1354249999999994E-2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
-        <v>2E-3</v>
-      </c>
-      <c r="C4" s="8">
-        <v>5.53</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.17</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>2E-3</v>
+      <c r="B4">
+        <v>54877</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>11.819297867757916</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>4643</v>
+      </c>
+      <c r="F4">
+        <v>357</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
       </c>
       <c r="H4" s="8">
-        <v>0.43</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.4298124999999999E-2</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.93</v>
-      </c>
-      <c r="C5" s="8">
-        <v>11.9</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.26</v>
+      <c r="B5">
+        <v>31835</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>6.9493560358000437</v>
+      </c>
+      <c r="D5">
+        <v>2895</v>
+      </c>
+      <c r="E5">
+        <v>4581</v>
+      </c>
+      <c r="F5">
+        <v>352</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5" s="8">
-        <v>3.19</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>4.7752499999999996E-2</v>
+      </c>
+      <c r="M5" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="C6" s="8">
-        <v>87.4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.21</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="8">
-        <v>8.0000000000000002E-3</v>
+      <c r="B6">
+        <v>41787</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>4643</v>
+      </c>
+      <c r="F6">
+        <v>357</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
       </c>
       <c r="H6" s="8">
-        <v>1.68</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>3.6563624999999995E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="C7" s="8">
-        <v>155.87</v>
-      </c>
-      <c r="D7" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="E7" s="8">
-        <v>106.14</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2.25</v>
-      </c>
-      <c r="G7" s="8">
-        <v>26</v>
+      <c r="B7">
+        <v>696757</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>16.674412482649693</v>
+      </c>
+      <c r="D7">
+        <v>18951</v>
+      </c>
+      <c r="E7">
+        <v>41786</v>
+      </c>
+      <c r="F7">
+        <v>3214</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
       </c>
       <c r="H7" s="8">
-        <v>37.6</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5.97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.3064193749999999</v>
+      </c>
+      <c r="M7" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="C8" s="8">
-        <v>25.28</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1.36</v>
-      </c>
-      <c r="E8" s="8">
-        <v>1.85</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.32</v>
+      <c r="B8">
+        <v>56404</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>12.148180055998276</v>
+      </c>
+      <c r="D8">
+        <v>2156</v>
+      </c>
+      <c r="E8">
+        <v>4643</v>
+      </c>
+      <c r="F8">
+        <v>355</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
       </c>
       <c r="H8" s="8">
-        <v>6.52</v>
-      </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>8.4606000000000001E-2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8">
-        <v>1.44E-4</v>
-      </c>
-      <c r="C10" s="8">
-        <v>6.1200960000000002</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8.6183999999999997E-2</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.1739</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.21460000000000001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1.44E-4</v>
+      <c r="B10">
+        <v>58751</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>12.653672194701702</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4643</v>
+      </c>
+      <c r="F10">
+        <v>357</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
       </c>
       <c r="H10" s="8">
-        <v>4.0067999999999999E-2</v>
-      </c>
-      <c r="I10" s="8">
-        <v>8.3239999999999995E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>1.4687749999999999E-2</v>
+      </c>
+      <c r="M10" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="C11" s="8">
-        <v>26.134599999999999</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.107</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.467084</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3.2799999999999999E-3</v>
+      <c r="B11">
+        <v>199069</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>42.87508076674564</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4643</v>
+      </c>
+      <c r="F11">
+        <v>357</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11" s="8">
-        <v>4.0913000000000004</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0.72475000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0.12441812499999999</v>
+      </c>
+      <c r="M11" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8">
-        <v>8.4000000000000003E-4</v>
-      </c>
-      <c r="C12" s="8">
-        <v>26.493300000000001</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.41660000000000003</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8.4000000000000003E-4</v>
+      <c r="B12">
+        <v>200935</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>43.276976093043288</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>4643</v>
+      </c>
+      <c r="F12">
+        <v>357</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
       <c r="H12" s="8">
-        <v>1.94767</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.59789999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0.1004675</v>
+      </c>
+      <c r="M12" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="C13" s="8">
-        <v>26.983000000000001</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.11</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>202912</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>43.70277837604997</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>4643</v>
+      </c>
+      <c r="F13">
+        <v>357</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.10145599999999999</v>
+      </c>
+      <c r="M13" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C14" s="8">
-        <v>3.6720000000000002</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.12</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G14" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="I14" s="8">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>41337</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1696983141082526</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>4508</v>
+      </c>
+      <c r="F14">
+        <v>346</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>2.5835624999999997E-2</v>
+      </c>
+      <c r="M14" s="11">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C15" s="8">
-        <v>78.534999999999997</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.106</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="G15" s="5">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1.8240000000000001</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1.385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>561060</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>120.8399741546414</v>
+      </c>
+      <c r="D15">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>4643</v>
+      </c>
+      <c r="F15">
+        <v>357</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42079499999999997</v>
+      </c>
+      <c r="M15" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C16">
-        <v>14.763</v>
+        <v>116348</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>30.56159705805096</v>
       </c>
       <c r="D16">
-        <v>8.8999999999999996E-2</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>0.32</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="G16" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1.454</v>
-      </c>
-      <c r="I16">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>3807</v>
+      </c>
+      <c r="F16">
+        <v>292</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>7.271749999999999E-2</v>
+      </c>
+      <c r="M16" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>37.884</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0.108</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G17" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H17" s="5">
-        <v>3.21</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.88500000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>279563</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>60.211716562567304</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>4643</v>
+      </c>
+      <c r="F17">
+        <v>357</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.174726875</v>
+      </c>
+      <c r="M17" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C18" s="8">
-        <v>19.535</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0.124</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0.42</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>151783</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>32.690717208701273</v>
+      </c>
+      <c r="D18">
+        <v>43</v>
+      </c>
+      <c r="E18">
+        <v>4643</v>
+      </c>
+      <c r="F18">
+        <v>357</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11383725</v>
+      </c>
+      <c r="M18" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8">
-        <v>1E-3</v>
-      </c>
-      <c r="C19" s="8">
-        <v>15.207000000000001</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.504</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>119453</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>31.401945320715036</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>3804</v>
+      </c>
+      <c r="F19">
+        <v>357</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
+        <v>5.9726499999999995E-2</v>
+      </c>
+      <c r="M19" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="8">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C20" s="8">
-        <v>22.076000000000001</v>
-      </c>
-      <c r="D20" s="8">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.253</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1.476</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.45100000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>169513</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>36.509368942494078</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>4643</v>
+      </c>
+      <c r="F20">
+        <v>357</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.105945625</v>
+      </c>
+      <c r="M20" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="8">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="C21" s="8">
-        <v>6.3929999999999998</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1.792</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.123</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>60824</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>13.100150764591859</v>
+      </c>
+      <c r="D21">
+        <v>2475</v>
+      </c>
+      <c r="E21">
+        <v>4643</v>
+      </c>
+      <c r="F21">
+        <v>357</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>9.1235999999999998E-2</v>
+      </c>
+      <c r="M21" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C22" s="8">
-        <v>20.518000000000001</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.108</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="G22" s="5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H22" s="5">
-        <v>3.8079999999999998</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>157675</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>33.959724316174885</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>4643</v>
+      </c>
+      <c r="F22">
+        <v>357</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
+        <v>9.8546874999999992E-2</v>
+      </c>
+      <c r="M22" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3.831</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.33</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G23" s="5">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>42844</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>9.2276545337066551</v>
+      </c>
+      <c r="D23">
+        <v>392</v>
+      </c>
+      <c r="E23">
+        <v>4643</v>
+      </c>
+      <c r="F23">
+        <v>357</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8199499999999999E-2</v>
+      </c>
+      <c r="M23" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="8">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C24" s="8">
-        <v>26.413</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>199967</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>43.068490200301532</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>4643</v>
+      </c>
+      <c r="F24">
+        <v>357</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12497937499999999</v>
+      </c>
+      <c r="M24" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C25" s="8">
-        <v>26.048999999999999</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="G25" s="5">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H25" s="5">
-        <v>2.4340000000000002</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0.60899999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Memory (MB)'!B2/'Datasets Attributes, Notes'!$H2</f>
-        <v>3.551861619471306</v>
-      </c>
-      <c r="C2" s="8">
-        <f>'Memory (MB)'!C2/'Datasets Attributes, Notes'!$H2</f>
-        <v>99.452125345196549</v>
-      </c>
-      <c r="D2" s="8">
-        <f>'Memory (MB)'!D2/'Datasets Attributes, Notes'!$I2</f>
-        <v>7.8851327952262977</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'Memory (MB)'!E2/'Datasets Attributes, Notes'!$I2</f>
-        <v>13.639148618769813</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H2</f>
-        <v>2.4863031336299142</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H2</f>
-        <v>1.1898736425228875</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'Memory (MB)'!H2/'Datasets Attributes, Notes'!$H2</f>
-        <v>19.002459664171486</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'Memory (MB)'!I2/'Datasets Attributes, Notes'!$H2</f>
-        <v>4.0846408623920016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="8">
-        <f>'Memory (MB)'!B3/'Datasets Attributes, Notes'!$H3</f>
-        <v>3.2063393910245401</v>
-      </c>
-      <c r="C3" s="8">
-        <f>'Memory (MB)'!C3/'Datasets Attributes, Notes'!$H3</f>
-        <v>134.81893725117473</v>
-      </c>
-      <c r="D3" s="8">
-        <f>'Memory (MB)'!D3/'Datasets Attributes, Notes'!$I3</f>
-        <v>2.6979055733049346</v>
-      </c>
-      <c r="E3" s="8">
-        <f>'Memory (MB)'!E3/'Datasets Attributes, Notes'!$I3</f>
-        <v>54.668086616968409</v>
-      </c>
-      <c r="F3" s="8">
-        <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H3</f>
-        <v>3.3590222191685664</v>
-      </c>
-      <c r="G3" s="8">
-        <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H3</f>
-        <v>1.8321939377283087</v>
-      </c>
-      <c r="H3" s="8">
-        <f>'Memory (MB)'!H3/'Datasets Attributes, Notes'!$H3</f>
-        <v>41.224363598886953</v>
-      </c>
-      <c r="I3" s="8">
-        <f>'Memory (MB)'!I3/'Datasets Attributes, Notes'!$H3</f>
-        <v>5.4965818131849264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8">
-        <f>'Memory (MB)'!B4/'Datasets Attributes, Notes'!$H4</f>
-        <v>6.7874262927926018E-2</v>
-      </c>
-      <c r="C4" s="8">
-        <f>'Memory (MB)'!C4/'Datasets Attributes, Notes'!$H4</f>
-        <v>187.67233699571545</v>
-      </c>
-      <c r="D4" s="8">
-        <f>'Memory (MB)'!D4/'Datasets Attributes, Notes'!$I4</f>
-        <v>6.2218074350598851</v>
-      </c>
-      <c r="E4" s="8">
-        <f>'Memory (MB)'!E4/'Datasets Attributes, Notes'!$I4</f>
-        <v>10.577072639601806</v>
-      </c>
-      <c r="F4" s="8">
-        <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H4</f>
-        <v>6.7874262927926026</v>
-      </c>
-      <c r="G4" s="8">
-        <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H4</f>
-        <v>6.7874262927926018E-2</v>
-      </c>
-      <c r="H4" s="8">
-        <f>'Memory (MB)'!H4/'Datasets Attributes, Notes'!$H4</f>
-        <v>14.592966529504094</v>
-      </c>
-      <c r="I4" s="8">
-        <f>'Memory (MB)'!I4/'Datasets Attributes, Notes'!$H4</f>
-        <v>4.4118270903151915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="8">
-        <f>'Memory (MB)'!B5/'Datasets Attributes, Notes'!$H5</f>
-        <v>6.4442533111249123</v>
-      </c>
-      <c r="C5" s="8">
-        <f>'Memory (MB)'!C5/'Datasets Attributes, Notes'!$H5</f>
-        <v>82.4587251638564</v>
-      </c>
-      <c r="D5" s="8">
-        <f>'Memory (MB)'!D5/'Datasets Attributes, Notes'!$I5</f>
-        <v>41.2293625819282</v>
-      </c>
-      <c r="E5" s="8">
-        <f>'Memory (MB)'!E5/'Datasets Attributes, Notes'!$I5</f>
-        <v>47.29250413809411</v>
-      </c>
-      <c r="F5" s="8">
-        <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H5</f>
-        <v>1.8016192052607281</v>
-      </c>
-      <c r="G5" s="8">
-        <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H5</f>
-        <v>1.8016192052607281</v>
-      </c>
-      <c r="H5" s="8">
-        <f>'Memory (MB)'!H5/'Datasets Attributes, Notes'!$H5</f>
-        <v>22.10448178762201</v>
-      </c>
-      <c r="I5" s="8">
-        <f>'Memory (MB)'!I5/'Datasets Attributes, Notes'!$H5</f>
-        <v>3.6032384105214561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="8">
-        <f>'Memory (MB)'!B6/'Datasets Attributes, Notes'!$H6</f>
-        <v>4.4107335200209714E-2</v>
-      </c>
-      <c r="C6" s="8">
-        <f>'Memory (MB)'!C6/'Datasets Attributes, Notes'!$H6</f>
-        <v>175.22641347719679</v>
-      </c>
-      <c r="D6" s="8">
-        <f>'Memory (MB)'!D6/'Datasets Attributes, Notes'!$I6</f>
-        <v>3.6664222385174323</v>
-      </c>
-      <c r="E6" s="8">
-        <f>'Memory (MB)'!E6/'Datasets Attributes, Notes'!$I6</f>
-        <v>6.999533364442371</v>
-      </c>
-      <c r="F6" s="8">
-        <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H6</f>
-        <v>0.30073183091052075</v>
-      </c>
-      <c r="G6" s="8">
-        <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H6</f>
-        <v>1.6039030981894443E-2</v>
-      </c>
-      <c r="H6" s="8">
-        <f>'Memory (MB)'!H6/'Datasets Attributes, Notes'!$H6</f>
-        <v>3.3681965061978327</v>
-      </c>
-      <c r="I6" s="8">
-        <f>'Memory (MB)'!I6/'Datasets Attributes, Notes'!$H6</f>
-        <v>2.7867816331041588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8">
-        <f>'Memory (MB)'!B7/'Datasets Attributes, Notes'!$H7</f>
-        <v>3.9573700653562054</v>
-      </c>
-      <c r="C7" s="8">
-        <f>'Memory (MB)'!C7/'Datasets Attributes, Notes'!$H7</f>
-        <v>74.317502661092973</v>
-      </c>
-      <c r="D7" s="8">
-        <f>'Memory (MB)'!D7/'Datasets Attributes, Notes'!$I7</f>
-        <v>62.900078247999019</v>
-      </c>
-      <c r="E7" s="8">
-        <f>'Memory (MB)'!E7/'Datasets Attributes, Notes'!$I7</f>
-        <v>66.708776031600877</v>
-      </c>
-      <c r="F7" s="8">
-        <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H7</f>
-        <v>1.0727810418134291</v>
-      </c>
-      <c r="G7" s="8">
-        <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H7</f>
-        <v>12.396580927621848</v>
-      </c>
-      <c r="H7" s="8">
-        <f>'Memory (MB)'!H7/'Datasets Attributes, Notes'!$H7</f>
-        <v>17.927363187637749</v>
-      </c>
-      <c r="I7" s="8">
-        <f>'Memory (MB)'!I7/'Datasets Attributes, Notes'!$H7</f>
-        <v>2.8464456976116317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8">
-        <f>'Memory (MB)'!B8/'Datasets Attributes, Notes'!$H8</f>
-        <v>3.147372891639364</v>
-      </c>
-      <c r="C8" s="8">
-        <f>'Memory (MB)'!C8/'Datasets Attributes, Notes'!$H8</f>
-        <v>95.862152651377258</v>
-      </c>
-      <c r="D8" s="8">
-        <f>'Memory (MB)'!D8/'Datasets Attributes, Notes'!$I8</f>
-        <v>10.068704098554846</v>
-      </c>
-      <c r="E8" s="8">
-        <f>'Memory (MB)'!E8/'Datasets Attributes, Notes'!$I8</f>
-        <v>13.696398957592988</v>
-      </c>
-      <c r="F8" s="8">
-        <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H8</f>
-        <v>2.3131294745783277</v>
-      </c>
-      <c r="G8" s="8">
-        <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H8</f>
-        <v>1.2134449702705983</v>
-      </c>
-      <c r="H8" s="8">
-        <f>'Memory (MB)'!H8/'Datasets Attributes, Notes'!$H8</f>
-        <v>24.723941269263438</v>
-      </c>
-      <c r="I8" s="8">
-        <f>'Memory (MB)'!I8/'Datasets Attributes, Notes'!$H8</f>
-        <v>3.7920155320956193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8">
-        <f>'Memory (MB)'!B10/'Datasets Attributes, Notes'!$H10</f>
-        <v>1.0338143441740255E-2</v>
-      </c>
-      <c r="C10" s="8">
-        <f>'Memory (MB)'!C10/'Datasets Attributes, Notes'!$H10</f>
-        <v>439.37798836958871</v>
-      </c>
-      <c r="D10" s="8">
-        <f>'Memory (MB)'!D10/'Datasets Attributes, Notes'!$I10</f>
-        <v>6.1873788498815427</v>
-      </c>
-      <c r="E10" s="8">
-        <f>'Memory (MB)'!E10/'Datasets Attributes, Notes'!$I10</f>
-        <v>12.484744059157155</v>
-      </c>
-      <c r="F10" s="8">
-        <f>'Memory (MB)'!F10/'Datasets Attributes, Notes'!$H10</f>
-        <v>15.406705434704575</v>
-      </c>
-      <c r="G10" s="8">
-        <f>'Memory (MB)'!G10/'Datasets Attributes, Notes'!$H10</f>
-        <v>1.0338143441740255E-2</v>
-      </c>
-      <c r="H10" s="8">
-        <f>'Memory (MB)'!H10/'Datasets Attributes, Notes'!$H10</f>
-        <v>2.8765884126642258</v>
-      </c>
-      <c r="I10" s="8">
-        <f>'Memory (MB)'!I10/'Datasets Attributes, Notes'!$H10</f>
-        <v>5.976021250628186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="8">
-        <f>'Memory (MB)'!B11/'Datasets Attributes, Notes'!$H11</f>
-        <v>2.6255602391721283E-2</v>
-      </c>
-      <c r="C11" s="8">
-        <f>'Memory (MB)'!C11/'Datasets Attributes, Notes'!$H11</f>
-        <v>214.43114570833717</v>
-      </c>
-      <c r="D11" s="8">
-        <f>'Memory (MB)'!D11/'Datasets Attributes, Notes'!$I11</f>
-        <v>1.6760323458578896</v>
-      </c>
-      <c r="E11" s="8">
-        <f>'Memory (MB)'!E11/'Datasets Attributes, Notes'!$I11</f>
-        <v>7.3163354414269772</v>
-      </c>
-      <c r="F11" s="8">
-        <f>'Memory (MB)'!F11/'Datasets Attributes, Notes'!$H11</f>
-        <v>5.2511204783442569</v>
-      </c>
-      <c r="G11" s="8">
-        <f>'Memory (MB)'!G11/'Datasets Attributes, Notes'!$H11</f>
-        <v>2.6911992451514315E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <f>'Memory (MB)'!H11/'Datasets Attributes, Notes'!$H11</f>
-        <v>33.568608145390399</v>
-      </c>
-      <c r="I11" s="8">
-        <f>'Memory (MB)'!I11/'Datasets Attributes, Notes'!$H11</f>
-        <v>5.9464836979374995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="8">
-        <f>'Memory (MB)'!B12/'Datasets Attributes, Notes'!$H12</f>
-        <v>8.6151195347835465E-3</v>
-      </c>
-      <c r="C12" s="8">
-        <f>'Memory (MB)'!C12/'Datasets Attributes, Notes'!$H12</f>
-        <v>271.71779329866774</v>
-      </c>
-      <c r="D12" s="8">
-        <f>'Memory (MB)'!D12/'Datasets Attributes, Notes'!$I12</f>
-        <v>2.1537798836958864</v>
-      </c>
-      <c r="E12" s="8">
-        <f>'Memory (MB)'!E12/'Datasets Attributes, Notes'!$I12</f>
-        <v>8.156951814070057</v>
-      </c>
-      <c r="F12" s="8">
-        <f>'Memory (MB)'!F12/'Datasets Attributes, Notes'!$H12</f>
-        <v>6.6664615447729823</v>
-      </c>
-      <c r="G12" s="8">
-        <f>'Memory (MB)'!G12/'Datasets Attributes, Notes'!$H12</f>
-        <v>8.6151195347835465E-3</v>
-      </c>
-      <c r="H12" s="8">
-        <f>'Memory (MB)'!H12/'Datasets Attributes, Notes'!$H12</f>
-        <v>19.975487933704606</v>
-      </c>
-      <c r="I12" s="8">
-        <f>'Memory (MB)'!I12/'Datasets Attributes, Notes'!$H12</f>
-        <v>6.1321190117227165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8">
-        <f>'Memory (MB)'!B13/'Datasets Attributes, Notes'!$H13</f>
-        <v>1.0017580854399471E-2</v>
-      </c>
-      <c r="C13" s="8">
-        <f>'Memory (MB)'!C13/'Datasets Attributes, Notes'!$H13</f>
-        <v>270.30438419426093</v>
-      </c>
-      <c r="D13" s="8">
-        <f>'Memory (MB)'!D13/'Datasets Attributes, Notes'!$I13</f>
-        <v>2.1537798836958864</v>
-      </c>
-      <c r="E13" s="8">
-        <f>'Memory (MB)'!E13/'Datasets Attributes, Notes'!$I13</f>
-        <v>8.2039433751688762</v>
-      </c>
-      <c r="F13" s="8">
-        <f>'Memory (MB)'!F13/'Datasets Attributes, Notes'!$H13</f>
-        <v>6.5114275553596563</v>
-      </c>
-      <c r="G13" s="8">
-        <f>'Memory (MB)'!G13/'Datasets Attributes, Notes'!$H13</f>
-        <v>1.0017580854399471E-2</v>
-      </c>
-      <c r="H13" s="8">
-        <f>'Memory (MB)'!H13/'Datasets Attributes, Notes'!$H13</f>
-        <v>20.345706715285328</v>
-      </c>
-      <c r="I13" s="8">
-        <f>'Memory (MB)'!I13/'Datasets Attributes, Notes'!$H13</f>
-        <v>6.1407770637468762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="8">
-        <f>'Memory (MB)'!B14/'Datasets Attributes, Notes'!$H14</f>
-        <v>0.25784271594327463</v>
-      </c>
-      <c r="C14" s="8">
-        <f>'Memory (MB)'!C14/'Datasets Attributes, Notes'!$H14</f>
-        <v>157.79974215728407</v>
-      </c>
-      <c r="D14" s="8">
-        <f>'Memory (MB)'!D14/'Datasets Attributes, Notes'!$I14</f>
-        <v>1.8752197523147245</v>
-      </c>
-      <c r="E14" s="8">
-        <f>'Memory (MB)'!E14/'Datasets Attributes, Notes'!$I14</f>
-        <v>4.0317224674766576</v>
-      </c>
-      <c r="F14" s="8">
-        <f>'Memory (MB)'!F14/'Datasets Attributes, Notes'!$H14</f>
-        <v>6.4460678985818651</v>
-      </c>
-      <c r="G14" s="8">
-        <f>'Memory (MB)'!G14/'Datasets Attributes, Notes'!$H14</f>
-        <v>0.17189514396218308</v>
-      </c>
-      <c r="H14" s="8">
-        <f>'Memory (MB)'!H14/'Datasets Attributes, Notes'!$H14</f>
-        <v>11.259131929522992</v>
-      </c>
-      <c r="I14" s="8">
-        <f>'Memory (MB)'!I14/'Datasets Attributes, Notes'!$H14</f>
-        <v>4.2114310270734858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="8">
-        <f>'Memory (MB)'!B15/'Datasets Attributes, Notes'!$H15</f>
-        <v>2.6545186241629968E-2</v>
-      </c>
-      <c r="C15" s="8">
-        <f>'Memory (MB)'!C15/'Datasets Attributes, Notes'!$H15</f>
-        <v>189.52056377149179</v>
-      </c>
-      <c r="D15" s="8">
-        <f>'Memory (MB)'!D15/'Datasets Attributes, Notes'!$I15</f>
-        <v>3.8050111278627328</v>
-      </c>
-      <c r="E15" s="8">
-        <f>'Memory (MB)'!E15/'Datasets Attributes, Notes'!$I15</f>
-        <v>11.738100366142582</v>
-      </c>
-      <c r="F15" s="8">
-        <f>'Memory (MB)'!F15/'Datasets Attributes, Notes'!$H15</f>
-        <v>4.1024378737064495</v>
-      </c>
-      <c r="G15" s="8">
-        <f>'Memory (MB)'!G15/'Datasets Attributes, Notes'!$H15</f>
-        <v>1.447919249543453E-2</v>
-      </c>
-      <c r="H15" s="8">
-        <f>'Memory (MB)'!H15/'Datasets Attributes, Notes'!$H15</f>
-        <v>4.4016745186120971</v>
-      </c>
-      <c r="I15" s="8">
-        <f>'Memory (MB)'!I15/'Datasets Attributes, Notes'!$H15</f>
-        <v>3.3422802676961374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="8">
-        <f>'Memory (MB)'!B16/'Datasets Attributes, Notes'!$H16</f>
-        <v>5.6641178136505245E-2</v>
-      </c>
-      <c r="C16" s="8">
-        <f>'Memory (MB)'!C16/'Datasets Attributes, Notes'!$H16</f>
-        <v>167.23874256584537</v>
-      </c>
-      <c r="D16" s="8">
-        <f>'Memory (MB)'!D16/'Datasets Attributes, Notes'!$I16</f>
-        <v>1.3748358693133544</v>
-      </c>
-      <c r="E16" s="8">
-        <f>'Memory (MB)'!E16/'Datasets Attributes, Notes'!$I16</f>
-        <v>4.9432300919131844</v>
-      </c>
-      <c r="F16" s="8">
-        <f>'Memory (MB)'!F16/'Datasets Attributes, Notes'!$H16</f>
-        <v>4.4180118946474094</v>
-      </c>
-      <c r="G16" s="8">
-        <f>'Memory (MB)'!G16/'Datasets Attributes, Notes'!$H16</f>
-        <v>4.5312942509204195E-2</v>
-      </c>
-      <c r="H16" s="8">
-        <f>'Memory (MB)'!H16/'Datasets Attributes, Notes'!$H16</f>
-        <v>16.471254602095726</v>
-      </c>
-      <c r="I16" s="8">
-        <f>'Memory (MB)'!I16/'Datasets Attributes, Notes'!$H16</f>
-        <v>3.8516001132823567</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="8">
-        <f>'Memory (MB)'!B17/'Datasets Attributes, Notes'!$H17</f>
-        <v>1.7522277019898735E-2</v>
-      </c>
-      <c r="C17" s="8">
-        <f>'Memory (MB)'!C17/'Datasets Attributes, Notes'!$H17</f>
-        <v>221.27131420728122</v>
-      </c>
-      <c r="D17" s="8">
-        <f>'Memory (MB)'!D17/'Datasets Attributes, Notes'!$I17</f>
-        <v>1.6916961995574959</v>
-      </c>
-      <c r="E17" s="8">
-        <f>'Memory (MB)'!E17/'Datasets Attributes, Notes'!$I17</f>
-        <v>5.4040295263642228</v>
-      </c>
-      <c r="F17" s="8">
-        <f>'Memory (MB)'!F17/'Datasets Attributes, Notes'!$H17</f>
-        <v>5.2566831059696204</v>
-      </c>
-      <c r="G17" s="8">
-        <f>'Memory (MB)'!G17/'Datasets Attributes, Notes'!$H17</f>
-        <v>1.7522277019898735E-2</v>
-      </c>
-      <c r="H17" s="8">
-        <f>'Memory (MB)'!H17/'Datasets Attributes, Notes'!$H17</f>
-        <v>18.748836411291645</v>
-      </c>
-      <c r="I17" s="8">
-        <f>'Memory (MB)'!I17/'Datasets Attributes, Notes'!$H17</f>
-        <v>5.1690717208701269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8">
-        <f>'Memory (MB)'!B18/'Datasets Attributes, Notes'!$H18</f>
-        <v>0.10189926331464408</v>
-      </c>
-      <c r="C18" s="8">
-        <f>'Memory (MB)'!C18/'Datasets Attributes, Notes'!$H18</f>
-        <v>180.96382807741566</v>
-      </c>
-      <c r="D18" s="8">
-        <f>'Memory (MB)'!D18/'Datasets Attributes, Notes'!$I18</f>
-        <v>1.6185982156259995</v>
-      </c>
-      <c r="E18" s="8">
-        <f>'Memory (MB)'!E18/'Datasets Attributes, Notes'!$I18</f>
-        <v>5.482348794862256</v>
-      </c>
-      <c r="F18" s="8">
-        <f>'Memory (MB)'!F18/'Datasets Attributes, Notes'!$H18</f>
-        <v>4.6317846961201861</v>
-      </c>
-      <c r="G18" s="8">
-        <f>'Memory (MB)'!G18/'Datasets Attributes, Notes'!$H18</f>
-        <v>7.4108555137922971E-2</v>
-      </c>
-      <c r="H18" s="8">
-        <f>'Memory (MB)'!H18/'Datasets Attributes, Notes'!$H18</f>
-        <v>14.265896864050172</v>
-      </c>
-      <c r="I18" s="8">
-        <f>'Memory (MB)'!I18/'Datasets Attributes, Notes'!$H18</f>
-        <v>4.0944976713702443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="8">
-        <f>'Memory (MB)'!B19/'Datasets Attributes, Notes'!$H19</f>
-        <v>1.4358532557972576E-2</v>
-      </c>
-      <c r="C19" s="8">
-        <f>'Memory (MB)'!C19/'Datasets Attributes, Notes'!$H19</f>
-        <v>218.35020460908896</v>
-      </c>
-      <c r="D19" s="8">
-        <f>'Memory (MB)'!D19/'Datasets Attributes, Notes'!$I19</f>
-        <v>1.4880661014626122</v>
-      </c>
-      <c r="E19" s="8">
-        <f>'Memory (MB)'!E19/'Datasets Attributes, Notes'!$I19</f>
-        <v>4.4446184872633294</v>
-      </c>
-      <c r="F19" s="8">
-        <f>'Memory (MB)'!F19/'Datasets Attributes, Notes'!$H19</f>
-        <v>5.8869983487687554</v>
-      </c>
-      <c r="G19" s="8">
-        <f>'Memory (MB)'!G19/'Datasets Attributes, Notes'!$H19</f>
-        <v>1.4358532557972576E-2</v>
-      </c>
-      <c r="H19" s="8">
-        <f>'Memory (MB)'!H19/'Datasets Attributes, Notes'!$H19</f>
-        <v>7.2367004092181784</v>
-      </c>
-      <c r="I19" s="8">
-        <f>'Memory (MB)'!I19/'Datasets Attributes, Notes'!$H19</f>
-        <v>3.4029722162395002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="8">
-        <f>'Memory (MB)'!B20/'Datasets Attributes, Notes'!$H20</f>
-        <v>2.9537552690686444E-2</v>
-      </c>
-      <c r="C20" s="8">
-        <f>'Memory (MB)'!C20/'Datasets Attributes, Notes'!$H20</f>
-        <v>217.35700439986465</v>
-      </c>
-      <c r="D20" s="8">
-        <f>'Memory (MB)'!D20/'Datasets Attributes, Notes'!$I20</f>
-        <v>1.5037299551622187</v>
-      </c>
-      <c r="E20" s="8">
-        <f>'Memory (MB)'!E20/'Datasets Attributes, Notes'!$I20</f>
-        <v>3.9629549860004305</v>
-      </c>
-      <c r="F20" s="8">
-        <f>'Memory (MB)'!F20/'Datasets Attributes, Notes'!$H20</f>
-        <v>5.51367650226147</v>
-      </c>
-      <c r="G20" s="8">
-        <f>'Memory (MB)'!G20/'Datasets Attributes, Notes'!$H20</f>
-        <v>2.9537552690686444E-2</v>
-      </c>
-      <c r="H20" s="8">
-        <f>'Memory (MB)'!H20/'Datasets Attributes, Notes'!$H20</f>
-        <v>14.53247592381773</v>
-      </c>
-      <c r="I20" s="8">
-        <f>'Memory (MB)'!I20/'Datasets Attributes, Notes'!$H20</f>
-        <v>4.4404787544998623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="8">
-        <f>'Memory (MB)'!B21/'Datasets Attributes, Notes'!$H21</f>
-        <v>4.7143848565343296</v>
-      </c>
-      <c r="C21" s="8">
-        <f>'Memory (MB)'!C21/'Datasets Attributes, Notes'!$H21</f>
-        <v>76.495082202598894</v>
-      </c>
-      <c r="D21" s="8">
-        <f>'Memory (MB)'!D21/'Datasets Attributes, Notes'!$I21</f>
-        <v>17.206308181970471</v>
-      </c>
-      <c r="E21" s="8">
-        <f>'Memory (MB)'!E21/'Datasets Attributes, Notes'!$I21</f>
-        <v>21.442075286572379</v>
-      </c>
-      <c r="F21" s="8">
-        <f>'Memory (MB)'!F21/'Datasets Attributes, Notes'!$H21</f>
-        <v>2.6323976356283056</v>
-      </c>
-      <c r="G21" s="8">
-        <f>'Memory (MB)'!G21/'Datasets Attributes, Notes'!$H21</f>
-        <v>1.4717495871921891</v>
-      </c>
-      <c r="H21" s="8">
-        <f>'Memory (MB)'!H21/'Datasets Attributes, Notes'!$H21</f>
-        <v>18.247301792423482</v>
-      </c>
-      <c r="I21" s="8">
-        <f>'Memory (MB)'!I21/'Datasets Attributes, Notes'!$H21</f>
-        <v>3.2067389379472089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="8">
-        <f>'Memory (MB)'!B22/'Datasets Attributes, Notes'!$H22</f>
-        <v>4.1770276532283858E-2</v>
-      </c>
-      <c r="C22" s="8">
-        <f>'Memory (MB)'!C22/'Datasets Attributes, Notes'!$H22</f>
-        <v>214.26063347235004</v>
-      </c>
-      <c r="D22" s="8">
-        <f>'Memory (MB)'!D22/'Datasets Attributes, Notes'!$I22</f>
-        <v>1.6916961995574959</v>
-      </c>
-      <c r="E22" s="8">
-        <f>'Memory (MB)'!E22/'Datasets Attributes, Notes'!$I22</f>
-        <v>7.2680281166173906</v>
-      </c>
-      <c r="F22" s="8">
-        <f>'Memory (MB)'!F22/'Datasets Attributes, Notes'!$H22</f>
-        <v>5.4301359491969015</v>
-      </c>
-      <c r="G22" s="8">
-        <f>'Memory (MB)'!G22/'Datasets Attributes, Notes'!$H22</f>
-        <v>4.1770276532283858E-2</v>
-      </c>
-      <c r="H22" s="8">
-        <f>'Memory (MB)'!H22/'Datasets Attributes, Notes'!$H22</f>
-        <v>39.765303258734228</v>
-      </c>
-      <c r="I22" s="8">
-        <f>'Memory (MB)'!I22/'Datasets Attributes, Notes'!$H22</f>
-        <v>6.4117374477055717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="8">
-        <f>'Memory (MB)'!B23/'Datasets Attributes, Notes'!$H23</f>
-        <v>1.3879914806040157</v>
-      </c>
-      <c r="C23" s="8">
-        <f>'Memory (MB)'!C23/'Datasets Attributes, Notes'!$H23</f>
-        <v>91.679230382654893</v>
-      </c>
-      <c r="D23" s="8">
-        <f>'Memory (MB)'!D23/'Datasets Attributes, Notes'!$I23</f>
-        <v>7.8971929068849169</v>
-      </c>
-      <c r="E23" s="8">
-        <f>'Memory (MB)'!E23/'Datasets Attributes, Notes'!$I23</f>
-        <v>12.94661018977194</v>
-      </c>
-      <c r="F23" s="8">
-        <f>'Memory (MB)'!F23/'Datasets Attributes, Notes'!$H23</f>
-        <v>3.5896331394931438</v>
-      </c>
-      <c r="G23" s="8">
-        <f>'Memory (MB)'!G23/'Datasets Attributes, Notes'!$H23</f>
-        <v>0.64613396510876586</v>
-      </c>
-      <c r="H23" s="8">
-        <f>'Memory (MB)'!H23/'Datasets Attributes, Notes'!$H23</f>
-        <v>14.119223682006366</v>
-      </c>
-      <c r="I23" s="8">
-        <f>'Memory (MB)'!I23/'Datasets Attributes, Notes'!$H23</f>
-        <v>3.4939095891066598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="8">
-        <f>'Memory (MB)'!B24/'Datasets Attributes, Notes'!$H24</f>
-        <v>4.9229254484477403E-2</v>
-      </c>
-      <c r="C24" s="8">
-        <f>'Memory (MB)'!C24/'Datasets Attributes, Notes'!$H24</f>
-        <v>216.71538311641694</v>
-      </c>
-      <c r="D24" s="8">
-        <f>'Memory (MB)'!D24/'Datasets Attributes, Notes'!$I24</f>
-        <v>1.5977130773598573</v>
-      </c>
-      <c r="E24" s="8">
-        <f>'Memory (MB)'!E24/'Datasets Attributes, Notes'!$I24</f>
-        <v>4.2918959136921666</v>
-      </c>
-      <c r="F24" s="8">
-        <f>'Memory (MB)'!F24/'Datasets Attributes, Notes'!$H24</f>
-        <v>5.3331692358183851</v>
-      </c>
-      <c r="G24" s="8">
-        <f>'Memory (MB)'!G24/'Datasets Attributes, Notes'!$H24</f>
-        <v>4.1024378737064507E-2</v>
-      </c>
-      <c r="H24" s="8">
-        <f>'Memory (MB)'!H24/'Datasets Attributes, Notes'!$H24</f>
-        <v>4.55370603981416</v>
-      </c>
-      <c r="I24" s="8">
-        <f>'Memory (MB)'!I24/'Datasets Attributes, Notes'!$H24</f>
-        <v>2.9045260145841665</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="8">
-        <f>'Memory (MB)'!B25/'Datasets Attributes, Notes'!$H25</f>
-        <v>6.723995734465206E-2</v>
-      </c>
-      <c r="C25" s="8">
-        <f>'Memory (MB)'!C25/'Datasets Attributes, Notes'!$H25</f>
-        <v>218.94170610885519</v>
-      </c>
-      <c r="D25" s="8">
-        <f>'Memory (MB)'!D25/'Datasets Attributes, Notes'!$I25</f>
-        <v>1.8639985902531668</v>
-      </c>
-      <c r="E25" s="8">
-        <f>'Memory (MB)'!E25/'Datasets Attributes, Notes'!$I25</f>
-        <v>6.9547510426252614</v>
-      </c>
-      <c r="F25" s="8">
-        <f>'Memory (MB)'!F25/'Datasets Attributes, Notes'!$H25</f>
-        <v>5.4128165662444907</v>
-      </c>
-      <c r="G25" s="8">
-        <f>'Memory (MB)'!G25/'Datasets Attributes, Notes'!$H25</f>
-        <v>5.8834962676570554E-2</v>
-      </c>
-      <c r="H25" s="8">
-        <f>'Memory (MB)'!H25/'Datasets Attributes, Notes'!$H25</f>
-        <v>20.457757022110393</v>
-      </c>
-      <c r="I25" s="8">
-        <f>'Memory (MB)'!I25/'Datasets Attributes, Notes'!$H25</f>
-        <v>5.1186417528616381</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
-  <dimension ref="A1:P36"/>
-  <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>54979</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>494</v>
-      </c>
-      <c r="E2">
-        <v>4518</v>
-      </c>
-      <c r="F2">
-        <v>347</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8">
-        <f>(_xlfn.CEILING.MATH(LOG(D2, 2))*C2)*(E2-F2)*0.000000125</f>
-        <v>5.6308499999999997E-2</v>
-      </c>
-      <c r="I2" s="10">
-        <f>(_xlfn.CEILING.MATH(LOG(D2, 2))*N2)*(E2-F2)*0.000000125</f>
-        <v>4.692375E-2</v>
-      </c>
-      <c r="N2" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>63586</v>
-      </c>
-      <c r="C3">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>678</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H25" si="0">(_xlfn.CEILING.MATH(LOG(D3, 2))*C3)*(E3-F3)*0.000000125</f>
-        <v>6.5495249999999991E-2</v>
-      </c>
-      <c r="I3" s="10">
-        <f t="shared" ref="I3:I25" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2))*N3)*(E3-F3)*0.000000125</f>
-        <v>1.4084999999999999E-2</v>
-      </c>
-      <c r="N3" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>54727</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>4643</v>
-      </c>
-      <c r="F4">
-        <v>357</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="B25">
+        <v>196969</v>
+      </c>
+      <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>2.9466249999999999E-2</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="1"/>
-        <v>1.60725E-2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>98575</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>5243</v>
-      </c>
-      <c r="E5">
-        <v>4581</v>
-      </c>
-      <c r="F5">
-        <v>352</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.144314625</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1232749999999999E-2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>620521</v>
-      </c>
-      <c r="C6">
-        <v>133</v>
-      </c>
-      <c r="D6">
-        <v>75</v>
-      </c>
-      <c r="E6">
-        <v>4643</v>
-      </c>
-      <c r="F6">
-        <v>357</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49878324999999996</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="1"/>
-        <v>3.0001999999999997E-2</v>
-      </c>
-      <c r="N6" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>1230568</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>22042</v>
-      </c>
-      <c r="E7">
-        <v>41786</v>
-      </c>
-      <c r="F7">
-        <v>3214</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
-        <v>2.0973525</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="1"/>
-        <v>1.5910949999999999</v>
-      </c>
-      <c r="N7" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>190412</v>
-      </c>
-      <c r="C8">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>2591</v>
-      </c>
-      <c r="E8">
-        <v>4643</v>
-      </c>
-      <c r="F8">
-        <v>355</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.263712</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="1"/>
-        <v>0.135072</v>
-      </c>
-      <c r="N8" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="H9" s="8"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <f>E10*C10</f>
-        <v>60000</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5000</v>
-      </c>
-      <c r="F10">
-        <v>357</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.3928999999999999E-2</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="1"/>
-        <v>1.3928999999999999E-2</v>
-      </c>
-      <c r="N10" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:B25" si="2">E11*C11</f>
-        <v>210000</v>
-      </c>
-      <c r="C11">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
-      </c>
-      <c r="F11">
-        <v>357</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12187874999999999</v>
-      </c>
-      <c r="I11" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N11" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
-        <v>210000</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>5000</v>
-      </c>
-      <c r="F12">
-        <v>357</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
-        <v>9.7502999999999992E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="1"/>
-        <v>5.1073E-2</v>
-      </c>
-      <c r="N12" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="2"/>
-        <v>215000</v>
-      </c>
-      <c r="C13">
-        <v>43</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>5000</v>
-      </c>
-      <c r="F13">
-        <v>357</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
-        <v>9.9824499999999997E-2</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="1"/>
-        <v>5.1073E-2</v>
-      </c>
-      <c r="N13" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
-      </c>
-      <c r="F14">
-        <v>346</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>2.3269999999999999E-2</v>
-      </c>
-      <c r="I14" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3992499999999994E-2</v>
-      </c>
-      <c r="N14" s="11">
-        <v>22</v>
-      </c>
-      <c r="P14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="2"/>
-        <v>595000</v>
-      </c>
-      <c r="C15">
-        <v>119</v>
-      </c>
-      <c r="D15">
-        <v>48</v>
-      </c>
-      <c r="E15">
-        <v>5000</v>
-      </c>
-      <c r="F15">
-        <v>357</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.41438775</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="1"/>
-        <v>2.7857999999999997E-2</v>
-      </c>
-      <c r="N15" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-      <c r="F16">
-        <v>292</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>8.8274999999999992E-2</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="1"/>
-        <v>6.4735000000000001E-2</v>
-      </c>
-      <c r="N16" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
-        <v>295000</v>
-      </c>
-      <c r="C17">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>5000</v>
-      </c>
-      <c r="F17">
-        <v>357</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17121062500000001</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N17" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="2"/>
-        <v>155000</v>
-      </c>
-      <c r="C18">
-        <v>31</v>
-      </c>
-      <c r="D18">
-        <v>43</v>
-      </c>
-      <c r="E18">
-        <v>5000</v>
-      </c>
-      <c r="F18">
-        <v>357</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.10794975</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="1"/>
-        <v>7.6609499999999997E-2</v>
-      </c>
-      <c r="N18" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>5000</v>
-      </c>
-      <c r="F19">
-        <v>357</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>6.9644999999999999E-2</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="1"/>
-        <v>5.1073E-2</v>
-      </c>
-      <c r="N19" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
-        <v>175000</v>
-      </c>
-      <c r="C20">
-        <v>35</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>5000</v>
-      </c>
-      <c r="F20">
-        <v>357</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.10156562499999999</v>
-      </c>
-      <c r="I20" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N20" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>2546</v>
-      </c>
-      <c r="E21">
-        <v>5000</v>
-      </c>
-      <c r="F21">
-        <v>357</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>8.3573999999999996E-2</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="1"/>
-        <v>8.3573999999999996E-2</v>
-      </c>
-      <c r="N21" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="2"/>
-        <v>165000</v>
-      </c>
-      <c r="C22">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>5000</v>
-      </c>
-      <c r="F22">
-        <v>357</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>9.5761874999999996E-2</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N22" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="C23">
-        <v>8</v>
-      </c>
-      <c r="D23">
-        <v>400</v>
-      </c>
-      <c r="E23">
-        <v>5000</v>
-      </c>
-      <c r="F23">
-        <v>357</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1786999999999998E-2</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1786999999999998E-2</v>
-      </c>
-      <c r="N23" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="2"/>
-        <v>210000</v>
-      </c>
-      <c r="C24">
-        <v>42</v>
-      </c>
-      <c r="D24">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>5000</v>
-      </c>
-      <c r="F24">
-        <v>357</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12187874999999999</v>
-      </c>
-      <c r="I24" s="10">
-        <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N24" s="11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="2"/>
-        <v>205000</v>
-      </c>
-      <c r="C25">
-        <v>41</v>
+        <v>42.422786991169502</v>
       </c>
       <c r="D25">
         <v>32</v>
       </c>
       <c r="E25">
-        <v>5000</v>
+        <v>4643</v>
       </c>
       <c r="F25">
         <v>357</v>
@@ -9903,37 +10533,33 @@
         <v>4</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.118976875</v>
-      </c>
-      <c r="I25" s="10">
         <f t="shared" si="1"/>
-        <v>6.3841250000000002E-2</v>
-      </c>
-      <c r="N25" s="11">
+        <v>0.123105625</v>
+      </c>
+      <c r="M25" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K27" s="8"/>
-    </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K33" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K34" t="s">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K35" t="s">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K36" t="s">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9944,12 +10570,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C8283-F952-754A-A544-78499AC1539F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="V50" sqref="V50"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28221655-8406-7640-8DA9-10847F51E9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75238FB8-B1DC-394E-87A6-8B02CF082717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20180" activeTab="7" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51180" yWindow="460" windowWidth="38400" windowHeight="20180" activeTab="5" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -3178,25 +3178,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.0307212304728202</c:v>
+                  <c:v>1.5771206534022488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0832080780051645</c:v>
+                  <c:v>1.3724822201045275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8312225522532213</c:v>
+                  <c:v>1.2554092295724062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5129574367834144</c:v>
+                  <c:v>1.9225867699045598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1024378737064504</c:v>
+                  <c:v>1.3335563156146075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.722264720698895</c:v>
+                  <c:v>1.5370532526017042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3638985414746001</c:v>
+                  <c:v>1.5882248490024917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8124,7 +8124,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8175,7 +8175,8 @@
         <v>0.64</v>
       </c>
       <c r="F2" s="5">
-        <v>0.14000000000000001</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B2*LOG('Datasets Attributes, Notes'!D2,2) + 64 * 'Datasets Attributes, Notes'!D2 + 64)*0.000000125</f>
+        <v>7.2852920043018451E-2</v>
       </c>
       <c r="G2" s="8">
         <v>6.7000000000000004E-2</v>
@@ -8204,7 +8205,8 @@
         <v>0.77</v>
       </c>
       <c r="F3" s="5">
-        <v>0.22</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B3*LOG('Datasets Attributes, Notes'!D3,2) + 64 * 'Datasets Attributes, Notes'!D3 + 64)*0.000000125</f>
+        <v>9.7932439453893474E-2</v>
       </c>
       <c r="G3" s="8">
         <v>0.12</v>
@@ -8233,7 +8235,8 @@
         <v>0.17</v>
       </c>
       <c r="F4" s="5">
-        <v>0.2</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B4*LOG('Datasets Attributes, Notes'!D4,2) + 64 * 'Datasets Attributes, Notes'!D4 + 64)*0.000000125</f>
+        <v>4.305818268202808E-2</v>
       </c>
       <c r="G4" s="10">
         <v>2E-3</v>
@@ -8262,7 +8265,8 @@
         <v>1.95</v>
       </c>
       <c r="F5" s="5">
-        <v>0.12</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B5*LOG('Datasets Attributes, Notes'!D5,2) + 64 * 'Datasets Attributes, Notes'!D5 + 64)*0.000000125</f>
+        <v>9.1808324729867483E-2</v>
       </c>
       <c r="G5" s="8">
         <v>0.26</v>
@@ -8291,7 +8295,8 @@
         <v>0.21</v>
       </c>
       <c r="F6" s="5">
-        <v>0.15</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B6*LOG('Datasets Attributes, Notes'!D6,2) + 64 * 'Datasets Attributes, Notes'!D6 + 64)*0.000000125</f>
+        <v>4.8759653040514148E-2</v>
       </c>
       <c r="G6" s="8">
         <v>8.0000000000000002E-3</v>
@@ -8320,7 +8325,8 @@
         <v>106.14</v>
       </c>
       <c r="F7" s="5">
-        <v>2.25</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B7*LOG('Datasets Attributes, Notes'!D7,2) + 64 * 'Datasets Attributes, Notes'!D7 + 64)*0.000000125</f>
+        <v>2.0080361496056356</v>
       </c>
       <c r="G7" s="8">
         <v>26</v>
@@ -8349,7 +8355,8 @@
         <v>1.85</v>
       </c>
       <c r="F8" s="5">
-        <v>0.2</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B8*LOG('Datasets Attributes, Notes'!D8,2) + 64 * 'Datasets Attributes, Notes'!D8 + 64)*0.000000125</f>
+        <v>0.13437335157470481</v>
       </c>
       <c r="G8" s="8">
         <v>0.32</v>
@@ -8360,6 +8367,9 @@
       <c r="I8" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -8378,7 +8388,8 @@
         <v>0.1739</v>
       </c>
       <c r="F10" s="5">
-        <v>0.21460000000000001</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B10*LOG('Datasets Attributes, Notes'!D10,2) + 64 * 'Datasets Attributes, Notes'!D10 + 64)*0.000000125</f>
+        <v>2.2071624999999997E-2</v>
       </c>
       <c r="G10" s="8">
         <v>1.44E-4</v>
@@ -8407,7 +8418,8 @@
         <v>0.467084</v>
       </c>
       <c r="F11" s="5">
-        <v>0.64</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B11*LOG('Datasets Attributes, Notes'!D11,2) + 64 * 'Datasets Attributes, Notes'!D11 + 64)*0.000000125</f>
+        <v>0.16148585698521234</v>
       </c>
       <c r="G11" s="8">
         <v>3.2799999999999999E-3</v>
@@ -8436,7 +8448,8 @@
         <v>0.41660000000000003</v>
       </c>
       <c r="F12" s="5">
-        <v>0.65</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B12*LOG('Datasets Attributes, Notes'!D12,2) + 64 * 'Datasets Attributes, Notes'!D12 + 64)*0.000000125</f>
+        <v>0.12524267907741105</v>
       </c>
       <c r="G12" s="8">
         <v>8.4000000000000003E-4</v>
@@ -8465,7 +8478,8 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="F13" s="5">
-        <v>0.65</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B13*LOG('Datasets Attributes, Notes'!D13,2) + 64 * 'Datasets Attributes, Notes'!D13 + 64)*0.000000125</f>
+        <v>0.1264740762980846</v>
       </c>
       <c r="G13" s="5">
         <v>1E-3</v>
@@ -8494,7 +8508,8 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="F14" s="5">
-        <v>0.15</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B14*LOG('Datasets Attributes, Notes'!D14,2) + 64 * 'Datasets Attributes, Notes'!D14 + 64)*0.000000125</f>
+        <v>3.8654427415461677E-2</v>
       </c>
       <c r="G14" s="5">
         <v>4.0000000000000001E-3</v>
@@ -8523,7 +8538,8 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="F15" s="5">
-        <v>1.7</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B15*LOG('Datasets Attributes, Notes'!D15,2) + 64 * 'Datasets Attributes, Notes'!D15 + 64)*0.000000125</f>
+        <v>0.58792307387273979</v>
       </c>
       <c r="G15" s="5">
         <v>6.0000000000000001E-3</v>
@@ -8552,7 +8568,8 @@
         <v>0.32</v>
       </c>
       <c r="F16" s="5">
-        <v>0.39</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B16*LOG('Datasets Attributes, Notes'!D16,2) + 64 * 'Datasets Attributes, Notes'!D16 + 64)*0.000000125</f>
+        <v>0.1002221031938572</v>
       </c>
       <c r="G16" s="9">
         <v>4.0000000000000001E-3</v>
@@ -8581,7 +8598,8 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="F17" s="5">
-        <v>0.9</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B17*LOG('Datasets Attributes, Notes'!D17,2) + 64 * 'Datasets Attributes, Notes'!D17 + 64)*0.000000125</f>
+        <v>0.22671509699831169</v>
       </c>
       <c r="G17" s="5">
         <v>3.0000000000000001E-3</v>
@@ -8610,7 +8628,8 @@
         <v>0.42</v>
       </c>
       <c r="F18" s="5">
-        <v>0.5</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B18*LOG('Datasets Attributes, Notes'!D18,2) + 64 * 'Datasets Attributes, Notes'!D18 + 64)*0.000000125</f>
+        <v>0.15477976436180282</v>
       </c>
       <c r="G18" s="5">
         <v>8.0000000000000002E-3</v>
@@ -8639,7 +8658,8 @@
         <v>0.22700000000000001</v>
       </c>
       <c r="F19" s="5">
-        <v>0.41</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B19*LOG('Datasets Attributes, Notes'!D19,2) + 64 * 'Datasets Attributes, Notes'!D19 + 64)*0.000000125</f>
+        <v>7.75784034639527E-2</v>
       </c>
       <c r="G19" s="5">
         <v>1E-3</v>
@@ -8667,8 +8687,9 @@
       <c r="E20" s="8">
         <v>0.253</v>
       </c>
-      <c r="F20" s="4">
-        <v>0.56000000000000005</v>
+      <c r="F20" s="5">
+        <f>(1.5*'Datasets Attributes, Notes'!B20*LOG('Datasets Attributes, Notes'!D20,2) + 64 * 'Datasets Attributes, Notes'!D20 + 64)*0.000000125</f>
+        <v>0.13753481196537029</v>
       </c>
       <c r="G20" s="5">
         <v>3.0000000000000001E-3</v>
@@ -8697,7 +8718,8 @@
         <v>1.792</v>
       </c>
       <c r="F21" s="5">
-        <v>0.22</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B21*LOG('Datasets Attributes, Notes'!D21,2) + 64 * 'Datasets Attributes, Notes'!D21 + 64)*0.000000125</f>
+        <v>0.14837335548998376</v>
       </c>
       <c r="G21" s="5">
         <v>0.123</v>
@@ -8726,7 +8748,8 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="F22" s="5">
-        <v>0.52</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B22*LOG('Datasets Attributes, Notes'!D22,2) + 64 * 'Datasets Attributes, Notes'!D22 + 64)*0.000000125</f>
+        <v>0.13003074680687018</v>
       </c>
       <c r="G22" s="5">
         <v>4.0000000000000001E-3</v>
@@ -8755,7 +8778,8 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="F23" s="5">
-        <v>0.15</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B23*LOG('Datasets Attributes, Notes'!D23,2) + 64 * 'Datasets Attributes, Notes'!D23 + 64)*0.000000125</f>
+        <v>7.2348117855238495E-2</v>
       </c>
       <c r="G23" s="5">
         <v>2.7E-2</v>
@@ -8784,7 +8808,8 @@
         <v>0.27400000000000002</v>
       </c>
       <c r="F24" s="5">
-        <v>0.65</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B24*LOG('Datasets Attributes, Notes'!D24,2) + 64 * 'Datasets Attributes, Notes'!D24 + 64)*0.000000125</f>
+        <v>0.17850286046471045</v>
       </c>
       <c r="G24" s="5">
         <v>5.0000000000000001E-3</v>
@@ -8813,7 +8838,8 @@
         <v>0.44400000000000001</v>
       </c>
       <c r="F25" s="5">
-        <v>0.64400000000000002</v>
+        <f>(1.5*'Datasets Attributes, Notes'!B25*LOG('Datasets Attributes, Notes'!D25,2) + 64 * 'Datasets Attributes, Notes'!D25 + 64)*0.000000125</f>
+        <v>0.18492243749999998</v>
       </c>
       <c r="G25" s="5">
         <v>7.0000000000000001E-3</v>
@@ -8835,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8894,7 +8920,7 @@
       </c>
       <c r="F2" s="8">
         <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H2</f>
-        <v>3.0307212304728202</v>
+        <v>1.5771206534022488</v>
       </c>
       <c r="G2" s="8">
         <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H2</f>
@@ -8931,7 +8957,7 @@
       </c>
       <c r="F3" s="8">
         <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H3</f>
-        <v>3.0832080780051645</v>
+        <v>1.3724822201045275</v>
       </c>
       <c r="G3" s="8">
         <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H3</f>
@@ -8968,7 +8994,7 @@
       </c>
       <c r="F4" s="8">
         <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H4</f>
-        <v>5.8312225522532213</v>
+        <v>1.2554092295724062</v>
       </c>
       <c r="G4" s="8">
         <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H4</f>
@@ -9005,7 +9031,7 @@
       </c>
       <c r="F5" s="8">
         <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H5</f>
-        <v>2.5129574367834144</v>
+        <v>1.9225867699045598</v>
       </c>
       <c r="G5" s="8">
         <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H5</f>
@@ -9042,7 +9068,7 @@
       </c>
       <c r="F6" s="8">
         <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H6</f>
-        <v>4.1024378737064504</v>
+        <v>1.3335563156146075</v>
       </c>
       <c r="G6" s="8">
         <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H6</f>
@@ -9079,7 +9105,7 @@
       </c>
       <c r="F7" s="8">
         <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H7</f>
-        <v>1.722264720698895</v>
+        <v>1.5370532526017042</v>
       </c>
       <c r="G7" s="8">
         <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H7</f>
@@ -9116,7 +9142,7 @@
       </c>
       <c r="F8" s="8">
         <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H8</f>
-        <v>2.3638985414746001</v>
+        <v>1.5882248490024917</v>
       </c>
       <c r="G8" s="8">
         <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H8</f>
@@ -9164,7 +9190,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>1.3617465152194754</v>
+        <v>0.22226314180162302</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
@@ -9205,7 +9231,7 @@
       </c>
       <c r="F12" s="8">
         <f>'Memory (MB)'!F10/'Datasets Attributes, Notes'!$H10</f>
-        <v>14.610815135061532</v>
+        <v>1.502723357900291</v>
       </c>
       <c r="G12" s="8">
         <f>'Memory (MB)'!G10/'Datasets Attributes, Notes'!$H10</f>
@@ -9242,7 +9268,7 @@
       </c>
       <c r="F13" s="8">
         <f>'Memory (MB)'!F11/'Datasets Attributes, Notes'!$H11</f>
-        <v>5.1439450642741971</v>
+        <v>1.2979287140455811</v>
       </c>
       <c r="G13" s="8">
         <f>'Memory (MB)'!G11/'Datasets Attributes, Notes'!$H11</f>
@@ -9279,7 +9305,7 @@
       </c>
       <c r="F14" s="8">
         <f>'Memory (MB)'!F12/'Datasets Attributes, Notes'!$H12</f>
-        <v>6.4697539005150917</v>
+        <v>1.2465989407262155</v>
       </c>
       <c r="G14" s="8">
         <f>'Memory (MB)'!G12/'Datasets Attributes, Notes'!$H12</f>
@@ -9316,7 +9342,7 @@
       </c>
       <c r="F15" s="8">
         <f>'Memory (MB)'!F13/'Datasets Attributes, Notes'!$H13</f>
-        <v>6.4067181832518543</v>
+        <v>1.2465904066598783</v>
       </c>
       <c r="G15" s="8">
         <f>'Memory (MB)'!G13/'Datasets Attributes, Notes'!$H13</f>
@@ -9353,7 +9379,7 @@
       </c>
       <c r="F16" s="8">
         <f>'Memory (MB)'!F14/'Datasets Attributes, Notes'!$H14</f>
-        <v>5.8059365701429719</v>
+        <v>1.4961676915291069</v>
       </c>
       <c r="G16" s="8">
         <f>'Memory (MB)'!G14/'Datasets Attributes, Notes'!$H14</f>
@@ -9390,7 +9416,7 @@
       </c>
       <c r="F17" s="8">
         <f>'Memory (MB)'!F15/'Datasets Attributes, Notes'!$H15</f>
-        <v>4.0399719578417042</v>
+        <v>1.3971721951846856</v>
       </c>
       <c r="G17" s="8">
         <f>'Memory (MB)'!G15/'Datasets Attributes, Notes'!$H15</f>
@@ -9427,7 +9453,7 @@
       </c>
       <c r="F18" s="8">
         <f>'Memory (MB)'!F16/'Datasets Attributes, Notes'!$H16</f>
-        <v>5.3632206827792492</v>
+        <v>1.3782391197972594</v>
       </c>
       <c r="G18" s="8">
         <f>'Memory (MB)'!G16/'Datasets Attributes, Notes'!$H16</f>
@@ -9464,7 +9490,7 @@
       </c>
       <c r="F19" s="8">
         <f>'Memory (MB)'!F17/'Datasets Attributes, Notes'!$H17</f>
-        <v>5.1508962201721973</v>
+        <v>1.2975399290939742</v>
       </c>
       <c r="G19" s="8">
         <f>'Memory (MB)'!G17/'Datasets Attributes, Notes'!$H17</f>
@@ -9501,7 +9527,7 @@
       </c>
       <c r="F20" s="8">
         <f>'Memory (MB)'!F18/'Datasets Attributes, Notes'!$H18</f>
-        <v>4.3922354062488331</v>
+        <v>1.3596583224015235</v>
       </c>
       <c r="G20" s="8">
         <f>'Memory (MB)'!G18/'Datasets Attributes, Notes'!$H18</f>
@@ -9538,7 +9564,7 @@
       </c>
       <c r="F21" s="8">
         <f>'Memory (MB)'!F19/'Datasets Attributes, Notes'!$H19</f>
-        <v>6.8646245803788943</v>
+        <v>1.2988941837200021</v>
       </c>
       <c r="G21" s="8">
         <f>'Memory (MB)'!G19/'Datasets Attributes, Notes'!$H19</f>
@@ -9575,7 +9601,7 @@
       </c>
       <c r="F22" s="8">
         <f>'Memory (MB)'!F20/'Datasets Attributes, Notes'!$H20</f>
-        <v>5.2857302979712477</v>
+        <v>1.2981641475556003</v>
       </c>
       <c r="G22" s="8">
         <f>'Memory (MB)'!G20/'Datasets Attributes, Notes'!$H20</f>
@@ -9612,7 +9638,7 @@
       </c>
       <c r="F23" s="8">
         <f>'Memory (MB)'!F21/'Datasets Attributes, Notes'!$H21</f>
-        <v>2.4113288614143542</v>
+        <v>1.6262588834449534</v>
       </c>
       <c r="G23" s="8">
         <f>'Memory (MB)'!G21/'Datasets Attributes, Notes'!$H21</f>
@@ -9649,7 +9675,7 @@
       </c>
       <c r="F24" s="8">
         <f>'Memory (MB)'!F22/'Datasets Attributes, Notes'!$H22</f>
-        <v>5.2766767084192177</v>
+        <v>1.3194811789503238</v>
       </c>
       <c r="G24" s="8">
         <f>'Memory (MB)'!G22/'Datasets Attributes, Notes'!$H22</f>
@@ -9686,7 +9712,7 @@
       </c>
       <c r="F25" s="8">
         <f>'Memory (MB)'!F23/'Datasets Attributes, Notes'!$H23</f>
-        <v>3.1120654778576542</v>
+        <v>1.5010138664350978</v>
       </c>
       <c r="G25" s="8">
         <f>'Memory (MB)'!G23/'Datasets Attributes, Notes'!$H23</f>
@@ -9723,7 +9749,7 @@
       </c>
       <c r="F26" s="8">
         <f>'Memory (MB)'!F24/'Datasets Attributes, Notes'!$H24</f>
-        <v>5.2008581415933639</v>
+        <v>1.4282585463778361</v>
       </c>
       <c r="G26" s="8">
         <f>'Memory (MB)'!G24/'Datasets Attributes, Notes'!$H24</f>
@@ -9760,7 +9786,7 @@
       </c>
       <c r="F27" s="8">
         <f>'Memory (MB)'!F25/'Datasets Attributes, Notes'!$H25</f>
-        <v>5.2312800491447895</v>
+        <v>1.5021444998959226</v>
       </c>
       <c r="G27" s="8">
         <f>'Memory (MB)'!G25/'Datasets Attributes, Notes'!$H25</f>
@@ -9786,7 +9812,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10574,7 +10600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C8283-F952-754A-A544-78499AC1539F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75238FB8-B1DC-394E-87A6-8B02CF082717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33895433-C293-9544-B3D9-81CE51BA99DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51180" yWindow="460" windowWidth="38400" windowHeight="20180" activeTab="5" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="1" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
   <si>
     <t>DG</t>
   </si>
@@ -183,6 +183,24 @@
   <si>
     <t>St. Deviation</t>
   </si>
+  <si>
+    <t>#ranks</t>
+  </si>
+  <si>
+    <t>#L[]</t>
+  </si>
+  <si>
+    <t>#sdsl::wt::interval_scans</t>
+  </si>
+  <si>
+    <t>% ranks</t>
+  </si>
+  <si>
+    <t>% L[]</t>
+  </si>
+  <si>
+    <t>%s cans</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,6 +283,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2009,25 +2028,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1729.1066282420747</c:v>
+                  <c:v>443.17002881844383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8076.9230769230762</c:v>
+                  <c:v>2324.0384615384614</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330.53221288515408</c:v>
+                  <c:v>61.400560224089645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>965.90909090909099</c:v>
+                  <c:v>290.76704545454544</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>243.69747899159663</c:v>
+                  <c:v>48.011204481792717</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30214.68574984443</c:v>
+                  <c:v>14939.016801493466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3352.1126760563379</c:v>
+                  <c:v>960.95774647887322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7453,10 +7472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D61A1C-C42B-6442-B132-77D4B94522A1}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7464,7 +7483,7 @@
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7493,8 +7512,26 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +7553,7 @@
       </c>
       <c r="F2" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F2/'Datasets Attributes, Notes'!$F2*1000</f>
-        <v>1729.1066282420747</v>
+        <v>443.17002881844383</v>
       </c>
       <c r="G2" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G2/'Datasets Attributes, Notes'!$F2*1000</f>
@@ -7534,8 +7571,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J2/'Datasets Attributes, Notes'!$F2*1000</f>
         <v>1068884.7262247838</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M2" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L2/'Datasets Attributes, Notes'!$F2</f>
+        <v>2408.1543845203787</v>
+      </c>
+      <c r="N2" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M2/'Datasets Attributes, Notes'!$F2</f>
+        <v>278.87813915191435</v>
+      </c>
+      <c r="O2" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N2/'Datasets Attributes, Notes'!$F2</f>
+        <v>49.114244545080282</v>
+      </c>
+      <c r="Q2" s="15">
+        <f>M2/SUM(M2:O2)</f>
+        <v>0.88012617323496689</v>
+      </c>
+      <c r="R2" s="15">
+        <f>N2/SUM(M2:O2)</f>
+        <v>0.10192367689895751</v>
+      </c>
+      <c r="S2" s="15">
+        <f>O2/SUM(M2:O2)</f>
+        <v>1.7950149866075606E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7557,7 +7618,7 @@
       </c>
       <c r="F3" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F3/'Datasets Attributes, Notes'!$F3*1000</f>
-        <v>8076.9230769230762</v>
+        <v>2324.0384615384614</v>
       </c>
       <c r="G3" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G3/'Datasets Attributes, Notes'!$F3*1000</f>
@@ -7575,8 +7636,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J3/'Datasets Attributes, Notes'!$F3*1000</f>
         <v>6730.7692307692305</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L3/'Datasets Attributes, Notes'!$F3</f>
+        <v>13803.506868131868</v>
+      </c>
+      <c r="N3" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M3/'Datasets Attributes, Notes'!$F3</f>
+        <v>2489.348901098901</v>
+      </c>
+      <c r="O3" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N3/'Datasets Attributes, Notes'!$F3</f>
+        <v>358.74862637362639</v>
+      </c>
+      <c r="Q3" s="15">
+        <f t="shared" ref="Q3:Q8" si="0">M3/SUM(M3:O3)</f>
+        <v>0.8289595729151269</v>
+      </c>
+      <c r="R3" s="15">
+        <f t="shared" ref="R3:R8" si="1">N3/SUM(M3:O3)</f>
+        <v>0.14949603905771547</v>
+      </c>
+      <c r="S3" s="15">
+        <f t="shared" ref="S3:S8" si="2">O3/SUM(M3:O3)</f>
+        <v>2.1544388027157732E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7598,7 +7683,7 @@
       </c>
       <c r="F4" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F4/'Datasets Attributes, Notes'!$F4*1000</f>
-        <v>330.53221288515408</v>
+        <v>61.400560224089645</v>
       </c>
       <c r="G4" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G4/'Datasets Attributes, Notes'!$F4*1000</f>
@@ -7616,8 +7701,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J4/'Datasets Attributes, Notes'!$F4*1000</f>
         <v>308.12324929971993</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M4" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L4/'Datasets Attributes, Notes'!$F4</f>
+        <v>332.81452581032414</v>
+      </c>
+      <c r="N4" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M4/'Datasets Attributes, Notes'!$F4</f>
+        <v>522.69027611044419</v>
+      </c>
+      <c r="O4" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N4/'Datasets Attributes, Notes'!$F4</f>
+        <v>2.8877551020408161</v>
+      </c>
+      <c r="Q4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38771832664140932</v>
+      </c>
+      <c r="R4" s="15">
+        <f t="shared" si="1"/>
+        <v>0.60891753060314013</v>
+      </c>
+      <c r="S4" s="15">
+        <f t="shared" si="2"/>
+        <v>3.3641427554503859E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7639,7 +7748,7 @@
       </c>
       <c r="F5" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F5/'Datasets Attributes, Notes'!$F5*1000</f>
-        <v>965.90909090909099</v>
+        <v>290.76704545454544</v>
       </c>
       <c r="G5" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G5/'Datasets Attributes, Notes'!$F5*1000</f>
@@ -7657,8 +7766,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J5/'Datasets Attributes, Notes'!$F5*1000</f>
         <v>75000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L5/'Datasets Attributes, Notes'!$F5</f>
+        <v>854.30864448051943</v>
+      </c>
+      <c r="N5" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M5/'Datasets Attributes, Notes'!$F5</f>
+        <v>949.28814935064941</v>
+      </c>
+      <c r="O5" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N5/'Datasets Attributes, Notes'!$F5</f>
+        <v>3.859375</v>
+      </c>
+      <c r="Q5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.47265801473513847</v>
+      </c>
+      <c r="R5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.52520673293257647</v>
+      </c>
+      <c r="S5" s="15">
+        <f t="shared" si="2"/>
+        <v>2.1352523322851862E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -7680,7 +7813,7 @@
       </c>
       <c r="F6" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F6/'Datasets Attributes, Notes'!$F6*1000</f>
-        <v>243.69747899159663</v>
+        <v>48.011204481792717</v>
       </c>
       <c r="G6" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G6/'Datasets Attributes, Notes'!$F6*1000</f>
@@ -7698,8 +7831,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J6/'Datasets Attributes, Notes'!$F6*1000</f>
         <v>2156.8627450980389</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L6/'Datasets Attributes, Notes'!$F6</f>
+        <v>274.90376150460185</v>
+      </c>
+      <c r="N6" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M6/'Datasets Attributes, Notes'!$F6</f>
+        <v>339.90596238495397</v>
+      </c>
+      <c r="O6" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N6/'Datasets Attributes, Notes'!$F6</f>
+        <v>3.4773909563825529</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.44462152761035778</v>
+      </c>
+      <c r="R6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54975423912828913</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" si="2"/>
+        <v>5.6242332613530713E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -7721,7 +7878,7 @@
       </c>
       <c r="F7" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F7/'Datasets Attributes, Notes'!$F7*1000</f>
-        <v>30214.68574984443</v>
+        <v>14939.016801493466</v>
       </c>
       <c r="G7" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G7/'Datasets Attributes, Notes'!$F7*1000</f>
@@ -7739,8 +7896,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J7/'Datasets Attributes, Notes'!$F7*1000</f>
         <v>619985.37647790916</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M7" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L7/'Datasets Attributes, Notes'!$F7</f>
+        <v>32807.102609120811</v>
+      </c>
+      <c r="N7" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M7/'Datasets Attributes, Notes'!$F7</f>
+        <v>618.10516490354701</v>
+      </c>
+      <c r="O7" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N7/'Datasets Attributes, Notes'!$F7</f>
+        <v>477.65174682193975</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.96767951355101123</v>
+      </c>
+      <c r="R7" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8231652835168213E-2</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="2"/>
+        <v>1.408883361382068E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -7762,7 +7943,7 @@
       </c>
       <c r="F8" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F8/'Datasets Attributes, Notes'!$F8*1000</f>
-        <v>3352.1126760563379</v>
+        <v>960.95774647887322</v>
       </c>
       <c r="G8" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G8/'Datasets Attributes, Notes'!$F8*1000</f>
@@ -7780,8 +7961,32 @@
         <f>'Exec. Time of Test Phase (ms)'!J8/'Datasets Attributes, Notes'!$F8*1000</f>
         <v>51107.042253521133</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!L8/'Datasets Attributes, Notes'!$F8</f>
+        <v>4383.1907444668013</v>
+      </c>
+      <c r="N8" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!M8/'Datasets Attributes, Notes'!$F8</f>
+        <v>1120.2812877263582</v>
+      </c>
+      <c r="O8" s="3">
+        <f>'Exec. Time of Test Phase (ms)'!N8/'Datasets Attributes, Notes'!$F8</f>
+        <v>61.060160965794765</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.78770156992810703</v>
+      </c>
+      <c r="R8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.20132533137352207</v>
+      </c>
+      <c r="S8" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0973098698370768E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -7790,35 +7995,35 @@
         <v>3.6281778267268345</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:J11" si="0">STDEV(C2:C8)</f>
+        <f t="shared" ref="C11:J11" si="3">STDEV(C2:C8)</f>
         <v>0.42383683374854919</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>634.52898411372792</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>676.36590599325609</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>10842.233866398023</v>
+        <f t="shared" si="3"/>
+        <v>5444.3867484700904</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7537068164296357</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3512921176947099</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>45.256040268102595</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>420279.86892522278</v>
       </c>
     </row>
@@ -7829,18 +8034,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA0485-4631-4D4D-BD6C-8B9119B36FE5}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7868,8 +8075,17 @@
       <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -7885,8 +8101,8 @@
       <c r="E2" s="8">
         <v>96.6</v>
       </c>
-      <c r="F2" s="4">
-        <v>600</v>
+      <c r="F2" s="3">
+        <v>153.78</v>
       </c>
       <c r="G2" s="8">
         <v>0.35</v>
@@ -7900,8 +8116,17 @@
       <c r="J2" s="4">
         <v>370903</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="3">
+        <v>835629.57142857148</v>
+      </c>
+      <c r="M2" s="3">
+        <v>96770.71428571429</v>
+      </c>
+      <c r="N2" s="3">
+        <v>17042.642857142859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -7918,7 +8143,7 @@
         <v>41.21</v>
       </c>
       <c r="F3" s="4">
-        <v>420</v>
+        <v>120.85</v>
       </c>
       <c r="G3" s="8">
         <v>0.28000000000000003</v>
@@ -7932,8 +8157,17 @@
       <c r="J3" s="4">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>717782.35714285716</v>
+      </c>
+      <c r="M3" s="3">
+        <v>129446.14285714286</v>
+      </c>
+      <c r="N3" s="3">
+        <v>18654.928571428572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -7950,7 +8184,7 @@
         <v>24.14</v>
       </c>
       <c r="F4" s="4">
-        <v>118</v>
+        <v>21.92</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -7964,8 +8198,17 @@
       <c r="J4" s="4">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>118814.78571428571</v>
+      </c>
+      <c r="M4" s="3">
+        <v>186600.42857142858</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1030.9285714285713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -7982,7 +8225,7 @@
         <v>7.07</v>
       </c>
       <c r="F5" s="4">
-        <v>340</v>
+        <v>102.35</v>
       </c>
       <c r="G5" s="8">
         <v>1.07</v>
@@ -7996,8 +8239,17 @@
       <c r="J5" s="4">
         <v>26400</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>300716.64285714284</v>
+      </c>
+      <c r="M5" s="3">
+        <v>334149.42857142858</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1358.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8014,7 +8266,7 @@
         <v>7.35</v>
       </c>
       <c r="F6" s="4">
-        <v>87</v>
+        <v>17.14</v>
       </c>
       <c r="G6" s="8">
         <v>0.14000000000000001</v>
@@ -8028,8 +8280,17 @@
       <c r="J6" s="4">
         <v>770</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>98140.642857142855</v>
+      </c>
+      <c r="M6" s="3">
+        <v>121346.42857142857</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1241.4285714285713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8045,8 +8306,8 @@
       <c r="E7" s="8">
         <v>5897</v>
       </c>
-      <c r="F7" s="5">
-        <v>97110</v>
+      <c r="F7" s="4">
+        <v>48014</v>
       </c>
       <c r="G7" s="8">
         <v>23.92</v>
@@ -8060,8 +8321,17 @@
       <c r="J7" s="4">
         <v>1992633</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="3">
+        <v>105442027.78571428</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1986590</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1535172.7142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8077,8 +8347,8 @@
       <c r="E8" s="8">
         <v>15</v>
       </c>
-      <c r="F8" s="9">
-        <v>1190</v>
+      <c r="F8" s="4">
+        <v>341.14</v>
       </c>
       <c r="G8" s="8">
         <v>0.78</v>
@@ -8091,6 +8361,15 @@
       </c>
       <c r="J8" s="4">
         <v>18143</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1556032.7142857143</v>
+      </c>
+      <c r="M8" s="3">
+        <v>397699.85714285716</v>
+      </c>
+      <c r="N8" s="3">
+        <v>21676.357142857141</v>
       </c>
     </row>
   </sheetData>
@@ -8121,10 +8400,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9058626D-1839-5446-B7A4-B72B5F5525AF}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8132,7 +8411,7 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8158,7 +8437,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -8188,7 +8467,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8218,7 +8497,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8248,7 +8527,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8278,7 +8557,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8308,7 +8587,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8337,8 +8616,9 @@
       <c r="I7" s="8">
         <v>5.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8368,10 +8648,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -8401,7 +8681,7 @@
         <v>8.3239999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -8431,7 +8711,7 @@
         <v>0.72475000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -8461,7 +8741,7 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -8491,7 +8771,7 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -8521,7 +8801,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -8551,7 +8831,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -8861,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9812,7 +10092,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33895433-C293-9544-B3D9-81CE51BA99DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C9DFBA-58BC-6C48-9581-B76833718834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="1" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
@@ -31,8 +31,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rafael Ktistakis</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{BFDD1272-FF74-564E-A50D-0EB6180A8A9A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Ktistakis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Look at Execution per Query for % ratios
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="52">
   <si>
     <t>DG</t>
   </si>
@@ -107,18 +151,6 @@
   </si>
   <si>
     <t>**CPT and CPT+ holds only a portion of the input data and discards the rest. In this case it holds the last number of items from every sequence</t>
-  </si>
-  <si>
-    <t>Training - testing was done with k-fold cross folding evaluation</t>
-  </si>
-  <si>
-    <t>Νumber of folds is 14</t>
-  </si>
-  <si>
-    <t>Εvery predictor was testing under the same training-testing folds</t>
-  </si>
-  <si>
-    <t>CPT and CPT+ was trained under the configuration as published in PAKDD paper, using IPredict code from the authors</t>
   </si>
   <si>
     <t>CPT+ [Min]*</t>
@@ -199,7 +231,7 @@
     <t>% L[]</t>
   </si>
   <si>
-    <t>%s cans</t>
+    <t>%scans</t>
   </si>
 </sst>
 </file>
@@ -210,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -232,6 +264,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2028,7 +2073,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>443.17002881844383</c:v>
+                  <c:v>438.04034582132567</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2324.0384615384614</c:v>
@@ -2046,7 +2091,7 @@
                   <c:v>14939.016801493466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>960.95774647887322</c:v>
+                  <c:v>957.74647887323943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,25 +2886,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.3296017578183141</c:v>
+                  <c:v>4.8691566316391715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9430622562776572</c:v>
+                  <c:v>2.9611768562877416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8312225522532214E-2</c:v>
+                  <c:v>6.3757720661486356E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.475420135071463</c:v>
+                  <c:v>6.0739701803985477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60169088814361271</c:v>
+                  <c:v>0.67690224916156427</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.3532431919114805</c:v>
+                  <c:v>6.758403856361527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8101789471195886</c:v>
+                  <c:v>2.9790586533578116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,25 +2975,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>121.22884921891279</c:v>
+                  <c:v>136.3363856858968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.74876058538911</c:v>
+                  <c:v>124.51043638581314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>161.23330356980156</c:v>
+                  <c:v>176.29009762900978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249.20161248102195</c:v>
+                  <c:v>77.72069370617497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2390.3538010796256</c:v>
+                  <c:v>2689.1480262145787</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.31084534014968</c:v>
+                  <c:v>126.91956736037001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>298.79677564238943</c:v>
+                  <c:v>90.735665972151182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,25 +3064,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.0097632519638804</c:v>
+                  <c:v>9.0079397685324665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53255412256452839</c:v>
+                  <c:v>0.53583200256635322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9156112761266106</c:v>
+                  <c:v>3.1878860330743177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.600230354431709</c:v>
+                  <c:v>11.10295624373928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0084544407180638</c:v>
+                  <c:v>3.3845112458078219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.60633477668685</c:v>
+                  <c:v>81.491693728272466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.074510082027281</c:v>
+                  <c:v>4.8813491187549687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,25 +3153,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.854725625018606</c:v>
+                  <c:v>15.581301221245349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.791228273018076</c:v>
+                  <c:v>10.857648473055054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9565391694152385</c:v>
+                  <c:v>5.4194062562263401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.83555834773049</c:v>
+                  <c:v>12.735743926642115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7434130231890306</c:v>
+                  <c:v>6.46133965108766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.244967757769217</c:v>
+                  <c:v>86.42614280894125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.866061508640051</c:v>
+                  <c:v>6.6400704924240381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,25 +3242,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.5771206534022488</c:v>
+                  <c:v>2.1370217194818002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3724822201045275</c:v>
+                  <c:v>1.7346856040977048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2554092295724062</c:v>
+                  <c:v>2.1401044032675829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9225867699045598</c:v>
+                  <c:v>1.9000489019911029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3335563156146075</c:v>
+                  <c:v>2.1825420756284428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5370532526017042</c:v>
+                  <c:v>1.6691954700373188</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5882248490024917</c:v>
+                  <c:v>1.6006410359945658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3286,25 +3331,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.4504165888691354</c:v>
+                  <c:v>1.6311674715991225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6817498607300898</c:v>
+                  <c:v>1.6921010607358524</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8312225522532214E-2</c:v>
+                  <c:v>6.3757720661486356E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4447411130307319</c:v>
+                  <c:v>1.6980991902189488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21879668659767737</c:v>
+                  <c:v>0.24614627242238704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.901725661409454</c:v>
+                  <c:v>21.170903646433697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.78223766635936</c:v>
+                  <c:v>1.1485527338246986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,25 +3422,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>23.16336940432798</c:v>
+                  <c:v>26.04998797926957</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.839371866427022</c:v>
+                  <c:v>38.072273866556685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.537128487344425</c:v>
+                  <c:v>13.707909942219565</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.802785194492444</c:v>
+                  <c:v>20.834370833840179</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.947304185512245</c:v>
+                  <c:v>51.69071720870128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.78095711034598</c:v>
+                  <c:v>30.616383734842579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.063092452071956</c:v>
+                  <c:v>23.401761951678232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,25 +3513,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.9790420214910611</c:v>
+                  <c:v>5.5995301263850479</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0452495821902694</c:v>
+                  <c:v>5.0763031822075568</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7902946589645938</c:v>
+                  <c:v>4.1442518429966126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.889482226061464</c:v>
+                  <c:v>3.3961983804378977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.015924296346441</c:v>
+                  <c:v>42.767914833389746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5697423922544012</c:v>
+                  <c:v>4.8611651834311216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.819492707373</c:v>
+                  <c:v>3.5892272932021827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6633,7 +6678,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -6901,12 +6946,12 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3">
         <v>67.760000000000005</v>
@@ -6918,7 +6963,7 @@
         <v>67.760000000000005</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3">
         <v>67.760000000000005</v>
@@ -6941,7 +6986,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3">
         <v>26.88</v>
@@ -6953,7 +6998,7 @@
         <v>26.64</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3">
         <v>26.8</v>
@@ -6976,7 +7021,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
         <v>36.5</v>
@@ -6988,7 +7033,7 @@
         <v>36.5</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3">
         <v>36.5</v>
@@ -7011,7 +7056,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>26.28</v>
@@ -7023,7 +7068,7 @@
         <v>26.44</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="3">
         <v>26.52</v>
@@ -7046,7 +7091,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3">
         <v>76.966999999999999</v>
@@ -7058,7 +7103,7 @@
         <v>57.107999999999997</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>63.247</v>
@@ -7081,7 +7126,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3">
         <v>0.7</v>
@@ -7093,7 +7138,7 @@
         <v>99.9</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
         <v>99.94</v>
@@ -7116,7 +7161,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3">
         <v>29.983000000000001</v>
@@ -7128,7 +7173,7 @@
         <v>28.225999999999999</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3">
         <v>29.373000000000001</v>
@@ -7151,7 +7196,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>54.92</v>
@@ -7163,7 +7208,7 @@
         <v>56.14</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3">
         <v>56.56</v>
@@ -7186,7 +7231,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="3">
         <v>37.380000000000003</v>
@@ -7198,7 +7243,7 @@
         <v>96.64</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3">
         <v>96.9</v>
@@ -7221,7 +7266,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
         <v>49.097000000000001</v>
@@ -7233,7 +7278,7 @@
         <v>49.146000000000001</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="3">
         <v>53.344999999999999</v>
@@ -7256,7 +7301,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>12.98</v>
@@ -7268,7 +7313,7 @@
         <v>95.94</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
         <v>95.92</v>
@@ -7291,7 +7336,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
         <v>48.3</v>
@@ -7303,7 +7348,7 @@
         <v>90.72</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
         <v>81.739999999999995</v>
@@ -7326,7 +7371,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3">
         <v>12.4</v>
@@ -7338,7 +7383,7 @@
         <v>11.34</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3">
         <v>12.08</v>
@@ -7361,7 +7406,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
         <v>41.92</v>
@@ -7373,7 +7418,7 @@
         <v>36.9</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" s="3">
         <v>37.44</v>
@@ -7396,7 +7441,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3">
         <v>59.52</v>
@@ -7408,7 +7453,7 @@
         <v>55.06</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3">
         <v>55.38</v>
@@ -7431,7 +7476,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3">
         <v>27.78</v>
@@ -7443,7 +7488,7 @@
         <v>24.7</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3">
         <v>25.82</v>
@@ -7475,7 +7520,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7513,22 +7558,22 @@
         <v>15</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -7553,7 +7598,7 @@
       </c>
       <c r="F2" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F2/'Datasets Attributes, Notes'!$F2*1000</f>
-        <v>443.17002881844383</v>
+        <v>438.04034582132567</v>
       </c>
       <c r="G2" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G2/'Datasets Attributes, Notes'!$F2*1000</f>
@@ -7943,7 +7988,7 @@
       </c>
       <c r="F8" s="8">
         <f>'Exec. Time of Test Phase (ms)'!F8/'Datasets Attributes, Notes'!$F8*1000</f>
-        <v>960.95774647887322</v>
+        <v>957.74647887323943</v>
       </c>
       <c r="G8" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G8/'Datasets Attributes, Notes'!$F8*1000</f>
@@ -7988,7 +8033,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <f>STDEV(B2:B8)</f>
@@ -8008,7 +8053,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>5444.3867484700904</v>
+        <v>5444.9185888956445</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -8033,11 +8078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA0485-4631-4D4D-BD6C-8B9119B36FE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA0485-4631-4D4D-BD6C-8B9119B36FE5}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8076,13 +8121,13 @@
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -8102,7 +8147,7 @@
         <v>96.6</v>
       </c>
       <c r="F2" s="3">
-        <v>153.78</v>
+        <v>152</v>
       </c>
       <c r="G2" s="8">
         <v>0.35</v>
@@ -8348,7 +8393,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="4">
-        <v>341.14</v>
+        <v>340</v>
       </c>
       <c r="G8" s="8">
         <v>0.78</v>
@@ -8375,6 +8420,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8390,7 +8436,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8400,10 +8446,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9058626D-1839-5446-B7A4-B72B5F5525AF}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8411,7 +8457,7 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8437,7 +8483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -8453,9 +8499,8 @@
       <c r="E2" s="8">
         <v>0.64</v>
       </c>
-      <c r="F2" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B2*LOG('Datasets Attributes, Notes'!D2,2) + 64 * 'Datasets Attributes, Notes'!D2 + 64)*0.000000125</f>
-        <v>7.2852920043018451E-2</v>
+      <c r="F2" s="8">
+        <v>8.7777900000000006E-2</v>
       </c>
       <c r="G2" s="8">
         <v>6.7000000000000004E-2</v>
@@ -8466,8 +8511,12 @@
       <c r="I2" s="8">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="e">
+        <f>F2/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -8483,9 +8532,8 @@
       <c r="E3" s="8">
         <v>0.77</v>
       </c>
-      <c r="F3" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B3*LOG('Datasets Attributes, Notes'!D3,2) + 64 * 'Datasets Attributes, Notes'!D3 + 64)*0.000000125</f>
-        <v>9.7932439453893474E-2</v>
+      <c r="F3" s="8">
+        <v>0.12302</v>
       </c>
       <c r="G3" s="8">
         <v>0.12</v>
@@ -8496,8 +8544,12 @@
       <c r="I3" s="8">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="e">
+        <f>F3/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8513,9 +8565,8 @@
       <c r="E4" s="8">
         <v>0.17</v>
       </c>
-      <c r="F4" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B4*LOG('Datasets Attributes, Notes'!D4,2) + 64 * 'Datasets Attributes, Notes'!D4 + 64)*0.000000125</f>
-        <v>4.305818268202808E-2</v>
+      <c r="F4" s="8">
+        <v>6.7132399999999995E-2</v>
       </c>
       <c r="G4" s="10">
         <v>2E-3</v>
@@ -8526,8 +8577,12 @@
       <c r="I4" s="8">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="e">
+        <f>F4/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -8543,9 +8598,8 @@
       <c r="E5" s="8">
         <v>1.95</v>
       </c>
-      <c r="F5" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B5*LOG('Datasets Attributes, Notes'!D5,2) + 64 * 'Datasets Attributes, Notes'!D5 + 64)*0.000000125</f>
-        <v>9.1808324729867483E-2</v>
+      <c r="F5" s="8">
+        <v>0.29092099999999999</v>
       </c>
       <c r="G5" s="8">
         <v>0.26</v>
@@ -8556,8 +8610,12 @@
       <c r="I5" s="8">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="e">
+        <f>F5/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -8573,9 +8631,8 @@
       <c r="E6" s="8">
         <v>0.21</v>
       </c>
-      <c r="F6" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B6*LOG('Datasets Attributes, Notes'!D6,2) + 64 * 'Datasets Attributes, Notes'!D6 + 64)*0.000000125</f>
-        <v>4.8759653040514148E-2</v>
+      <c r="F6" s="8">
+        <v>7.0934800000000006E-2</v>
       </c>
       <c r="G6" s="8">
         <v>8.0000000000000002E-3</v>
@@ -8586,8 +8643,12 @@
       <c r="I6" s="8">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" t="e">
+        <f>F6/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -8603,9 +8664,8 @@
       <c r="E7" s="8">
         <v>106.14</v>
       </c>
-      <c r="F7" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B7*LOG('Datasets Attributes, Notes'!D7,2) + 64 * 'Datasets Attributes, Notes'!D7 + 64)*0.000000125</f>
-        <v>2.0080361496056356</v>
+      <c r="F7" s="8">
+        <v>2.0499399999999999</v>
       </c>
       <c r="G7" s="8">
         <v>26</v>
@@ -8616,9 +8676,12 @@
       <c r="I7" s="8">
         <v>5.97</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" t="e">
+        <f>F7/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -8634,9 +8697,8 @@
       <c r="E8" s="8">
         <v>1.85</v>
       </c>
-      <c r="F8" s="5">
-        <f>(1.5*'Datasets Attributes, Notes'!B8*LOG('Datasets Attributes, Notes'!D8,2) + 64 * 'Datasets Attributes, Notes'!D8 + 64)*0.000000125</f>
-        <v>0.13437335157470481</v>
+      <c r="F8" s="8">
+        <v>0.44595699999999999</v>
       </c>
       <c r="G8" s="8">
         <v>0.32</v>
@@ -8647,13 +8709,17 @@
       <c r="I8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="e">
+        <f>F8/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="8">
         <v>1.44E-4</v>
@@ -8681,9 +8747,9 @@
         <v>8.3239999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8">
         <v>3.2000000000000002E-3</v>
@@ -8711,9 +8777,9 @@
         <v>0.72475000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12" s="8">
         <v>8.4000000000000003E-4</v>
@@ -8741,9 +8807,9 @@
         <v>0.59789999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13" s="8">
         <v>1E-3</v>
@@ -8771,9 +8837,9 @@
         <v>0.61299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8">
         <v>6.0000000000000001E-3</v>
@@ -8801,9 +8867,9 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8">
         <v>1.0999999999999999E-2</v>
@@ -8831,9 +8897,9 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>5.0000000000000001E-3</v>
@@ -8863,7 +8929,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="8">
         <v>3.0000000000000001E-3</v>
@@ -8893,7 +8959,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8">
         <v>1.0999999999999999E-2</v>
@@ -8923,7 +8989,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8">
         <v>1E-3</v>
@@ -8953,7 +9019,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8">
         <v>3.0000000000000001E-3</v>
@@ -8983,7 +9049,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="8">
         <v>0.39400000000000002</v>
@@ -9013,7 +9079,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8">
         <v>4.0000000000000001E-3</v>
@@ -9043,7 +9109,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23" s="8">
         <v>5.8000000000000003E-2</v>
@@ -9073,7 +9139,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24" s="8">
         <v>6.0000000000000001E-3</v>
@@ -9103,7 +9169,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25" s="8">
         <v>8.0000000000000002E-3</v>
@@ -9142,13 +9208,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -9184,35 +9251,35 @@
       </c>
       <c r="B2" s="8">
         <f>'Memory (MB)'!B2/'Datasets Attributes, Notes'!$H2</f>
-        <v>4.3296017578183141</v>
+        <v>4.8691566316391715</v>
       </c>
       <c r="C2" s="8">
         <f>'Memory (MB)'!C2/'Datasets Attributes, Notes'!$H2</f>
-        <v>121.22884921891279</v>
+        <v>136.3363856858968</v>
       </c>
       <c r="D2" s="8">
         <f>'Memory (MB)'!D2/'Datasets Attributes, Notes'!$H2</f>
-        <v>8.0097632519638804</v>
+        <v>9.0079397685324665</v>
       </c>
       <c r="E2" s="8">
         <f>'Memory (MB)'!E2/'Datasets Attributes, Notes'!$H2</f>
-        <v>13.854725625018606</v>
+        <v>15.581301221245349</v>
       </c>
       <c r="F2" s="8">
         <f>'Memory (MB)'!F2/'Datasets Attributes, Notes'!$H2</f>
-        <v>1.5771206534022488</v>
+        <v>2.1370217194818002</v>
       </c>
       <c r="G2" s="8">
         <f>'Memory (MB)'!G2/'Datasets Attributes, Notes'!$H2</f>
-        <v>1.4504165888691354</v>
+        <v>1.6311674715991225</v>
       </c>
       <c r="H2" s="8">
         <f>'Memory (MB)'!H2/'Datasets Attributes, Notes'!$H2</f>
-        <v>23.16336940432798</v>
+        <v>26.04998797926957</v>
       </c>
       <c r="I2" s="8">
         <f>'Memory (MB)'!I2/'Datasets Attributes, Notes'!$H2</f>
-        <v>4.9790420214910611</v>
+        <v>5.5995301263850479</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9221,35 +9288,35 @@
       </c>
       <c r="B3" s="8">
         <f>'Memory (MB)'!B3/'Datasets Attributes, Notes'!$H3</f>
-        <v>2.9430622562776572</v>
+        <v>2.9611768562877416</v>
       </c>
       <c r="C3" s="8">
         <f>'Memory (MB)'!C3/'Datasets Attributes, Notes'!$H3</f>
-        <v>123.74876058538911</v>
+        <v>124.51043638581314</v>
       </c>
       <c r="D3" s="8">
         <f>'Memory (MB)'!D3/'Datasets Attributes, Notes'!$H3</f>
-        <v>0.53255412256452839</v>
+        <v>0.53583200256635322</v>
       </c>
       <c r="E3" s="8">
         <f>'Memory (MB)'!E3/'Datasets Attributes, Notes'!$H3</f>
-        <v>10.791228273018076</v>
+        <v>10.857648473055054</v>
       </c>
       <c r="F3" s="8">
         <f>'Memory (MB)'!F3/'Datasets Attributes, Notes'!$H3</f>
-        <v>1.3724822201045275</v>
+        <v>1.7346856040977048</v>
       </c>
       <c r="G3" s="8">
         <f>'Memory (MB)'!G3/'Datasets Attributes, Notes'!$H3</f>
-        <v>1.6817498607300898</v>
+        <v>1.6921010607358524</v>
       </c>
       <c r="H3" s="8">
         <f>'Memory (MB)'!H3/'Datasets Attributes, Notes'!$H3</f>
-        <v>37.839371866427022</v>
+        <v>38.072273866556685</v>
       </c>
       <c r="I3" s="8">
         <f>'Memory (MB)'!I3/'Datasets Attributes, Notes'!$H3</f>
-        <v>5.0452495821902694</v>
+        <v>5.0763031822075568</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -9258,35 +9325,35 @@
       </c>
       <c r="B4" s="8">
         <f>'Memory (MB)'!B4/'Datasets Attributes, Notes'!$H4</f>
-        <v>5.8312225522532214E-2</v>
+        <v>6.3757720661486356E-2</v>
       </c>
       <c r="C4" s="8">
         <f>'Memory (MB)'!C4/'Datasets Attributes, Notes'!$H4</f>
-        <v>161.23330356980156</v>
+        <v>176.29009762900978</v>
       </c>
       <c r="D4" s="8">
         <f>'Memory (MB)'!D4/'Datasets Attributes, Notes'!$H4</f>
-        <v>2.9156112761266106</v>
+        <v>3.1878860330743177</v>
       </c>
       <c r="E4" s="8">
         <f>'Memory (MB)'!E4/'Datasets Attributes, Notes'!$H4</f>
-        <v>4.9565391694152385</v>
+        <v>5.4194062562263401</v>
       </c>
       <c r="F4" s="8">
         <f>'Memory (MB)'!F4/'Datasets Attributes, Notes'!$H4</f>
-        <v>1.2554092295724062</v>
+        <v>2.1401044032675829</v>
       </c>
       <c r="G4" s="8">
         <f>'Memory (MB)'!G4/'Datasets Attributes, Notes'!$H4</f>
-        <v>5.8312225522532214E-2</v>
+        <v>6.3757720661486356E-2</v>
       </c>
       <c r="H4" s="8">
         <f>'Memory (MB)'!H4/'Datasets Attributes, Notes'!$H4</f>
-        <v>12.537128487344425</v>
+        <v>13.707909942219565</v>
       </c>
       <c r="I4" s="8">
         <f>'Memory (MB)'!I4/'Datasets Attributes, Notes'!$H4</f>
-        <v>3.7902946589645938</v>
+        <v>4.1442518429966126</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9295,35 +9362,35 @@
       </c>
       <c r="B5" s="8">
         <f>'Memory (MB)'!B5/'Datasets Attributes, Notes'!$H5</f>
-        <v>19.475420135071463</v>
+        <v>6.0739701803985477</v>
       </c>
       <c r="C5" s="8">
         <f>'Memory (MB)'!C5/'Datasets Attributes, Notes'!$H5</f>
-        <v>249.20161248102195</v>
+        <v>77.72069370617497</v>
       </c>
       <c r="D5" s="8">
         <f>'Memory (MB)'!D5/'Datasets Attributes, Notes'!$H5</f>
-        <v>35.600230354431709</v>
+        <v>11.10295624373928</v>
       </c>
       <c r="E5" s="8">
         <f>'Memory (MB)'!E5/'Datasets Attributes, Notes'!$H5</f>
-        <v>40.83555834773049</v>
+        <v>12.735743926642115</v>
       </c>
       <c r="F5" s="8">
         <f>'Memory (MB)'!F5/'Datasets Attributes, Notes'!$H5</f>
-        <v>1.9225867699045598</v>
+        <v>1.9000489019911029</v>
       </c>
       <c r="G5" s="8">
         <f>'Memory (MB)'!G5/'Datasets Attributes, Notes'!$H5</f>
-        <v>5.4447411130307319</v>
+        <v>1.6980991902189488</v>
       </c>
       <c r="H5" s="8">
         <f>'Memory (MB)'!H5/'Datasets Attributes, Notes'!$H5</f>
-        <v>66.802785194492444</v>
+        <v>20.834370833840179</v>
       </c>
       <c r="I5" s="8">
         <f>'Memory (MB)'!I5/'Datasets Attributes, Notes'!$H5</f>
-        <v>10.889482226061464</v>
+        <v>3.3961983804378977</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9332,35 +9399,35 @@
       </c>
       <c r="B6" s="8">
         <f>'Memory (MB)'!B6/'Datasets Attributes, Notes'!$H6</f>
-        <v>0.60169088814361271</v>
+        <v>0.67690224916156427</v>
       </c>
       <c r="C6" s="8">
         <f>'Memory (MB)'!C6/'Datasets Attributes, Notes'!$H6</f>
-        <v>2390.3538010796256</v>
+        <v>2689.1480262145787</v>
       </c>
       <c r="D6" s="8">
         <f>'Memory (MB)'!D6/'Datasets Attributes, Notes'!$H6</f>
-        <v>3.0084544407180638</v>
+        <v>3.3845112458078219</v>
       </c>
       <c r="E6" s="8">
         <f>'Memory (MB)'!E6/'Datasets Attributes, Notes'!$H6</f>
-        <v>5.7434130231890306</v>
+        <v>6.46133965108766</v>
       </c>
       <c r="F6" s="8">
         <f>'Memory (MB)'!F6/'Datasets Attributes, Notes'!$H6</f>
-        <v>1.3335563156146075</v>
+        <v>2.1825420756284428</v>
       </c>
       <c r="G6" s="8">
         <f>'Memory (MB)'!G6/'Datasets Attributes, Notes'!$H6</f>
-        <v>0.21879668659767737</v>
+        <v>0.24614627242238704</v>
       </c>
       <c r="H6" s="8">
         <f>'Memory (MB)'!H6/'Datasets Attributes, Notes'!$H6</f>
-        <v>45.947304185512245</v>
+        <v>51.69071720870128</v>
       </c>
       <c r="I6" s="8">
         <f>'Memory (MB)'!I6/'Datasets Attributes, Notes'!$H6</f>
-        <v>38.015924296346441</v>
+        <v>42.767914833389746</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -9369,35 +9436,35 @@
       </c>
       <c r="B7" s="8">
         <f>'Memory (MB)'!B7/'Datasets Attributes, Notes'!$H7</f>
-        <v>6.3532431919114805</v>
+        <v>6.758403856361527</v>
       </c>
       <c r="C7" s="8">
         <f>'Memory (MB)'!C7/'Datasets Attributes, Notes'!$H7</f>
-        <v>119.31084534014968</v>
+        <v>126.91956736037001</v>
       </c>
       <c r="D7" s="8">
         <f>'Memory (MB)'!D7/'Datasets Attributes, Notes'!$H7</f>
-        <v>76.60633477668685</v>
+        <v>81.491693728272466</v>
       </c>
       <c r="E7" s="8">
         <f>'Memory (MB)'!E7/'Datasets Attributes, Notes'!$H7</f>
-        <v>81.244967757769217</v>
+        <v>86.42614280894125</v>
       </c>
       <c r="F7" s="8">
         <f>'Memory (MB)'!F7/'Datasets Attributes, Notes'!$H7</f>
-        <v>1.5370532526017042</v>
+        <v>1.6691954700373188</v>
       </c>
       <c r="G7" s="8">
         <f>'Memory (MB)'!G7/'Datasets Attributes, Notes'!$H7</f>
-        <v>19.901725661409454</v>
+        <v>21.170903646433697</v>
       </c>
       <c r="H7" s="8">
         <f>'Memory (MB)'!H7/'Datasets Attributes, Notes'!$H7</f>
-        <v>28.78095711034598</v>
+        <v>30.616383734842579</v>
       </c>
       <c r="I7" s="8">
         <f>'Memory (MB)'!I7/'Datasets Attributes, Notes'!$H7</f>
-        <v>4.5697423922544012</v>
+        <v>4.8611651834311216</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9406,35 +9473,35 @@
       </c>
       <c r="B8" s="8">
         <f>'Memory (MB)'!B8/'Datasets Attributes, Notes'!$H8</f>
-        <v>9.8101789471195886</v>
+        <v>2.9790586533578116</v>
       </c>
       <c r="C8" s="8">
         <f>'Memory (MB)'!C8/'Datasets Attributes, Notes'!$H8</f>
-        <v>298.79677564238943</v>
+        <v>90.735665972151182</v>
       </c>
       <c r="D8" s="8">
         <f>'Memory (MB)'!D8/'Datasets Attributes, Notes'!$H8</f>
-        <v>16.074510082027281</v>
+        <v>4.8813491187549687</v>
       </c>
       <c r="E8" s="8">
         <f>'Memory (MB)'!E8/'Datasets Attributes, Notes'!$H8</f>
-        <v>21.866061508640051</v>
+        <v>6.6400704924240381</v>
       </c>
       <c r="F8" s="8">
         <f>'Memory (MB)'!F8/'Datasets Attributes, Notes'!$H8</f>
-        <v>1.5882248490024917</v>
+        <v>1.6006410359945658</v>
       </c>
       <c r="G8" s="8">
         <f>'Memory (MB)'!G8/'Datasets Attributes, Notes'!$H8</f>
-        <v>3.78223766635936</v>
+        <v>1.1485527338246986</v>
       </c>
       <c r="H8" s="8">
         <f>'Memory (MB)'!H8/'Datasets Attributes, Notes'!$H8</f>
-        <v>77.063092452071956</v>
+        <v>23.401761951678232</v>
       </c>
       <c r="I8" s="8">
         <f>'Memory (MB)'!I8/'Datasets Attributes, Notes'!$H8</f>
-        <v>11.819492707373</v>
+        <v>3.5892272932021827</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -9450,39 +9517,39 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" s="8">
         <f>STDEV(B2:B8)</f>
-        <v>6.7386556490637082</v>
+        <v>2.5643220494934185</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" ref="C10:I10" si="0">STDEV(C2:C8)</f>
-        <v>838.78417040960778</v>
+        <v>970.78406612095671</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="0"/>
-        <v>27.584148886830189</v>
+        <v>29.00498652111327</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>27.447262951186577</v>
+        <v>29.269606674363867</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>0.22226314180162302</v>
+        <v>0.24606411480688034</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>6.997222570797172</v>
+        <v>7.6242506710494071</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
-        <v>23.36170573733143</v>
+        <v>12.517230736542361</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="0"/>
-        <v>12.213022084984882</v>
+        <v>14.506912781063331</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -9491,7 +9558,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="8">
         <f>'Memory (MB)'!B10/'Datasets Attributes, Notes'!$H10</f>
@@ -9528,7 +9595,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8">
         <f>'Memory (MB)'!B11/'Datasets Attributes, Notes'!$H11</f>
@@ -9565,7 +9632,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8">
         <f>'Memory (MB)'!B12/'Datasets Attributes, Notes'!$H12</f>
@@ -9602,7 +9669,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B15" s="8">
         <f>'Memory (MB)'!B13/'Datasets Attributes, Notes'!$H13</f>
@@ -9639,7 +9706,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B16" s="8">
         <f>'Memory (MB)'!B14/'Datasets Attributes, Notes'!$H14</f>
@@ -9676,7 +9743,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="8">
         <f>'Memory (MB)'!B15/'Datasets Attributes, Notes'!$H15</f>
@@ -9713,7 +9780,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <f>'Memory (MB)'!B16/'Datasets Attributes, Notes'!$H16</f>
@@ -9750,7 +9817,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="8">
         <f>'Memory (MB)'!B17/'Datasets Attributes, Notes'!$H17</f>
@@ -9787,7 +9854,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8">
         <f>'Memory (MB)'!B18/'Datasets Attributes, Notes'!$H18</f>
@@ -9824,7 +9891,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21" s="8">
         <f>'Memory (MB)'!B19/'Datasets Attributes, Notes'!$H19</f>
@@ -9861,7 +9928,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8">
         <f>'Memory (MB)'!B20/'Datasets Attributes, Notes'!$H20</f>
@@ -9898,7 +9965,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="8">
         <f>'Memory (MB)'!B21/'Datasets Attributes, Notes'!$H21</f>
@@ -9935,7 +10002,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" s="8">
         <f>'Memory (MB)'!B22/'Datasets Attributes, Notes'!$H22</f>
@@ -9972,7 +10039,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8">
         <f>'Memory (MB)'!B23/'Datasets Attributes, Notes'!$H23</f>
@@ -10009,7 +10076,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" s="8">
         <f>'Memory (MB)'!B24/'Datasets Attributes, Notes'!$H24</f>
@@ -10046,7 +10113,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="8">
         <f>'Memory (MB)'!B25/'Datasets Attributes, Notes'!$H25</f>
@@ -10089,10 +10156,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10131,11 +10198,11 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>41061</v>
+        <v>36511</v>
       </c>
       <c r="C2" s="3">
         <f>B2/E2</f>
-        <v>9.0883134130146086</v>
+        <v>8.0812306330234609</v>
       </c>
       <c r="D2">
         <v>494</v>
@@ -10151,10 +10218,10 @@
       </c>
       <c r="H2" s="8">
         <f>(_xlfn.CEILING.MATH(LOG(D2, 2)))*(B2)*0.000000125</f>
-        <v>4.6193624999999995E-2</v>
+        <v>4.1074874999999997E-2</v>
       </c>
       <c r="M2" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -10162,11 +10229,11 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>63426</v>
+        <v>63038</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C25" si="0">B3/E3</f>
-        <v>93.548672566371678</v>
+        <v>92.976401179941007</v>
       </c>
       <c r="D3">
         <v>266</v>
@@ -10182,7 +10249,7 @@
       </c>
       <c r="H3" s="8">
         <f t="shared" ref="H3:H25" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2)))*(B3)*0.000000125</f>
-        <v>7.1354249999999994E-2</v>
+        <v>7.0917750000000002E-2</v>
       </c>
       <c r="M3" s="11">
         <v>20</v>
@@ -10193,11 +10260,11 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>54877</v>
+        <v>50190</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>11.819297867757916</v>
+        <v>10.809821236269654</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -10213,7 +10280,7 @@
       </c>
       <c r="H4" s="8">
         <f t="shared" si="1"/>
-        <v>3.4298124999999999E-2</v>
+        <v>3.1368750000000001E-2</v>
       </c>
       <c r="M4" s="11">
         <v>6</v>
@@ -10224,14 +10291,14 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>31835</v>
+        <v>94223</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>6.9493560358000437</v>
+        <v>20.568216546605544</v>
       </c>
       <c r="D5">
-        <v>2895</v>
+        <v>5422</v>
       </c>
       <c r="E5">
         <v>4581</v>
@@ -10244,7 +10311,7 @@
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>4.7752499999999996E-2</v>
+        <v>0.153112375</v>
       </c>
       <c r="M5" s="11">
         <v>6</v>
@@ -10255,14 +10322,14 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>41787</v>
+        <v>37144</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>4643</v>
@@ -10275,7 +10342,7 @@
       </c>
       <c r="H6" s="8">
         <f t="shared" si="1"/>
-        <v>3.6563624999999995E-2</v>
+        <v>3.2500999999999995E-2</v>
       </c>
       <c r="M6" s="11">
         <v>8</v>
@@ -10286,14 +10353,14 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>696757</v>
+        <v>654987</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>16.674412482649693</v>
+        <v>15.674795386014454</v>
       </c>
       <c r="D7">
-        <v>18951</v>
+        <v>22422</v>
       </c>
       <c r="E7">
         <v>41786</v>
@@ -10306,8 +10373,9 @@
       </c>
       <c r="H7" s="8">
         <f t="shared" si="1"/>
-        <v>1.3064193749999999</v>
-      </c>
+        <v>1.2281006249999999</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="M7" s="11">
         <v>22</v>
       </c>
@@ -10317,14 +10385,14 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>56404</v>
+        <v>185741</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>12.148180055998276</v>
+        <v>40.004522937755759</v>
       </c>
       <c r="D8">
-        <v>2156</v>
+        <v>2612</v>
       </c>
       <c r="E8">
         <v>4643</v>
@@ -10337,7 +10405,7 @@
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>8.4606000000000001E-2</v>
+        <v>0.27861150000000001</v>
       </c>
       <c r="M8" s="11">
         <v>21</v>
@@ -10349,7 +10417,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>58751</v>
@@ -10380,7 +10448,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>199069</v>
@@ -10411,7 +10479,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>200935</v>
@@ -10442,7 +10510,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>202912</v>
@@ -10473,7 +10541,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>41337</v>
@@ -10507,7 +10575,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>561060</v>
@@ -10538,7 +10606,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>116348</v>
@@ -10569,7 +10637,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>279563</v>
@@ -10600,7 +10668,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>151783</v>
@@ -10631,7 +10699,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>119453</v>
@@ -10662,7 +10730,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>169513</v>
@@ -10693,7 +10761,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>60824</v>
@@ -10724,7 +10792,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>157675</v>
@@ -10755,7 +10823,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>42844</v>
@@ -10786,7 +10854,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>199967</v>
@@ -10817,7 +10885,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>196969</v>
@@ -10844,29 +10912,6 @@
       </c>
       <c r="M25" s="11">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="J27" s="8"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J36" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10880,7 +10925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C8283-F952-754A-A544-78499AC1539F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C9DFBA-58BC-6C48-9581-B76833718834}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D34A6A-E49B-F74C-8B0F-777C25A1F6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="1" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51200" yWindow="460" windowWidth="38400" windowHeight="20100" activeTab="2" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -2073,25 +2073,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>438.04034582132567</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2324.0384615384614</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.400560224089645</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290.76704545454544</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.011204481792717</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14939.016801493466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>957.74647887323943</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7519,7 +7519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D61A1C-C42B-6442-B132-77D4B94522A1}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -7596,9 +7596,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E2/'Datasets Attributes, Notes'!$F2*1000</f>
         <v>278.38616714697406</v>
       </c>
-      <c r="F2" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F2/'Datasets Attributes, Notes'!$F2*1000</f>
-        <v>438.04034582132567</v>
+      <c r="F2" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F2*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G2/'Datasets Attributes, Notes'!$F2*1000</f>
@@ -7661,9 +7661,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E3/'Datasets Attributes, Notes'!$F3*1000</f>
         <v>792.5</v>
       </c>
-      <c r="F3" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F3/'Datasets Attributes, Notes'!$F3*1000</f>
-        <v>2324.0384615384614</v>
+      <c r="F3" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F3*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G3" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G3/'Datasets Attributes, Notes'!$F3*1000</f>
@@ -7726,9 +7726,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E4/'Datasets Attributes, Notes'!$F4*1000</f>
         <v>67.61904761904762</v>
       </c>
-      <c r="F4" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F4/'Datasets Attributes, Notes'!$F4*1000</f>
-        <v>61.400560224089645</v>
+      <c r="F4" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F4*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G4" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G4/'Datasets Attributes, Notes'!$F4*1000</f>
@@ -7791,9 +7791,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E5/'Datasets Attributes, Notes'!$F5*1000</f>
         <v>20.085227272727273</v>
       </c>
-      <c r="F5" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F5/'Datasets Attributes, Notes'!$F5*1000</f>
-        <v>290.76704545454544</v>
+      <c r="F5" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F5*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G5" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G5/'Datasets Attributes, Notes'!$F5*1000</f>
@@ -7856,9 +7856,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E6/'Datasets Attributes, Notes'!$F6*1000</f>
         <v>20.588235294117649</v>
       </c>
-      <c r="F6" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F6/'Datasets Attributes, Notes'!$F6*1000</f>
-        <v>48.011204481792717</v>
+      <c r="F6" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F6*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G6" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G6/'Datasets Attributes, Notes'!$F6*1000</f>
@@ -7921,9 +7921,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E7/'Datasets Attributes, Notes'!$F7*1000</f>
         <v>1834.7853142501556</v>
       </c>
-      <c r="F7" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F7/'Datasets Attributes, Notes'!$F7*1000</f>
-        <v>14939.016801493466</v>
+      <c r="F7" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F7*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G7" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G7/'Datasets Attributes, Notes'!$F7*1000</f>
@@ -7986,9 +7986,9 @@
         <f>'Exec. Time of Test Phase (ms)'!E8/'Datasets Attributes, Notes'!$F8*1000</f>
         <v>42.25352112676056</v>
       </c>
-      <c r="F8" s="8">
-        <f>'Exec. Time of Test Phase (ms)'!F8/'Datasets Attributes, Notes'!$F8*1000</f>
-        <v>957.74647887323943</v>
+      <c r="F8" s="8" t="e">
+        <f>'Exec. Time of Test Phase (ms)'!#REF!/'Datasets Attributes, Notes'!$F8*1000</f>
+        <v>#REF!</v>
       </c>
       <c r="G8" s="8">
         <f>'Exec. Time of Test Phase (ms)'!G8/'Datasets Attributes, Notes'!$F8*1000</f>
@@ -8051,9 +8051,9 @@
         <f t="shared" si="3"/>
         <v>676.36590599325609</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="e">
         <f t="shared" si="3"/>
-        <v>5444.9185888956445</v>
+        <v>#REF!</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -8081,8 +8081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA0485-4631-4D4D-BD6C-8B9119B36FE5}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8147,7 +8147,7 @@
         <v>96.6</v>
       </c>
       <c r="F2" s="3">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8">
         <v>0.35</v>
@@ -8187,8 +8187,8 @@
       <c r="E3" s="8">
         <v>41.21</v>
       </c>
-      <c r="F3" s="4">
-        <v>120.85</v>
+      <c r="F3" s="3">
+        <v>117</v>
       </c>
       <c r="G3" s="8">
         <v>0.28000000000000003</v>
@@ -8228,8 +8228,8 @@
       <c r="E4" s="8">
         <v>24.14</v>
       </c>
-      <c r="F4" s="4">
-        <v>21.92</v>
+      <c r="F4" s="3">
+        <v>21</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -8269,8 +8269,8 @@
       <c r="E5" s="8">
         <v>7.07</v>
       </c>
-      <c r="F5" s="4">
-        <v>102.35</v>
+      <c r="F5" s="3">
+        <v>94</v>
       </c>
       <c r="G5" s="8">
         <v>1.07</v>
@@ -8310,8 +8310,8 @@
       <c r="E6" s="8">
         <v>7.35</v>
       </c>
-      <c r="F6" s="4">
-        <v>17.14</v>
+      <c r="F6" s="3">
+        <v>16</v>
       </c>
       <c r="G6" s="8">
         <v>0.14000000000000001</v>
@@ -8351,8 +8351,8 @@
       <c r="E7" s="8">
         <v>5897</v>
       </c>
-      <c r="F7" s="4">
-        <v>48014</v>
+      <c r="F7" s="3">
+        <v>33089</v>
       </c>
       <c r="G7" s="8">
         <v>23.92</v>
@@ -8392,8 +8392,8 @@
       <c r="E8" s="8">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
-        <v>340</v>
+      <c r="F8" s="3">
+        <v>177</v>
       </c>
       <c r="G8" s="8">
         <v>0.78</v>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA29DF-7596-4642-AB83-537D61538B0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F204A90F-46A6-5644-8679-069D368812FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="8" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="8" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
     <sheet name="Scalability Charts" sheetId="10" r:id="rId9"/>
     <sheet name="Performance Charts" sheetId="5" r:id="rId10"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Scalability CPT+'!$B$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Scalability CPT+'!$B$2:$G$2</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -828,6 +824,7 @@
       <c:valAx>
         <c:axId val="1435843999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1439,7 +1436,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5410,7 +5407,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5984,7 +5981,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6226,16 +6223,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6247,16 +6244,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1616.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3179.241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4421.4040000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1882.4839999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4421.4040000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3179.241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1616.71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6305,16 +6302,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6326,16 +6323,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>4.2885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1141300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2238699999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4.3745700000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2238699999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1141300000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6469,6 +6466,7 @@
       <c:valAx>
         <c:axId val="1435843999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6792,16 +6790,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6813,16 +6811,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.4510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6871,16 +6869,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6892,16 +6890,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.0930200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73525399999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36714999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7.2503999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36714999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73525399999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0930200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7113,7 +7111,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7363,16 +7361,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7384,16 +7382,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>20.472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.835000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.563999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>110.43899999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.563999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40.835000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.472999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7442,16 +7440,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7463,16 +7461,16 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>6.96333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.07735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2179900000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6.6927099999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2179900000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.07735</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.96333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,7 +8135,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -8181,6 +8179,7 @@
       <c:valAx>
         <c:axId val="1435843999"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8824,7 +8823,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -21831,8 +21830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A11" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22757,19 +22756,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>3733343</v>
+        <v>3918478</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="E34">
-        <v>872472</v>
+        <v>150000</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -22778,25 +22777,25 @@
         <v>4</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="1"/>
-        <v>4.66667875</v>
+        <f t="shared" ref="H34" si="2">(_xlfn.CEILING.MATH(LOG(D34, 2)))*(B34)*0.000000125</f>
+        <v>4.8980974999999995</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35">
-        <v>4036428</v>
+        <v>3983033</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>912</v>
       </c>
       <c r="E35">
-        <v>567639</v>
+        <v>299844</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -22805,25 +22804,25 @@
         <v>4</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="1"/>
-        <v>5.0455350000000001</v>
+        <f t="shared" ref="H35" si="3">(_xlfn.CEILING.MATH(LOG(D35, 2)))*(B35)*0.000000125</f>
+        <v>4.9787912499999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>3983033</v>
+        <v>4036428</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>912</v>
       </c>
       <c r="E36">
-        <v>299844</v>
+        <v>567639</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -22832,25 +22831,25 @@
         <v>4</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="1"/>
-        <v>4.9787912499999996</v>
+        <f t="shared" ref="H36" si="4">(_xlfn.CEILING.MATH(LOG(D36, 2)))*(B36)*0.000000125</f>
+        <v>5.0455350000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37">
-        <v>3918478</v>
+        <v>3733343</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="E37">
-        <v>150000</v>
+        <v>872472</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -22859,8 +22858,8 @@
         <v>4</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="1"/>
-        <v>4.8980974999999995</v>
+        <f t="shared" ref="H37" si="5">(_xlfn.CEILING.MATH(LOG(D37, 2)))*(B37)*0.000000125</f>
+        <v>4.66667875</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -23013,7 +23012,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B7" sqref="B7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23118,16 +23117,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -23135,16 +23134,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="3">
+        <v>1616.71</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3179.241</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4421.4040000000005</v>
+      </c>
+      <c r="E8" s="3">
         <v>1882.4839999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4421.4040000000005</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3179.241</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1616.71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -23152,16 +23151,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="E9" s="3">
         <v>1.4510000000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.3879999999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -23169,16 +23168,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="3">
+        <v>20.472999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40.835000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>75.563999999999993</v>
+      </c>
+      <c r="E10" s="3">
         <v>110.43899999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>75.563999999999993</v>
-      </c>
-      <c r="D10" s="3">
-        <v>40.835000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20.472999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -23300,7 +23299,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B7" sqref="B7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23405,16 +23404,16 @@
         <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -23422,16 +23421,16 @@
         <v>55</v>
       </c>
       <c r="B8" s="18">
+        <v>4.2885</v>
+      </c>
+      <c r="C8" s="18">
+        <v>4.1141300000000003</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4.2238699999999998</v>
+      </c>
+      <c r="E8" s="18">
         <v>4.3745700000000003</v>
-      </c>
-      <c r="C8" s="18">
-        <v>4.2238699999999998</v>
-      </c>
-      <c r="D8" s="18">
-        <v>4.1141300000000003</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.2885</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -23439,16 +23438,16 @@
         <v>56</v>
       </c>
       <c r="B9" s="18">
+        <v>1.0930200000000001</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.73525399999999996</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.36714999999999998</v>
+      </c>
+      <c r="E9" s="18">
         <v>7.2503999999999999E-2</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.36714999999999998</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.73525399999999996</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1.0930200000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -23456,16 +23455,16 @@
         <v>58</v>
       </c>
       <c r="B10" s="18">
+        <v>6.96333</v>
+      </c>
+      <c r="C10" s="18">
+        <v>7.07735</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7.2179900000000004</v>
+      </c>
+      <c r="E10" s="18">
         <v>6.6927099999999999</v>
-      </c>
-      <c r="C10" s="18">
-        <v>7.2179900000000004</v>
-      </c>
-      <c r="D10" s="18">
-        <v>7.07735</v>
-      </c>
-      <c r="E10" s="18">
-        <v>6.96333</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -23586,8 +23585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1854EE8B-C47B-954D-B478-6C02B4ADDC7D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="91" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Z125" sqref="Z125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F204A90F-46A6-5644-8679-069D368812FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A372F91-B5E4-C445-AC64-5E36D1356EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="8" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
@@ -24,6 +24,9 @@
     <sheet name="Scalability Charts" sheetId="10" r:id="rId9"/>
     <sheet name="Performance Charts" sheetId="5" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Scalability Charts'!$L$92:$V$119</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -461,7 +464,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -474,7 +477,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Variable Alphabet - Train time</a:t>
             </a:r>
           </a:p>
@@ -493,7 +496,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -531,20 +534,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -622,20 +683,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -724,7 +843,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -737,14 +856,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Alphabet</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> size</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -761,7 +880,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -799,7 +918,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -850,7 +969,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -863,7 +982,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
@@ -882,7 +1001,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -914,7 +1033,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -956,7 +1075,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1041,7 +1160,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1054,7 +1173,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Variable Query Length - Test time</a:t>
             </a:r>
           </a:p>
@@ -1073,7 +1192,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1111,20 +1230,142 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4114362591472214E-2"/>
+                  <c:y val="-6.1581670590216089E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1851192281471227E-2"/>
+                  <c:y val="2.3608375321852355E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.9956191853758564E-2"/>
+                  <c:y val="-4.2413910260000708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Scalability subSeq'!$B$18:$D$18</c:f>
@@ -1184,20 +1425,143 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1849688806629808E-2"/>
+                  <c:y val="1.8111269603353133E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.0327368685729696E-2"/>
+                  <c:y val="-4.88031637034059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3373512402371346E-2"/>
+                  <c:y val="1.8111269603353133E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DB25-C14A-A4C4-CEBA036F78F0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Scalability subSeq'!$B$18:$D$18</c:f>
@@ -1268,7 +1632,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1300,7 +1664,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1338,7 +1702,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1388,7 +1752,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1420,7 +1784,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1452,7 +1816,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1494,7 +1858,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1541,7 +1905,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -4976,7 +5340,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4989,7 +5353,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Variable Alphabet - Test time</a:t>
             </a:r>
           </a:p>
@@ -5008,7 +5372,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5046,20 +5410,211 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1162320206550576E-3"/>
+                  <c:y val="-2.5737958772713312E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0702203253703151E-2"/>
+                  <c:y val="-4.0646216807325268E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7627248289170811E-3"/>
+                  <c:y val="6.5841340582760213E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3995188870227196E-2"/>
+                  <c:y val="4.4543829104743173E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.4092176371791038E-3"/>
+                  <c:y val="4.6673580252544887E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0702203253703271E-2"/>
+                  <c:y val="4.0284326809139751E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -5137,20 +5692,211 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.15401125189849E-2"/>
+                  <c:y val="-4.0465271808232589E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.812608375203299E-2"/>
+                  <c:y val="-3.1946267217025669E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.696376354548242E-2"/>
+                  <c:y val="-4.2595022956034304E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8368170052888781E-2"/>
+                  <c:y val="-5.537352984284441E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.9893619710722998E-2"/>
+                  <c:y val="-4.0465271808232589E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3670777928958374E-2"/>
+                  <c:y val="-5.537352984284457E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3CE4-5547-B83A-D05F55B9BFB3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -5239,7 +5985,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5252,7 +5998,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Alphabet SIze</a:t>
                 </a:r>
               </a:p>
@@ -5271,7 +6017,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5309,7 +6055,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5359,7 +6105,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5372,7 +6118,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
@@ -5391,7 +6137,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5423,7 +6169,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5441,6 +6187,7 @@
         <c:crossAx val="1384808175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5465,7 +6212,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5550,7 +6297,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5563,7 +6310,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Variable Alphabet - Memory</a:t>
             </a:r>
           </a:p>
@@ -5582,7 +6329,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5620,20 +6367,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -5711,20 +6516,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$D$27:$D$32</c:f>
@@ -5813,7 +6676,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5826,7 +6689,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Alphabet Size</a:t>
                 </a:r>
               </a:p>
@@ -5845,7 +6708,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5883,7 +6746,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5933,7 +6796,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5946,7 +6809,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>MB</a:t>
                 </a:r>
               </a:p>
@@ -5965,7 +6828,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5997,7 +6860,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6039,7 +6902,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6124,7 +6987,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6137,15 +7000,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>Variable input Seq.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Length</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t> - Train time</a:t>
             </a:r>
           </a:p>
@@ -6164,7 +7027,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6202,20 +7065,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -6281,20 +7202,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -6371,7 +7350,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6384,7 +7363,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Items per sequence</a:t>
                 </a:r>
               </a:p>
@@ -6403,7 +7382,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6492,7 +7471,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6505,7 +7484,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
@@ -6524,7 +7503,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6598,7 +7577,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6683,7 +7662,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6696,24 +7675,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variable input</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Seq.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Length</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - Test time</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Variable input Seq. Length - Test time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6731,7 +7694,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6769,20 +7732,166 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9165325896481671E-2"/>
+                  <c:y val="4.693343043082774E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0265718960137793E-2"/>
+                  <c:y val="-1.9444040987102117E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.8252816269408342E-3"/>
+                  <c:y val="4.055806070958367E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8672805737983349E-2"/>
+                  <c:y val="-1.4695143541198274E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -6808,7 +7917,7 @@
             <c:numRef>
               <c:f>'Scalability CPT+'!$B$9:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.96599999999999997</c:v>
@@ -6848,20 +7957,166 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.1691511666330662E-3"/>
+                  <c:y val="-3.6307646896215677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2540804055250599E-2"/>
+                  <c:y val="4.869728272037193E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6105933928479803E-2"/>
+                  <c:y val="-4.4808139857874435E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.7360229761368549E-3"/>
+                  <c:y val="-5.1183509579118505E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-EBBF-EB4D-8053-705B461A2F41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -6938,7 +8193,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6952,13 +8207,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Items</a:t>
+                  <a:t>Items per sequence</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per sequence</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6975,7 +8225,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7013,7 +8263,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7063,7 +8313,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7095,7 +8345,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7127,7 +8377,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7169,7 +8419,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7216,7 +8466,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -7254,7 +8504,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7267,24 +8517,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variable input</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Seq.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Length</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - Memory</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Variable input Seq. Length - Memory</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7302,7 +8536,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7340,20 +8574,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -7419,20 +8711,78 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$C$34:$C$37</c:f>
@@ -7509,7 +8859,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7523,13 +8873,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Items</a:t>
+                  <a:t>Items per sequence</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> per sequence</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7546,7 +8891,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7584,7 +8929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7634,7 +8979,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7666,7 +9011,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7698,7 +9043,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7740,7 +9085,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7787,7 +9132,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -7825,7 +9170,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7838,16 +9183,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variable input Seq.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - Train time</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Variable input Seq. number - Train time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7865,7 +9202,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7903,20 +9240,186 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.1027424291931335E-2"/>
+                  <c:y val="-3.8335520660430798E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0E61-EA43-B32B-7DD178F25B0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.8886481024654532E-2"/>
+                  <c:y val="-3.6205769512629091E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0E61-EA43-B32B-7DD178F25B0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11028507830836766"/>
+                  <c:y val="-2.7686764921422243E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0E61-EA43-B32B-7DD178F25B0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0532526969555535E-2"/>
+                  <c:y val="-1.7038009182413688E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0E61-EA43-B32B-7DD178F25B0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12674553775737776"/>
+                  <c:y val="-1.0648755739008555E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0E61-EA43-B32B-7DD178F25B0E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -7988,20 +9491,76 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -8084,7 +9643,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8116,7 +9675,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8154,7 +9713,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8205,7 +9764,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8237,7 +9796,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8260,7 +9819,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8269,7 +9830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8311,7 +9872,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8358,7 +9919,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -8396,7 +9957,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8409,16 +9970,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variable input Seq.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - Test time</a:t>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Variable input Seq. number - Test time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8436,7 +9989,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8474,20 +10027,145 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5760408323029347E-2"/>
+                  <c:y val="-5.981397713754083E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.5636682712372305E-2"/>
+                  <c:y val="-5.981397713754083E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5141780269744186E-2"/>
+                  <c:y val="-4.7035470250730481E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -8559,20 +10237,188 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1602989322736441E-2"/>
+                  <c:y val="2.3108638438352424E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8682074691593245E-2"/>
+                  <c:y val="1.2959619582843798E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5513708839135969E-2"/>
+                  <c:y val="-4.2413910260000846E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7611600604500577E-3"/>
+                  <c:y val="-6.5841172885819518E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2345342986678816E-2"/>
+                  <c:y val="-6.5841172885819518E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1F4D-EA4C-8040-4F7B383649DA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -8655,7 +10501,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8687,7 +10533,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8725,7 +10571,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8775,7 +10621,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8807,7 +10653,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8839,7 +10685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8881,7 +10727,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -8928,7 +10774,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -8966,7 +10812,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8980,15 +10826,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Variable input Seq.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> number</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - Memory</a:t>
+              <a:t>Variable input Seq. number - Memory</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9006,7 +10844,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9044,20 +10882,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5018806396507797E-2"/>
+                  <c:y val="-2.1478456477109872E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-32E3-E640-98DD-3424ADF3CA32}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -9129,20 +11045,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.5018806396507797E-2"/>
+                  <c:y val="-2.3608207624911583E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-32E3-E640-98DD-3424ADF3CA32}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -9225,7 +11219,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9257,7 +11251,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9295,7 +11289,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9345,7 +11339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9377,7 +11371,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9409,7 +11403,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9451,7 +11445,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9498,7 +11492,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -16860,16 +18854,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>106996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>204874</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16881,7 +18875,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -16899,15 +18893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
+      <xdr:colOff>202502</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>6420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>198037</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16937,15 +18931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>348900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>344434</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57498</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16974,16 +18968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>432637</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>428171</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127279</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17012,16 +19006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390771</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>257820</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>114586</xdr:rowOff>
+      <xdr:colOff>386306</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>113322</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17050,16 +19044,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>530330</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>525864</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>183102</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17088,16 +19082,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>307032</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>83737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>302566</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17126,16 +19120,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>348901</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>344436</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>85411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17165,15 +19159,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>93226</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>15631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17202,16 +19196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>362857</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>358392</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>15631</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23012,7 +25006,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23150,16 +25144,16 @@
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="8">
         <v>0.96599999999999997</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="8">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="8">
         <v>1.3879999999999999</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="8">
         <v>1.4510000000000001</v>
       </c>
     </row>
@@ -23583,15 +25577,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1854EE8B-C47B-954D-B478-6C02B4ADDC7D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Z125" sqref="Z125"/>
+    <sheetView tabSelected="1" topLeftCell="D84" zoomScale="91" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92:V119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_experiments_data.xlsx
+++ b/final_experiments_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/sBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A372F91-B5E4-C445-AC64-5E36D1356EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F37C188-D9F3-F049-A472-9822394BD132}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="8" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
+    <workbookView xWindow="51180" yWindow="460" windowWidth="38400" windowHeight="21140" firstSheet="1" activeTab="5" xr2:uid="{B8C33F8D-BADD-D24B-82DA-2EDA7EEB5B99}"/>
   </bookViews>
   <sheets>
     <sheet name="Accuracy %" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,50 @@
     <sheet name="Performance Charts" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Accuracy %'!$A$2:$A$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Accuracy %'!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Accuracy %'!$E$2:$E$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Accuracy %'!$R$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Accuracy %'!$R$2:$R$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Accuracy %'!$S$2:$AC$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Execution Time per Query (μs)'!$O$69:$Z$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Memory - Input Ratio'!$Z$13:$AC$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Performance Charts'!$Z$69:$AK$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Scalability Charts'!$L$92:$V$119</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -81,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="80">
   <si>
     <t>DG</t>
   </si>
@@ -316,6 +360,12 @@
   <si>
     <t>Test Time (s)</t>
   </si>
+  <si>
+    <t>CPT+ min-max</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +467,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,12 +475,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5303,6 +5358,2930 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average Execution time per test query</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPT+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>393.37175792507207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>623.46153846153857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.21568627450981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>197.21590909090912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.977591036414559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1863.72121966397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.6901408450704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E4C0-294D-8DA0-5307549FF986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subSeq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>233.4293948126801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.0454545454545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.817927170868344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10295.270690728064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498.59154929577466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E4C0-294D-8DA0-5307549FF986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1087849711"/>
+        <c:axId val="1021367279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1087849711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021367279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021367279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087849711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average Execution time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> per test query</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subSeq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="accent2"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>233.4293948126801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.0454545454545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.817927170868344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10295.270690728064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>498.59154929577466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6DE-1544-A895-67CC6DEB1E09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPiCe baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="plaid">
+              <a:fgClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Execution Time per Query (μs)'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Execution Time per Query (μs)'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1068884.7262247838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6730.7692307692305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308.12324929971993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2156.8627450980389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>619985.37647790916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51107.042253521133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6DE-1544-A895-67CC6DEB1E09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1087849711"/>
+        <c:axId val="1021367279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1087849711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021367279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021367279"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087849711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPT+ accuracy deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Accuracy %'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPT+ [Min]*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9993067222387067E-2"/>
+                  <c:y val="-3.0887298041610022E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.9993067222387012E-2"/>
+                  <c:y val="-2.9293028043141024E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Accuracy %'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracy %'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9185-E448-901F-5A4AB31F1A97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Accuracy %'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPT+ min-max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-9.7222222222222224E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777778286E-3"/>
+                  <c:y val="-0.11111111111111116"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0925337632079971E-17"/>
+                  <c:y val="-0.11574074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-0.17129629629629631"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0052769774252337E-5"/>
+                  <c:y val="-0.40707377764332842"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="-0.11574074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9185-E448-901F-5A4AB31F1A97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Accuracy %'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_WORD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_CHAR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Accuracy %'!$R$2:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9185-E448-901F-5A4AB31F1A97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1021604031"/>
+        <c:axId val="1087393327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1021604031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Datasets</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087393327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1087393327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021604031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average &amp; St. Deviation bars</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6296296296296294E-2"/>
+                  <c:y val="4.3124999999999997E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8580246913580245E-2"/>
+                  <c:y val="-3.0527850685331086E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.6296296296296294E-2"/>
+                  <c:y val="2.6154855643044619E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5432098765432098E-3"/>
+                  <c:y val="9.4479440069991247E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8580246913580245E-2"/>
+                  <c:y val="2.8798848060659171E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5493827160493825E-2"/>
+                  <c:y val="4.7754629629629633E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8580246913580363E-2"/>
+                  <c:y val="5.1174905220180728E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-010B-744E-AD9F-6A57036B2926}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Memory - Input Ratio'!$B$10,'Memory - Input Ratio'!$D$10:$I$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5643220494934185</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.00498652111327</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>29.269606674363867</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24606411480688034</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6242506710494071</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12.517230736542361</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14.506912781063331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Memory - Input Ratio'!$B$10,'Memory - Input Ratio'!$D$10:$I$10)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>2.5643220494934185</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>29.00498652111327</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>29.269606674363867</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24606411480688034</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.6242506710494071</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>12.517230736542361</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>14.506912781063331</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Memory - Input Ratio'!$B$1,'Memory - Input Ratio'!$D$1:$I$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>DG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CPT+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>subSeq</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mark1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AKOM</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LZ78</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Memory - Input Ratio'!$B$9,'Memory - Input Ratio'!$D$9:$I$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.4832037354096923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.227452591535382</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.58880754708883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.909177030071217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9501040136994559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.196200788158297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9192272631500238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-010B-744E-AD9F-6A57036B2926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1087849711"/>
+        <c:axId val="1021367279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1087849711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predictors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021367279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021367279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory over input size ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087849711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average &amp; St. Deviation bars</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.20216061533974911"/>
+                  <c:y val="5.9328703703703703E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0060-F843-B80E-F5FBA7A91C35}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Memory - Input Ratio'!$C$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>970.78406612095671</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Memory - Input Ratio'!$C$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>970.78406612095671</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memory - Input Ratio'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TDAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory - Input Ratio'!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>488.80869613628494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0060-F843-B80E-F5FBA7A91C35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1087849711"/>
+        <c:axId val="1021367279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1087849711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Predictors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1021367279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1021367279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory over input size ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087849711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
           <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
@@ -9420,6 +12399,56 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.176045277803377E-2"/>
+                  <c:y val="0.15372939899672275"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -9561,6 +12590,56 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.965738673679967E-2"/>
+                  <c:y val="9.4963282441071398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                      <a:ea typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                      <a:cs typeface="CMU Concrete Roman" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'Datasets Attributes, Notes'!$E$39:$E$43</c:f>
@@ -11709,6 +14788,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14514,6 +17673,1014 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -19937,6 +24104,196 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>128209</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>719610</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>58307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8FB1BB-055E-684A-82A8-CAA2687220B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>592005</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B93620C-1A7B-3445-B821-266D99FE8E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>756670</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>30912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5566DB-9AA7-C54F-BB76-AB6655FA646E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591206</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>179763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>503430</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>188787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B4D6D9-2769-ED42-AAC0-90EA60BDCFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578087</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>197067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>826074</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>14819</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5355DBD-FD97-7D49-B18A-BD66D0AEF37C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20237,10 +24594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F97A20-C648-D746-9C76-A8398157CF72}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="C1" zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20248,7 +24605,7 @@
     <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20279,8 +24636,11 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -20314,8 +24674,12 @@
       <c r="K2" s="5">
         <v>0.19</v>
       </c>
+      <c r="R2" s="3">
+        <f>D2-E2</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -20349,8 +24713,12 @@
       <c r="K3" s="4">
         <v>3.64</v>
       </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3:R8" si="0">D3-E3</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -20384,8 +24752,12 @@
       <c r="K4" s="4">
         <v>29.57</v>
       </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -20419,8 +24791,12 @@
       <c r="K5" s="4">
         <v>2.1800000000000002</v>
       </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -20454,8 +24830,12 @@
       <c r="K6" s="4">
         <v>6.24</v>
       </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>79.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -20489,8 +24869,12 @@
       <c r="K7" s="6">
         <v>0.6</v>
       </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -20524,13 +24908,17 @@
       <c r="K8" s="5">
         <v>0.38</v>
       </c>
+      <c r="R8" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -20565,7 +24953,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -20600,7 +24988,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -20635,7 +25023,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -20670,7 +25058,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -20705,7 +25093,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -20740,7 +25128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -21092,7 +25480,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -21100,23 +25488,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5C8283-F952-754A-A544-78499AC1539F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView topLeftCell="S61" zoomScale="112" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="X74" sqref="X74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D61A1C-C42B-6442-B132-77D4B94522A1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21224,15 +25616,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N2/'Datasets Attributes, Notes'!$F2</f>
         <v>49.114244545080282</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <f>M2/SUM(M2:O2)</f>
         <v>0.88012617323496689</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <f>N2/SUM(M2:O2)</f>
         <v>0.10192367689895751</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="14">
         <f>O2/SUM(M2:O2)</f>
         <v>1.7950149866075606E-2</v>
       </c>
@@ -21289,15 +25681,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N3/'Datasets Attributes, Notes'!$F3</f>
         <v>358.74862637362639</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <f t="shared" ref="Q3:Q8" si="0">M3/SUM(M3:O3)</f>
         <v>0.8289595729151269</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <f t="shared" ref="R3:R8" si="1">N3/SUM(M3:O3)</f>
         <v>0.14949603905771547</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <f t="shared" ref="S3:S8" si="2">O3/SUM(M3:O3)</f>
         <v>2.1544388027157732E-2</v>
       </c>
@@ -21354,15 +25746,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N4/'Datasets Attributes, Notes'!$F4</f>
         <v>2.8877551020408161</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <f t="shared" si="0"/>
         <v>0.38771832664140932</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <f t="shared" si="1"/>
         <v>0.60891753060314013</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <f t="shared" si="2"/>
         <v>3.3641427554503859E-3</v>
       </c>
@@ -21419,15 +25811,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N5/'Datasets Attributes, Notes'!$F5</f>
         <v>3.859375</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <f t="shared" si="0"/>
         <v>0.47265801473513847</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <f t="shared" si="1"/>
         <v>0.52520673293257647</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <f t="shared" si="2"/>
         <v>2.1352523322851862E-3</v>
       </c>
@@ -21484,15 +25876,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N6/'Datasets Attributes, Notes'!$F6</f>
         <v>3.4773909563825529</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <f t="shared" si="0"/>
         <v>0.44462152761035778</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <f t="shared" si="1"/>
         <v>0.54975423912828913</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <f t="shared" si="2"/>
         <v>5.6242332613530713E-3</v>
       </c>
@@ -21549,15 +25941,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N7/'Datasets Attributes, Notes'!$F7</f>
         <v>477.65174682193975</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <f t="shared" si="0"/>
         <v>0.96767951355101123</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <f t="shared" si="1"/>
         <v>1.8231652835168213E-2</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <f t="shared" si="2"/>
         <v>1.408883361382068E-2</v>
       </c>
@@ -21614,15 +26006,15 @@
         <f>'Exec. Time of Test Phase (ms)'!N8/'Datasets Attributes, Notes'!$F8</f>
         <v>61.060160965794765</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <f t="shared" si="0"/>
         <v>0.78770156992810703</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="14">
         <f t="shared" si="1"/>
         <v>0.20132533137352207</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="14">
         <f t="shared" si="2"/>
         <v>1.0973098698370768E-2</v>
       </c>
@@ -21670,6 +26062,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -22083,13 +26476,13 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>53</v>
       </c>
     </row>
@@ -22873,8 +27266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1A666-1255-6442-A7B1-7B11C7C732E9}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="108" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13:AC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23171,18 +27564,44 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="A9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="8">
+        <f>AVERAGE(B2:B8)</f>
+        <v>3.4832037354096923</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:I9" si="0">AVERAGE(C2:C8)</f>
+        <v>488.80869613628494</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>16.227452591535382</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>20.58880754708883</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.909177030071217</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9501040136994559</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>29.196200788158297</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9192272631500238</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="8">
@@ -23190,31 +27609,31 @@
         <v>2.5643220494934185</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" ref="C10:I10" si="0">STDEV(C2:C8)</f>
+        <f t="shared" ref="C10:I10" si="1">STDEV(C2:C8)</f>
         <v>970.78406612095671</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.00498652111327</v>
       </c>
       <c r="E10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.269606674363867</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24606411480688034</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6242506710494071</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.517230736542361</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.506912781063331</v>
       </c>
     </row>
@@ -23816,7 +28235,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -23824,8 +28243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C2CA90-8492-FA44-8F31-E345E5B9D4A9}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23886,6 +28305,7 @@
         <f>(_xlfn.CEILING.MATH(LOG(D2, 2)))*(B2)*0.000000125</f>
         <v>4.1074874999999997E-2</v>
       </c>
+      <c r="J2" s="3"/>
       <c r="M2" s="11">
         <v>6</v>
       </c>
@@ -23917,6 +28337,7 @@
         <f t="shared" ref="H3:H43" si="1">(_xlfn.CEILING.MATH(LOG(D3, 2)))*(B3)*0.000000125</f>
         <v>7.0917750000000002E-2</v>
       </c>
+      <c r="J3" s="3"/>
       <c r="M3" s="11">
         <v>20</v>
       </c>
@@ -23948,6 +28369,7 @@
         <f t="shared" si="1"/>
         <v>3.1368750000000001E-2</v>
       </c>
+      <c r="J4" s="3"/>
       <c r="M4" s="11">
         <v>6</v>
       </c>
@@ -23979,6 +28401,7 @@
         <f t="shared" si="1"/>
         <v>0.153112375</v>
       </c>
+      <c r="J5" s="3"/>
       <c r="M5" s="11">
         <v>6</v>
       </c>
@@ -24010,6 +28433,7 @@
         <f t="shared" si="1"/>
         <v>3.2500999999999995E-2</v>
       </c>
+      <c r="J6" s="3"/>
       <c r="M6" s="11">
         <v>8</v>
       </c>
@@ -24041,7 +28465,7 @@
         <f t="shared" si="1"/>
         <v>1.2281006249999999</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="3"/>
       <c r="M7" s="11">
         <v>22</v>
       </c>
@@ -24073,6 +28497,7 @@
         <f t="shared" si="1"/>
         <v>0.27861150000000001</v>
       </c>
+      <c r="J8" s="3"/>
       <c r="M8" s="11">
         <v>21</v>
       </c>
@@ -24605,7 +29030,7 @@
       <c r="G27">
         <v>7</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="17">
         <f t="shared" si="1"/>
         <v>4.5393761249999995</v>
       </c>
@@ -24632,7 +29057,7 @@
       <c r="G28">
         <v>7</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="17">
         <f t="shared" si="1"/>
         <v>5.0455825000000001</v>
       </c>
@@ -24659,7 +29084,7 @@
       <c r="G29">
         <v>7</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <f t="shared" si="1"/>
         <v>5.5499839999999994</v>
       </c>
@@ -24686,7 +29111,7 @@
       <c r="G30">
         <v>7</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <f t="shared" si="1"/>
         <v>5.5458631249999994</v>
       </c>
@@ -24713,7 +29138,7 @@
       <c r="G31">
         <v>7</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <f t="shared" si="1"/>
         <v>5.5499056250000001</v>
       </c>
@@ -24740,13 +29165,13 @@
       <c r="G32">
         <v>7</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="17">
         <f t="shared" si="1"/>
         <v>6.053922</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="18"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -24770,7 +29195,7 @@
       <c r="G34">
         <v>4</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f t="shared" ref="H34" si="2">(_xlfn.CEILING.MATH(LOG(D34, 2)))*(B34)*0.000000125</f>
         <v>4.8980974999999995</v>
       </c>
@@ -24797,7 +29222,7 @@
       <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="17">
         <f t="shared" ref="H35" si="3">(_xlfn.CEILING.MATH(LOG(D35, 2)))*(B35)*0.000000125</f>
         <v>4.9787912499999996</v>
       </c>
@@ -24824,7 +29249,7 @@
       <c r="G36">
         <v>4</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="17">
         <f t="shared" ref="H36" si="4">(_xlfn.CEILING.MATH(LOG(D36, 2)))*(B36)*0.000000125</f>
         <v>5.0455350000000001</v>
       </c>
@@ -24851,13 +29276,13 @@
       <c r="G37">
         <v>4</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="17">
         <f t="shared" ref="H37" si="5">(_xlfn.CEILING.MATH(LOG(D37, 2)))*(B37)*0.000000125</f>
         <v>4.66667875</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="18"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -24881,7 +29306,7 @@
       <c r="G39">
         <v>14</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H39" s="17">
         <f t="shared" si="1"/>
         <v>0.82836999999999994</v>
       </c>
@@ -24908,7 +29333,7 @@
       <c r="G40">
         <v>14</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="17">
         <f t="shared" si="1"/>
         <v>1.6594487499999999</v>
       </c>
@@ -24935,7 +29360,7 @@
       <c r="G41">
         <v>14</v>
       </c>
-      <c r="H41" s="18">
+      <c r="H41" s="17">
         <f t="shared" si="1"/>
         <v>3.3198737499999997</v>
       </c>
@@ -24962,7 +29387,7 @@
       <c r="G42">
         <v>14</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="17">
         <f t="shared" si="1"/>
         <v>6.6420724999999994</v>
       </c>
@@ -24989,7 +29414,7 @@
       <c r="G43">
         <v>14</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="17">
         <f t="shared" si="1"/>
         <v>13.291057499999999</v>
       </c>
@@ -25015,25 +29440,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -25107,19 +29532,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -25175,22 +29600,22 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -25255,7 +29680,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="3">
@@ -25302,25 +29727,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>66</v>
       </c>
     </row>
@@ -25394,19 +29819,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>67</v>
       </c>
     </row>
@@ -25414,16 +29839,16 @@
       <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>4.2885</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>4.1141300000000003</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>4.2238699999999998</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>4.3745700000000003</v>
       </c>
     </row>
@@ -25431,16 +29856,16 @@
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1.0930200000000001</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>0.73525399999999996</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>0.36714999999999998</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>7.2503999999999999E-2</v>
       </c>
     </row>
@@ -25448,36 +29873,36 @@
       <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>6.96333</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>7.07735</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>7.2179900000000004</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>6.6927099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>73</v>
       </c>
     </row>
@@ -25542,7 +29967,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="3">
@@ -25582,8 +30007,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D84" zoomScale="91" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92:V119"/>
+    <sheetView topLeftCell="A35" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
